--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="1089">
   <si>
     <t>Campo</t>
   </si>
@@ -224,7 +224,7 @@
     <t>true</t>
   </si>
   <si>
-    <t>Indica se l'evento Ã¨ stato redatto nella casa comunale</t>
+    <t>Indica se l'evento è stato redatto nella casa comunale</t>
   </si>
   <si>
     <t>luogoRedazione</t>
@@ -383,7 +383,7 @@
     <t>array[#/components/schemas/ModelSoggetto]</t>
   </si>
   <si>
-    <t>Intestatari dell'atto (uno o piÃ¹ in base al registro)</t>
+    <t>Intestatari dell'atto (uno o più in base al registro)</t>
   </si>
   <si>
     <t>variazioni</t>
@@ -608,8 +608,8 @@
     <t>composizioneCompleta</t>
   </si>
   <si>
-    <t>L'anno 2020 addÃ¬ 8 del mese di 1 alle ore 12 e minuti 1 nel(1) la Casa Comunale avanti a me CESENA ANSC Ufficiale dello Stato Civile del Comune di CESENA (2) Per delega avuta
-e' comparsa cognomeMadre nomeMadre nata in ROMA lÃ¬ 1977-11-12 (3) residente in ROCCA CANTERANO</t>
+    <t>L'anno 2020 addì 8 del mese di 1 alle ore 12 e minuti 1 nel(1) la Casa Comunale avanti a me CESENA ANSC Ufficiale dello Stato Civile del Comune di CESENA (2) Per delega avuta
+e' comparsa cognomeMadre nomeMadre nata in ROMA lì 1977-11-12 (3) residente in ROCCA CANTERANO</t>
   </si>
   <si>
     <t>Composizione completa dell'atto</t>
@@ -930,16 +930,16 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@5fc3b20b</t>
-  </si>
-  <si>
-    <t>Indica se il soggetto Ã¨ il dichiarante</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@1b61a646</t>
+  </si>
+  <si>
+    <t>Indica se il soggetto è il dichiarante</t>
   </si>
   <si>
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Indica se il soggetto Ã¨ il comparente</t>
+    <t>Indica se il soggetto è il comparente</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -1104,7 +1104,7 @@
     <t>indirizzoEvento</t>
   </si>
   <si>
-    <t>Indirizzo in cui Ã¨ avvenuto l'evento</t>
+    <t>Indirizzo in cui è avvenuto l'evento</t>
   </si>
   <si>
     <t>sceltaCognome</t>
@@ -1197,7 +1197,7 @@
     <t>tipologiaDocumento</t>
   </si>
   <si>
-    <t>Carta d'identitÃ </t>
+    <t>Carta d'identità</t>
   </si>
   <si>
     <t>Tipologia di documento utilizzato per il riconoscimento.</t>
@@ -1350,7 +1350,7 @@
     <t>Descrizione impedimento</t>
   </si>
   <si>
-    <t>Necessario se "sordumuto che sa leggere ma non puÃ² scrivere"</t>
+    <t>Necessario se "sordumuto che sa leggere ma non può scrivere"</t>
   </si>
   <si>
     <t>ritrovamento</t>
@@ -1425,7 +1425,7 @@
     <t>2022-01-01</t>
   </si>
   <si>
-    <t>In caso di data presunta di morte Ã¨ l'inizio dell'intervallo</t>
+    <t>In caso di data presunta di morte è l'inizio dell'intervallo</t>
   </si>
   <si>
     <t>dataPresuntaMorteA</t>
@@ -1434,7 +1434,7 @@
     <t>2022-03-31</t>
   </si>
   <si>
-    <t>In caso di data presunta di morte Ã¨ la fine dell'intervallo</t>
+    <t>In caso di data presunta di morte è la fine dell'intervallo</t>
   </si>
   <si>
     <t>oraPresuntaMorteDa</t>
@@ -1443,7 +1443,7 @@
     <t>10:00</t>
   </si>
   <si>
-    <t>In caso di ora presunta di morte Ã¨ l'inizio dell'intervallo</t>
+    <t>In caso di ora presunta di morte è l'inizio dell'intervallo</t>
   </si>
   <si>
     <t>oraPresuntaMorteA</t>
@@ -1452,7 +1452,7 @@
     <t>12:00</t>
   </si>
   <si>
-    <t>In caso di ora presunta di morte Ã¨ la fine dell'intervallo</t>
+    <t>In caso di ora presunta di morte è la fine dell'intervallo</t>
   </si>
   <si>
     <t>testoDataPresuntaMorte</t>
@@ -1461,7 +1461,7 @@
     <t>Presumibilmente</t>
   </si>
   <si>
-    <t>In caso di data presunta di morte puÃ² contenere un testo aggiuntivo</t>
+    <t>In caso di data presunta di morte può contenere un testo aggiuntivo</t>
   </si>
   <si>
     <t>annoMorte</t>
@@ -1506,7 +1506,7 @@
     <t>nomeCampo</t>
   </si>
   <si>
-    <t>Nome del campo su cui Ã¨ stata effettuata la variazione.</t>
+    <t>Nome del campo su cui è stata effettuata la variazione.</t>
   </si>
   <si>
     <t>vecchioValore</t>
@@ -1587,7 +1587,7 @@
     <t>Ufficiale di polizia</t>
   </si>
   <si>
-    <t>Indica a chi Ã¨ stato reso il consenso -- DEPRECATO -- Usare assensoAtto</t>
+    <t>Indica a chi è stato reso il consenso -- DEPRECATO -- Usare assensoAtto</t>
   </si>
   <si>
     <t>assensoAtto</t>
@@ -1611,13 +1611,13 @@
     <t>giaRiconosciutoDaPadre</t>
   </si>
   <si>
-    <t>Dice se figlio giÃ  riconosciuto dal padre</t>
+    <t>Dice se figlio già riconosciuto dal padre</t>
   </si>
   <si>
     <t>giaRiconosciutoDaMadre</t>
   </si>
   <si>
-    <t>Dice se figlio giÃ  riconosciuto dalla madre</t>
+    <t>Dice se figlio già riconosciuto dalla madre</t>
   </si>
   <si>
     <t>infraQuattordicenne</t>
@@ -1629,7 +1629,7 @@
     <t>preMorto</t>
   </si>
   <si>
-    <t>Il figlio riconosciuto Ã¨ deceduto prima del riconoscimento</t>
+    <t>Il figlio riconosciuto è deceduto prima del riconoscimento</t>
   </si>
   <si>
     <t>presenzaDiscendenti</t>
@@ -1659,7 +1659,7 @@
     <t>Ospedale S. Tizio</t>
   </si>
   <si>
-    <t>AutoritÃ  che ha rilasciato il certificato</t>
+    <t>Autorità che ha rilasciato il certificato</t>
   </si>
   <si>
     <t>data</t>
@@ -1674,7 +1674,7 @@
     <t>avvenuto</t>
   </si>
   <si>
-    <t>Il riconoscimento Ã¨ avvenuto oppure no?</t>
+    <t>Il riconoscimento è avvenuto oppure no?</t>
   </si>
   <si>
     <t>autorizzazione</t>
@@ -1785,7 +1785,7 @@
     <t>dichiarazioneRiconoscimento</t>
   </si>
   <si>
-    <t>specifica se Ã¨ atto pubblico o testamento</t>
+    <t>specifica se è atto pubblico o testamento</t>
   </si>
   <si>
     <t>tipoRiconoscimento</t>
@@ -1794,7 +1794,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t>SI/Figlio maggiorenne riconosciuto dal padre e giÃ  riconosciuto dalla madre NO/Altri casi</t>
+    <t>SI/Figlio maggiorenne riconosciuto dal padre e già riconosciuto dalla madre NO/Altri casi</t>
   </si>
   <si>
     <t>Tipo scelta cognome  (decodifica ANSC_39)</t>
@@ -1905,7 +1905,7 @@
     <t>modalitaNome</t>
   </si>
   <si>
-    <t>modalitÃ  attributi Soggetto</t>
+    <t>modalità attributi Soggetto</t>
   </si>
   <si>
     <t>dispositivo</t>
@@ -1932,7 +1932,7 @@
     <t>(decodifica ANSC_75)</t>
   </si>
   <si>
-    <t>classe base per le trascrizioni. Non Ã¨ mai usata da sola</t>
+    <t>classe base per le trascrizioni. Non è mai usata da sola</t>
   </si>
   <si>
     <t>tipoDichiarazione</t>
@@ -1944,7 +1944,7 @@
     <t>2022-04-22</t>
   </si>
   <si>
-    <t>In caso di tipo dichiarazione comunicazione scritta, Ã¨ la data della comunicazione</t>
+    <t>In caso di tipo dichiarazione comunicazione scritta, è la data della comunicazione</t>
   </si>
   <si>
     <t>testoLibero</t>
@@ -1989,7 +1989,7 @@
     <t>Funivia</t>
   </si>
   <si>
-    <t>Se tipoLuogoNascita Ã¨ Altro qui Ã¨ indicata la denominazione</t>
+    <t>Se tipoLuogoNascita è Altro qui è indicata la denominazione</t>
   </si>
   <si>
     <t>descrizioneTipoRichiedente</t>
@@ -2091,10 +2091,10 @@
     <t>riconoscimentoPaternoConSentenza</t>
   </si>
   <si>
-    <t>Il riconoscimento paterno Ã¨ avvenuto con sentenza?</t>
-  </si>
-  <si>
-    <t>Un ascendente Ã¨ un avo in linea diretta</t>
+    <t>Il riconoscimento paterno è avvenuto con sentenza?</t>
+  </si>
+  <si>
+    <t>Un ascendente è un avo in linea diretta</t>
   </si>
   <si>
     <t>gradoDiParentela</t>
@@ -2112,7 +2112,7 @@
     <t>intestatarioApolide</t>
   </si>
   <si>
-    <t>L'intestatario Ã¨ apolide</t>
+    <t>L'intestatario è apolide</t>
   </si>
   <si>
     <t>parenteDiretto</t>
@@ -2121,13 +2121,13 @@
     <t>#/components/schemas/ModelAscendente</t>
   </si>
   <si>
-    <t>indirizzoPostaAutoritÃ </t>
+    <t>indirizzoPostaAutorità</t>
   </si>
   <si>
     <t>Sindaco - Piazza del Municipio 1</t>
   </si>
   <si>
-    <t>Indirizzo di posta dell'autoritÃ  competente</t>
+    <t>Indirizzo di posta dell'autorità competente</t>
   </si>
   <si>
     <t>infoResidenzaBiennale</t>
@@ -2151,7 +2151,7 @@
     <t>301</t>
   </si>
   <si>
-    <t>Ulteriore cittadinanza di cui il soggetto Ã¨ in possesso</t>
+    <t>Ulteriore cittadinanza di cui il soggetto è in possesso</t>
   </si>
   <si>
     <t>ulterioreCittadinanza</t>
@@ -2193,7 +2193,7 @@
     <t>tempoAssunzione</t>
   </si>
   <si>
-    <t>Dice se l'assunzione Ã¨ giÃ  avvenuta oppure avverrÃ  (decodifica ANSC_45)</t>
+    <t>Dice se l'assunzione è già avvenuta oppure avverrà (decodifica ANSC_45)</t>
   </si>
   <si>
     <t>tipoResidenza</t>
@@ -2202,7 +2202,7 @@
     <t>Tipo di residenza in Italia per richiesta di cittadinanza (decodifica ANSC_57)</t>
   </si>
   <si>
-    <t>ForlÃ¬</t>
+    <t>Forlì</t>
   </si>
   <si>
     <t>Provincia del comune in cui si intende prendere la residenza</t>
@@ -2217,13 +2217,13 @@
     <t>1223</t>
   </si>
   <si>
-    <t>ID Comune in cui si Ã¨ presa, o si intende prendere, la residenza</t>
+    <t>ID Comune in cui si è presa, o si intende prendere, la residenza</t>
   </si>
   <si>
     <t>comuneResidenza</t>
   </si>
   <si>
-    <t>Comune in cui si Ã¨ presa, o si intende prendere, la residenza</t>
+    <t>Comune in cui si è presa, o si intende prendere, la residenza</t>
   </si>
   <si>
     <t>dataInizioResidenza</t>
@@ -2250,7 +2250,7 @@
     <t>presenzaInteressato</t>
   </si>
   <si>
-    <t>L'interessato Ã¨ presente o no?</t>
+    <t>L'interessato è presente o no?</t>
   </si>
   <si>
     <t>delegato</t>
@@ -2307,7 +2307,7 @@
     <t>datoreEstero</t>
   </si>
   <si>
-    <t>Il datore di lavoro Ã¨ estero</t>
+    <t>Il datore di lavoro è estero</t>
   </si>
   <si>
     <t>nomeDatoreLavoro</t>
@@ -2352,7 +2352,7 @@
     <t>dataEfficaciaProvvedEstero</t>
   </si>
   <si>
-    <t>Data di validitÃ  del provvedimento estero</t>
+    <t>Data di validità del provvedimento estero</t>
   </si>
   <si>
     <t>numeroProtocollo</t>
@@ -2427,7 +2427,7 @@
     <t>ricevutaDaPrivatoCittadino</t>
   </si>
   <si>
-    <t>Indica se la notifica Ã¨ arrivata da un privato cittadino oppure dall'autoritÃ  giudiziaria</t>
+    <t>Indica se la notifica è arrivata da un privato cittadino oppure dall'autorità giudiziaria</t>
   </si>
   <si>
     <t>attoMatrimonio</t>
@@ -2544,7 +2544,7 @@
     <t>comprensioneSposo</t>
   </si>
   <si>
-    <t>AbilitÃ  di comprensione dello sposo (decodifica ANSC_32)</t>
+    <t>Abilità di comprensione dello sposo (decodifica ANSC_32)</t>
   </si>
   <si>
     <t>motivoImpedimentoScritturaSposo</t>
@@ -2559,7 +2559,7 @@
     <t>comprensioneSposa</t>
   </si>
   <si>
-    <t>AbilitÃ  di comprensione della sposa (decodifica ANSC_32)</t>
+    <t>Abilità di comprensione della sposa (decodifica ANSC_32)</t>
   </si>
   <si>
     <t>motivoImpedimentoScritturaSposa</t>
@@ -2595,7 +2595,7 @@
     <t>pubblicazioneInPiuComuni</t>
   </si>
   <si>
-    <t>Se il matrimonio ha avuto pubblicazioni in piÃ¹ comuni</t>
+    <t>Se il matrimonio ha avuto pubblicazioni in più comuni</t>
   </si>
   <si>
     <t>pubblicazione1</t>
@@ -2682,7 +2682,7 @@
     <t>sposoInPericoloVita</t>
   </si>
   <si>
-    <t>Indica se lo sposo Ã¨ in pericolo imminente di vita</t>
+    <t>Indica se lo sposo è in pericolo imminente di vita</t>
   </si>
   <si>
     <t>accertamentoVolontaSposo</t>
@@ -2691,19 +2691,19 @@
     <t>Accertamento</t>
   </si>
   <si>
-    <t>Descrizione di come l'USC ha accertato la volontÃ  dello sposo in pericolo di vita</t>
+    <t>Descrizione di come l'USC ha accertato la volontà dello sposo in pericolo di vita</t>
   </si>
   <si>
     <t>sposaInPericoloVita</t>
   </si>
   <si>
-    <t>Indica se la sposa Ã¨ in pericolo imminente di vita</t>
+    <t>Indica se la sposa è in pericolo imminente di vita</t>
   </si>
   <si>
     <t>accertamentoVolontaSposa</t>
   </si>
   <si>
-    <t>Descrizione di come l'USC ha accertato la volontÃ  della sposa in pericolo di vita</t>
+    <t>Descrizione di come l'USC ha accertato la volontà della sposa in pericolo di vita</t>
   </si>
   <si>
     <t>comuneDelegante</t>
@@ -2760,7 +2760,7 @@
     <t>riconoscimentoProle</t>
   </si>
   <si>
-    <t>Contestualmente al matrimonio c'Ã¨ il riconoscimento della prole?</t>
+    <t>Contestualmente al matrimonio c'è il riconoscimento della prole?</t>
   </si>
   <si>
     <t>numeroFigli</t>
@@ -2772,7 +2772,7 @@
     <t>figli</t>
   </si>
   <si>
-    <t>GeneralitÃ  dei figli in caso di riconoscimento contestuale al matrimonio</t>
+    <t>Generalità dei figli in caso di riconoscimento contestuale al matrimonio</t>
   </si>
   <si>
     <t>datiRiconoscimentoFigli</t>
@@ -2832,7 +2832,7 @@
     <t>comprensioneConiuge1</t>
   </si>
   <si>
-    <t>AbilitÃ  di comprensione del coniuge 1 (decodifica ANSC_32)</t>
+    <t>Abilità di comprensione del coniuge 1 (decodifica ANSC_32)</t>
   </si>
   <si>
     <t>motivoImpedimentoScritturaConiuge1</t>
@@ -2844,7 +2844,7 @@
     <t>comprensioneConiuge2</t>
   </si>
   <si>
-    <t>AbilitÃ  di comprensione del coniuge 2 (decodifica ANSC_32)</t>
+    <t>Abilità di comprensione del coniuge 2 (decodifica ANSC_32)</t>
   </si>
   <si>
     <t>motivoImpedimentoScritturaConiuge2</t>
@@ -2871,25 +2871,25 @@
     <t>coniuge1InPericoloVita</t>
   </si>
   <si>
-    <t>Indica se il coniuge 1 Ã¨ in pericolo imminente di vita</t>
+    <t>Indica se il coniuge 1 è in pericolo imminente di vita</t>
   </si>
   <si>
     <t>accertamentoVolontaConiuge1</t>
   </si>
   <si>
-    <t>Descrizione di come l'USC ha accertato la volontÃ  del coniuge 1 in pericolo di vita</t>
+    <t>Descrizione di come l'USC ha accertato la volontà del coniuge 1 in pericolo di vita</t>
   </si>
   <si>
     <t>coniuge2InPericoloVita</t>
   </si>
   <si>
-    <t>Indica se il coniuge 2 Ã¨ in pericolo imminente di vita</t>
+    <t>Indica se il coniuge 2 è in pericolo imminente di vita</t>
   </si>
   <si>
     <t>accertamentoVolontaConiuge2</t>
   </si>
   <si>
-    <t>Descrizione di come l'USC ha accertato la volontÃ  del coniuge 2 in pericolo di vita</t>
+    <t>Descrizione di come l'USC ha accertato la volontà del coniuge 2 in pericolo di vita</t>
   </si>
   <si>
     <t>Napoli</t>
@@ -2982,7 +2982,7 @@
     <t>attoNotarile</t>
   </si>
   <si>
-    <t>Se l'accordo Ã¨ stato stipulato tramite notaio</t>
+    <t>Se l'accordo è stato stipulato tramite notaio</t>
   </si>
   <si>
     <t>nomeNotaio</t>
@@ -3057,13 +3057,13 @@
     <t>presenzaConiuge1</t>
   </si>
   <si>
-    <t>Il coniuge 1 Ã¨ presente?</t>
+    <t>Il coniuge 1 è presente?</t>
   </si>
   <si>
     <t>presenzaAvvocatoConiuge1</t>
   </si>
   <si>
-    <t>L'avvocato del coniuge 1 Ã¨ presente?</t>
+    <t>L'avvocato del coniuge 1 è presente?</t>
   </si>
   <si>
     <t>avvocatoConiuge1</t>
@@ -3081,13 +3081,13 @@
     <t>presenzaConiuge2</t>
   </si>
   <si>
-    <t>Il coniuge 2 Ã¨ presente?</t>
+    <t>Il coniuge 2 è presente?</t>
   </si>
   <si>
     <t>presenzaAvvocatoConiuge2</t>
   </si>
   <si>
-    <t>L'avvocato del coniuge 2 Ã¨ presente?</t>
+    <t>L'avvocato del coniuge 2 è presente?</t>
   </si>
   <si>
     <t>avvocatoConiuge2</t>
@@ -3108,7 +3108,7 @@
     <t>autoritaGiudiziaria</t>
   </si>
   <si>
-    <t>Nel caso esista un giudizio pendente questa Ã¨ l'autoritÃ  giudiziariarelativa</t>
+    <t>Nel caso esista un giudizio pendente questa è l'autorità giudiziariarelativa</t>
   </si>
   <si>
     <t>dataConfermaAccordo</t>
@@ -3207,6 +3207,12 @@
     <t>Data comunicazione scioglimento unilaterale dell'unione civile</t>
   </si>
   <si>
+    <t>dataRicezione</t>
+  </si>
+  <si>
+    <t>Data ricezione comunicazione scioglimento unilaterale dell'unione civile</t>
+  </si>
+  <si>
     <t>raccomandataAR</t>
   </si>
   <si>
@@ -3219,13 +3225,13 @@
     <t>PEC</t>
   </si>
   <si>
-    <t>Se non Ã¨ stata usata la raccomandata AR va indicato quale altro modo Ã¨ stato usato</t>
+    <t>Se non è stata usata la raccomandata AR va indicato quale altro modo è stato usato</t>
   </si>
   <si>
     <t>indirizzoComunicazione</t>
   </si>
   <si>
-    <t>Dove Ã¨ stata inviata la comunicazione (decodifica ANSC_56)</t>
+    <t>Dove è stata inviata la comunicazione (decodifica ANSC_56)</t>
   </si>
   <si>
     <t>I coniugi sono parte in causa in un giudizio relativo allo scioglimento?</t>
@@ -3297,7 +3303,7 @@
     <t>idTipoRettifica</t>
   </si>
   <si>
-    <t>Rettifica di annullamento o modifica?</t>
+    <t>Rettifica di annullamento o modifica? (decodifica ANSC_79)</t>
   </si>
   <si>
     <t>I dati della composizione in una lingua addizionale</t>
@@ -3857,7 +3863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5004,7 +5010,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5129,7 +5135,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5436,7 +5442,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5519,7 +5525,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5574,7 +5580,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5685,7 +5691,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5936,7 +5942,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5991,7 +5997,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6074,7 +6080,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6137,7 +6143,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6146,7 +6152,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6853,7 +6859,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6862,7 +6868,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7225,7 +7231,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7344,7 +7350,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7353,7 +7359,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7394,7 +7400,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7737,7 +7743,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
@@ -7747,7 +7753,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7838,7 +7844,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -7849,7 +7855,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8352,7 +8358,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8555,7 +8561,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
@@ -8565,7 +8571,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8670,7 +8676,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
@@ -8680,7 +8686,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8757,7 +8763,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
@@ -8767,7 +8773,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8872,7 +8878,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
@@ -8882,7 +8888,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8973,7 +8979,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
@@ -8983,7 +8989,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9472,7 +9478,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9625,7 +9631,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10450,7 +10456,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11079,7 +11085,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11176,7 +11182,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11287,7 +11293,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11468,7 +11474,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11537,7 +11543,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11788,7 +11794,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12109,7 +12115,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12218,10 +12224,10 @@
         <v>1050</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>55</v>
+        <v>960</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>1051</v>
@@ -12232,24 +12238,24 @@
         <v>1052</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C9" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>1053</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="78" t="s">
         <v>1055</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>15</v>
       </c>
       <c r="D10" s="78" t="s">
         <v>1056</v>
@@ -12257,91 +12263,91 @@
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>1014</v>
+        <v>1057</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1017</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>59</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1005</v>
+        <v>59</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1006</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B16" s="78" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>55</v>
+        <v>1005</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>54</v>
@@ -12350,12 +12356,12 @@
         <v>55</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>54</v>
@@ -12364,62 +12370,76 @@
         <v>55</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>59</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1005</v>
+        <v>59</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1013</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1058</v>
+        <v>1005</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1059</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="78" t="s">
         <v>1060</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="D22" s="78" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="78" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B23" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="78" t="s">
+      <c r="C23" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="78" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12430,7 +12450,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12611,7 +12631,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12633,7 +12653,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>5</v>
@@ -12642,12 +12662,12 @@
         <v>59</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>116</v>
@@ -12661,7 +12681,7 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>116</v>
@@ -12675,7 +12695,7 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12684,35 +12704,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -12722,7 +12742,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12758,16 +12778,16 @@
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -12777,7 +12797,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12813,21 +12833,21 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="84" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>5</v>
@@ -12836,7 +12856,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -12846,7 +12866,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12857,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -12882,16 +12902,16 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="4">
@@ -12902,14 +12922,14 @@
         <v>5</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12918,7 +12938,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12995,7 +13015,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
@@ -13005,7 +13025,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13088,7 +13108,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13319,7 +13339,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -13328,7 +13348,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13433,7 +13453,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -13442,7 +13462,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1094">
   <si>
     <t>Campo</t>
   </si>
@@ -615,6 +615,12 @@
     <t>Composizione completa dell'atto</t>
   </si>
   <si>
+    <t>idRiconoscimentoSentenza</t>
+  </si>
+  <si>
+    <t>Identificativo ricoscimento.</t>
+  </si>
+  <si>
     <t>Identificativo dell'atto collegato.</t>
   </si>
   <si>
@@ -930,7 +936,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@1b61a646</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@6bca3b27</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -1035,6 +1041,24 @@
     <t>Codice identificativo univoco del documento da trascrivere.</t>
   </si>
   <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Nazione dell'ente dichiarante.</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Nome delal Nazione dell'ente dichiarante.</t>
+  </si>
+  <si>
     <t>Estende</t>
   </si>
   <si>
@@ -1044,18 +1068,12 @@
     <t>object</t>
   </si>
   <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
     <t>Nazione estera dell'ente (decodifica ANPR_02)</t>
   </si>
   <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
     <t>AUSTRIA</t>
   </si>
   <si>
@@ -1390,9 +1408,6 @@
   </si>
   <si>
     <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Italia</t>
   </si>
   <si>
     <t>Nome della nazione in cui e' avvenuto il decesso.</t>
@@ -3863,7 +3878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5001,6 +5016,20 @@
       </c>
       <c r="D81" s="2" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5032,63 +5061,63 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>5</v>
@@ -5097,35 +5126,35 @@
         <v>59</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -5157,21 +5186,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5180,12 +5209,12 @@
         <v>61</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5194,12 +5223,12 @@
         <v>64</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5208,12 +5237,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5222,152 +5251,152 @@
         <v>67</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5376,40 +5405,40 @@
         <v>30</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5418,21 +5447,21 @@
         <v>40</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5464,49 +5493,49 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5515,7 +5544,7 @@
         <v>94</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +5576,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5556,12 +5585,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -5570,7 +5599,7 @@
         <v>117</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5611,21 +5640,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4">
@@ -5644,7 +5673,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>143</v>
@@ -5658,7 +5687,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>148</v>
@@ -5672,7 +5701,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>148</v>
@@ -5727,7 +5756,7 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5736,12 +5765,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5750,40 +5779,40 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>143</v>
@@ -5797,21 +5826,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -5820,68 +5849,68 @@
         <v>73</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>54</v>
@@ -5890,26 +5919,26 @@
         <v>55</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>108</v>
@@ -5923,7 +5952,7 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>143</v>
@@ -5964,30 +5993,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -6019,21 +6048,21 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>148</v>
@@ -6047,10 +6076,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>59</v>
@@ -6061,7 +6090,7 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>143</v>
@@ -6091,7 +6120,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -6116,30 +6145,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -6163,7 +6192,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -6188,7 +6217,7 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>116</v>
@@ -6202,7 +6231,7 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>116</v>
@@ -6216,7 +6245,7 @@
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>116</v>
@@ -6230,7 +6259,7 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>116</v>
@@ -6244,7 +6273,7 @@
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>116</v>
@@ -6286,7 +6315,7 @@
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>116</v>
@@ -6300,7 +6329,7 @@
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>116</v>
@@ -6314,7 +6343,7 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>116</v>
@@ -6328,7 +6357,7 @@
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>116</v>
@@ -6356,7 +6385,7 @@
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>143</v>
@@ -6370,35 +6399,35 @@
     </row>
     <row r="16">
       <c r="A16" s="38" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>5</v>
@@ -6407,12 +6436,12 @@
         <v>59</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="38" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>148</v>
@@ -6426,7 +6455,7 @@
     </row>
     <row r="20">
       <c r="A20" s="38" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>148</v>
@@ -6440,7 +6469,7 @@
     </row>
     <row r="21">
       <c r="A21" s="38" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>148</v>
@@ -6454,7 +6483,7 @@
     </row>
     <row r="22">
       <c r="A22" s="38" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>148</v>
@@ -6468,7 +6497,7 @@
     </row>
     <row r="23">
       <c r="A23" s="38" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>148</v>
@@ -6482,7 +6511,7 @@
     </row>
     <row r="24">
       <c r="A24" s="38" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>148</v>
@@ -6496,7 +6525,7 @@
     </row>
     <row r="25">
       <c r="A25" s="38" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>5</v>
@@ -6505,12 +6534,12 @@
         <v>59</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>5</v>
@@ -6519,26 +6548,26 @@
         <v>15</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="38" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="38" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>5</v>
@@ -6547,40 +6576,40 @@
         <v>15</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="38" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="B30" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>578</v>
-      </c>
       <c r="D30" s="38" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>5</v>
@@ -6589,12 +6618,12 @@
         <v>15</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="38" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>5</v>
@@ -6603,12 +6632,12 @@
         <v>15</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="38" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>5</v>
@@ -6617,26 +6646,26 @@
         <v>59</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>5</v>
@@ -6645,12 +6674,12 @@
         <v>15</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>5</v>
@@ -6659,26 +6688,26 @@
         <v>15</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>5</v>
@@ -6687,40 +6716,40 @@
         <v>15</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>5</v>
@@ -6729,12 +6758,12 @@
         <v>15</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>5</v>
@@ -6743,12 +6772,12 @@
         <v>15</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>5</v>
@@ -6757,26 +6786,26 @@
         <v>15</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>5</v>
@@ -6785,12 +6814,12 @@
         <v>15</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>5</v>
@@ -6799,63 +6828,63 @@
         <v>15</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="38" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="38" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="38" t="s">
+        <v>628</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="38" t="s">
         <v>623</v>
       </c>
-      <c r="B50" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>618</v>
-      </c>
       <c r="D50" s="38" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -6899,7 +6928,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
@@ -6913,7 +6942,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -6927,7 +6956,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -6941,7 +6970,7 @@
         <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
@@ -6952,15 +6981,15 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -6969,7 +6998,7 @@
         <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
@@ -6983,7 +7012,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -7025,7 +7054,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
@@ -7036,10 +7065,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
@@ -7053,7 +7082,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -7086,7 +7115,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -7100,7 +7129,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -7114,72 +7143,72 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
@@ -7221,7 +7250,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7242,7 +7271,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7267,7 +7296,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -7276,40 +7305,40 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>148</v>
@@ -7323,10 +7352,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>59</v>
@@ -7337,10 +7366,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>59</v>
@@ -7381,7 +7410,7 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>114</v>
@@ -7408,10 +7437,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7422,10 +7451,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -7450,7 +7479,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -7459,12 +7488,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -7473,26 +7502,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
@@ -7501,12 +7530,12 @@
         <v>118</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>5</v>
@@ -7515,40 +7544,40 @@
         <v>59</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -7557,12 +7586,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>148</v>
@@ -7576,21 +7605,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -7599,26 +7628,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7627,82 +7656,82 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>148</v>
@@ -7716,7 +7745,7 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>143</v>
@@ -7730,7 +7759,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>54</v>
@@ -7739,7 +7768,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7764,7 +7793,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7775,7 +7804,7 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>116</v>
@@ -7789,10 +7818,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -7817,7 +7846,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -7826,21 +7855,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -7877,7 +7906,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>54</v>
@@ -7886,15 +7915,15 @@
         <v>55</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>59</v>
@@ -7905,77 +7934,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>54</v>
@@ -7984,12 +8013,12 @@
         <v>55</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -7998,26 +8027,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -8026,26 +8055,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -8054,12 +8083,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -8068,26 +8097,26 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>5</v>
@@ -8096,54 +8125,54 @@
         <v>70</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -8152,7 +8181,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22">
@@ -8171,21 +8200,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>54</v>
@@ -8194,12 +8223,12 @@
         <v>55</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>116</v>
@@ -8213,105 +8242,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>54</v>
@@ -8320,26 +8349,26 @@
         <v>55</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -8348,7 +8377,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -8366,10 +8395,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8380,10 +8409,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8408,35 +8437,35 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -8445,26 +8474,26 @@
         <v>59</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -8473,82 +8502,82 @@
         <v>73</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>148</v>
@@ -8579,10 +8608,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8593,10 +8622,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8621,21 +8650,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8644,12 +8673,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>58</v>
@@ -8663,7 +8692,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>143</v>
@@ -8694,10 +8723,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8708,10 +8737,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8736,21 +8765,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>116</v>
@@ -8781,10 +8810,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8795,10 +8824,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8823,7 +8852,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>54</v>
@@ -8832,12 +8861,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>143</v>
@@ -8851,7 +8880,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>148</v>
@@ -8865,7 +8894,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8874,7 +8903,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -8896,10 +8925,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8910,10 +8939,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8938,7 +8967,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8947,26 +8976,26 @@
         <v>59</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>116</v>
@@ -9017,141 +9046,141 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -9160,82 +9189,82 @@
         <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -9244,68 +9273,68 @@
         <v>67</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -9314,26 +9343,26 @@
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -9342,26 +9371,26 @@
         <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
@@ -9370,26 +9399,26 @@
         <v>15</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>5</v>
@@ -9398,57 +9427,57 @@
         <v>59</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>59</v>
@@ -9459,10 +9488,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>59</v>
@@ -9500,7 +9529,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -9509,12 +9538,12 @@
         <v>61</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -9523,12 +9552,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -9537,12 +9566,12 @@
         <v>67</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -9551,77 +9580,77 @@
         <v>67</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -9653,7 +9682,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>58</v>
@@ -9667,35 +9696,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9704,54 +9733,54 @@
         <v>35</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>5</v>
@@ -9760,26 +9789,26 @@
         <v>94</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
@@ -9788,40 +9817,40 @@
         <v>94</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>116</v>
@@ -9835,7 +9864,7 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>116</v>
@@ -9849,7 +9878,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>116</v>
@@ -9863,7 +9892,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>116</v>
@@ -9877,7 +9906,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>116</v>
@@ -9891,7 +9920,7 @@
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>54</v>
@@ -9900,15 +9929,15 @@
         <v>55</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>59</v>
@@ -9919,10 +9948,10 @@
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>59</v>
@@ -9933,7 +9962,7 @@
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="B22" s="62" t="s">
         <v>54</v>
@@ -9942,12 +9971,12 @@
         <v>55</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>54</v>
@@ -9956,12 +9985,12 @@
         <v>55</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>148</v>
@@ -9975,7 +10004,7 @@
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>54</v>
@@ -9984,12 +10013,12 @@
         <v>55</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>148</v>
@@ -10003,7 +10032,7 @@
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>54</v>
@@ -10012,12 +10041,12 @@
         <v>55</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>148</v>
@@ -10031,7 +10060,7 @@
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>5</v>
@@ -10040,12 +10069,12 @@
         <v>15</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>5</v>
@@ -10054,26 +10083,26 @@
         <v>94</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>148</v>
@@ -10087,7 +10116,7 @@
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>148</v>
@@ -10101,7 +10130,7 @@
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>148</v>
@@ -10115,10 +10144,10 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>59</v>
@@ -10129,7 +10158,7 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>143</v>
@@ -10143,7 +10172,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>143</v>
@@ -10157,147 +10186,147 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
@@ -10306,26 +10335,26 @@
         <v>59</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>5</v>
@@ -10334,12 +10363,12 @@
         <v>15</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>108</v>
@@ -10348,26 +10377,26 @@
         <v>59</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C52" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>145</v>
@@ -10381,21 +10410,21 @@
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="62" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>54</v>
@@ -10404,12 +10433,12 @@
         <v>55</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>5</v>
@@ -10418,15 +10447,15 @@
         <v>15</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C57" s="62" t="s">
         <v>59</v>
@@ -10437,10 +10466,10 @@
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>59</v>
@@ -10478,7 +10507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>58</v>
@@ -10492,35 +10521,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10529,57 +10558,57 @@
         <v>35</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>59</v>
@@ -10590,10 +10619,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>59</v>
@@ -10604,7 +10633,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -10613,26 +10642,26 @@
         <v>94</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10641,40 +10670,40 @@
         <v>94</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>116</v>
@@ -10688,7 +10717,7 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>116</v>
@@ -10702,7 +10731,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>116</v>
@@ -10716,7 +10745,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>116</v>
@@ -10730,7 +10759,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>116</v>
@@ -10744,7 +10773,7 @@
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>143</v>
@@ -10758,7 +10787,7 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>143</v>
@@ -10772,7 +10801,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>54</v>
@@ -10781,12 +10810,12 @@
         <v>55</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>148</v>
@@ -10800,7 +10829,7 @@
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>54</v>
@@ -10809,12 +10838,12 @@
         <v>55</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>148</v>
@@ -10828,7 +10857,7 @@
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>5</v>
@@ -10837,12 +10866,12 @@
         <v>15</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>5</v>
@@ -10851,12 +10880,12 @@
         <v>94</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>148</v>
@@ -10870,7 +10899,7 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>148</v>
@@ -10884,10 +10913,10 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>59</v>
@@ -10898,147 +10927,147 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
@@ -11047,15 +11076,15 @@
         <v>15</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>59</v>
@@ -11066,10 +11095,10 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>59</v>
@@ -11107,72 +11136,72 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -11204,7 +11233,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -11213,12 +11242,12 @@
         <v>67</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -11227,12 +11256,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -11241,12 +11270,12 @@
         <v>61</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -11255,35 +11284,35 @@
         <v>64</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -11315,7 +11344,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -11324,12 +11353,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>54</v>
@@ -11338,82 +11367,82 @@
         <v>55</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="B9" s="70" t="s">
         <v>5</v>
@@ -11422,12 +11451,12 @@
         <v>94</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="70" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>5</v>
@@ -11436,12 +11465,12 @@
         <v>94</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="70" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>116</v>
@@ -11455,7 +11484,7 @@
     </row>
     <row r="12">
       <c r="A12" s="70" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>148</v>
@@ -11496,7 +11525,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>143</v>
@@ -11510,7 +11539,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>148</v>
@@ -11524,16 +11553,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -11565,7 +11594,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11574,12 +11603,12 @@
         <v>59</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>54</v>
@@ -11588,12 +11617,12 @@
         <v>55</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>54</v>
@@ -11602,12 +11631,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="74" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>116</v>
@@ -11621,21 +11650,21 @@
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="B7" s="74" t="s">
         <v>54</v>
@@ -11644,12 +11673,12 @@
         <v>55</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="74" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>54</v>
@@ -11658,12 +11687,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="74" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>116</v>
@@ -11677,21 +11706,21 @@
     </row>
     <row r="10">
       <c r="A10" s="74" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="74" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>143</v>
@@ -11705,21 +11734,21 @@
     </row>
     <row r="12">
       <c r="A12" s="74" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="74" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="B13" s="74" t="s">
         <v>5</v>
@@ -11728,26 +11757,26 @@
         <v>59</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="74" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="B14" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="74" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>143</v>
@@ -11761,7 +11790,7 @@
     </row>
     <row r="16">
       <c r="A16" s="74" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>148</v>
@@ -11775,16 +11804,16 @@
     </row>
     <row r="17">
       <c r="A17" s="74" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -11816,7 +11845,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11825,12 +11854,12 @@
         <v>59</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>54</v>
@@ -11839,12 +11868,12 @@
         <v>55</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>54</v>
@@ -11853,12 +11882,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>116</v>
@@ -11872,21 +11901,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>54</v>
@@ -11895,12 +11924,12 @@
         <v>55</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>54</v>
@@ -11909,12 +11938,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>116</v>
@@ -11928,21 +11957,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>143</v>
@@ -11956,7 +11985,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>148</v>
@@ -11970,63 +11999,63 @@
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>1033</v>
       </c>
-      <c r="B15" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>1028</v>
-      </c>
       <c r="D15" s="76" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>148</v>
@@ -12040,72 +12069,72 @@
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="76" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -12137,7 +12166,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>143</v>
@@ -12151,7 +12180,7 @@
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>5</v>
@@ -12160,26 +12189,26 @@
         <v>94</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>5</v>
@@ -12188,54 +12217,54 @@
         <v>94</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>54</v>
@@ -12244,26 +12273,26 @@
         <v>55</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>5</v>
@@ -12272,26 +12301,26 @@
         <v>15</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
@@ -12300,12 +12329,12 @@
         <v>59</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>54</v>
@@ -12314,12 +12343,12 @@
         <v>55</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>116</v>
@@ -12333,21 +12362,21 @@
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>54</v>
@@ -12356,12 +12385,12 @@
         <v>55</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>54</v>
@@ -12370,12 +12399,12 @@
         <v>55</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>54</v>
@@ -12384,12 +12413,12 @@
         <v>55</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>116</v>
@@ -12403,35 +12432,35 @@
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>143</v>
@@ -12450,7 +12479,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12472,7 +12501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -12481,12 +12510,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -12495,12 +12524,12 @@
         <v>170</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -12509,40 +12538,40 @@
         <v>170</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -12551,12 +12580,12 @@
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -12565,40 +12594,40 @@
         <v>67</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -12607,21 +12636,49 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -12653,7 +12710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>5</v>
@@ -12662,12 +12719,12 @@
         <v>59</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>116</v>
@@ -12681,7 +12738,7 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>116</v>
@@ -12695,7 +12752,7 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12704,35 +12761,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -12764,7 +12821,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>148</v>
@@ -12778,16 +12835,16 @@
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -12833,21 +12890,21 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="84" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>5</v>
@@ -12856,7 +12913,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -12877,7 +12934,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -12902,16 +12959,16 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="4">
@@ -12922,10 +12979,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -12946,7 +13003,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>148</v>
@@ -12960,10 +13017,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -12988,30 +13045,30 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -13053,15 +13110,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -13070,35 +13127,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -13119,7 +13176,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -13144,35 +13201,35 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -13181,26 +13238,26 @@
         <v>59</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -13209,26 +13266,26 @@
         <v>35</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -13237,12 +13294,12 @@
         <v>81</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -13251,26 +13308,26 @@
         <v>59</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
@@ -13279,12 +13336,12 @@
         <v>81</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -13293,12 +13350,12 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>181</v>
@@ -13312,7 +13369,7 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>181</v>
@@ -13326,7 +13383,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -13335,7 +13392,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -13359,7 +13416,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -13384,72 +13441,72 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -13484,119 +13541,119 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>5</v>
@@ -13605,7 +13662,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -774,7 +774,7 @@
     <t>descrizione del sesso</t>
   </si>
   <si>
-    <t>datanascita</t>
+    <t>dataNascita</t>
   </si>
   <si>
     <t>2020-01-01</t>
@@ -936,7 +936,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@6bca3b27</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@78fc5eb</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1093">
   <si>
     <t>Campo</t>
   </si>
@@ -936,7 +936,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@78fc5eb</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@79224636</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -1041,375 +1041,366 @@
     <t>Codice identificativo univoco del documento da trascrivere.</t>
   </si>
   <si>
+    <t>Estende</t>
+  </si>
+  <si>
+    <t>Tipo base</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
     <t>nazioneEnte</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Nazione dell'ente dichiarante.</t>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Nazione estera dell'ente (decodifica ANPR_02)</t>
   </si>
   <si>
     <t>nomeNazioneEnte</t>
   </si>
   <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>Descrizione della nazione estera</t>
+  </si>
+  <si>
+    <t>7762</t>
+  </si>
+  <si>
+    <t>Identificativo dell'allegato.</t>
+  </si>
+  <si>
+    <t>idTipoAllegato</t>
+  </si>
+  <si>
+    <t>Id del tipo allegato (decodifica ANSC_9)</t>
+  </si>
+  <si>
+    <t>hashAllegato</t>
+  </si>
+  <si>
+    <t>9424937f3ff137865b01952e25ba8794</t>
+  </si>
+  <si>
+    <t>Hash Code dell'allegato.</t>
+  </si>
+  <si>
+    <t>DICHIARAZIONE DI NASCITA</t>
+  </si>
+  <si>
+    <t>Tipo di documento allegato.</t>
+  </si>
+  <si>
+    <t>Questi dati integrano quelli dell'intestatario e definiscono l'evento di nascita. Per non creare ridondanze la data, lo stato, la provincia e il comune dell'evento sono quelli corrispondenti indicati nel ModelSoggetto dell'intestatario</t>
+  </si>
+  <si>
+    <t>luogoFiliazione</t>
+  </si>
+  <si>
+    <t>Ospedale</t>
+  </si>
+  <si>
+    <t>Luogo in cui e' avvenuto l'evento Nascita.</t>
+  </si>
+  <si>
+    <t>indirizzoEvento</t>
+  </si>
+  <si>
+    <t>Indirizzo in cui è avvenuto l'evento</t>
+  </si>
+  <si>
+    <t>sceltaCognome</t>
+  </si>
+  <si>
+    <t>(decodifica ANSC_31)</t>
+  </si>
+  <si>
+    <t>oraNascita</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Ora in cui e' avvenuto l'evento Nascita.</t>
+  </si>
+  <si>
+    <t>minutoNascita</t>
+  </si>
+  <si>
+    <t>Minuto in cui e' avvenuto l'evento Nascita.</t>
+  </si>
+  <si>
+    <t>precisazioneCognome</t>
+  </si>
+  <si>
+    <t>Precisazione attribuzione cognome ex art.24 218/1995</t>
+  </si>
+  <si>
+    <t>Eventuale precisazione attribuzione cognome in base a legge proprio stato</t>
+  </si>
+  <si>
+    <t>natoMorto</t>
+  </si>
+  <si>
+    <t>Valore per identificare se il neonato e' nato morto, vale SI o NO</t>
+  </si>
+  <si>
+    <t>natoVivoMaDeceduto</t>
+  </si>
+  <si>
+    <t>Valore per identificare se il neonato e' nato vivo ma morto prima della dichiarazione, vale SI o NO</t>
+  </si>
+  <si>
+    <t>numeroGemelli</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Velore per identificare il numero totale dei gemelli nati.</t>
+  </si>
+  <si>
+    <t>partoGemellare</t>
+  </si>
+  <si>
+    <t>Valore per identificare se si tratta di un parto gemellare - Valori: SI/NO.</t>
+  </si>
+  <si>
+    <t>progressivoGemello</t>
+  </si>
+  <si>
+    <t>Identificativo numerico del gemello.</t>
+  </si>
+  <si>
+    <t>attiGemelliPrec</t>
+  </si>
+  <si>
+    <t>attiGemelliSucc</t>
+  </si>
+  <si>
+    <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>tipo accertamento nascita (decodifica ANSC_78)</t>
+  </si>
+  <si>
+    <t>Descrizione del documento di Riconoscimento</t>
+  </si>
+  <si>
+    <t>numeroDocumento</t>
+  </si>
+  <si>
+    <t>AB32652AO</t>
+  </si>
+  <si>
+    <t>Numero identificativo del documento di riconoscimento.</t>
+  </si>
+  <si>
+    <t>tipologiaDocumento</t>
+  </si>
+  <si>
+    <t>Carta d'identità</t>
+  </si>
+  <si>
+    <t>Tipologia di documento utilizzato per il riconoscimento.</t>
+  </si>
+  <si>
+    <t>dataScadenza</t>
+  </si>
+  <si>
+    <t>Data di scadenza del documento.</t>
+  </si>
+  <si>
+    <t>rilasciatoDa</t>
+  </si>
+  <si>
+    <t>Comune di Cesena</t>
+  </si>
+  <si>
+    <t>Informazione sull'ente che ha rilasciato il documento di riconoscimento.</t>
+  </si>
+  <si>
+    <t>dataRilascio</t>
+  </si>
+  <si>
+    <t>2017-01-08</t>
+  </si>
+  <si>
+    <t>Data di rilascio del dcoumento di riconoscimento.</t>
+  </si>
+  <si>
+    <t>giornoRinvenimento</t>
+  </si>
+  <si>
+    <t>2022-03-12</t>
+  </si>
+  <si>
+    <t>Giorno in cui e' avvenuto il rinvenimento.</t>
+  </si>
+  <si>
+    <t>oraRinvenimento</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Ora in cui e' avvenuto il rinvenimento.</t>
+  </si>
+  <si>
+    <t>minutoRinvenimento</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Minuto in cui e' avvenuto il rinvenimento.</t>
+  </si>
+  <si>
+    <t>responsabileAffido</t>
+  </si>
+  <si>
+    <t>Mario Rossi</t>
+  </si>
+  <si>
+    <t>Responsabile dell'ente a cui viene affidato il rinvenuto.</t>
+  </si>
+  <si>
+    <t>luogoRinvenimento</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Luogo in cui e' avvenuto il rinvenimento.</t>
+  </si>
+  <si>
+    <t>responsabileRinvenimento</t>
+  </si>
+  <si>
+    <t>Responsabile Ambulanza</t>
+  </si>
+  <si>
+    <t>Figura responsabile del rinvenimento.</t>
+  </si>
+  <si>
+    <t>enteAffido</t>
+  </si>
+  <si>
+    <t>Mortuaria Ospedale</t>
+  </si>
+  <si>
+    <t>Ente a cui viene affidato il rinvenuto.</t>
+  </si>
+  <si>
+    <t>etaPresunta</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Eta presunta del rinvenuto.</t>
+  </si>
+  <si>
+    <t>Note relative al rinvenimento.</t>
+  </si>
+  <si>
+    <t>ruolo</t>
+  </si>
+  <si>
+    <t>Ruolo del dichiarante (decodifica ANSC_4)</t>
+  </si>
+  <si>
+    <t>tipoProcura</t>
+  </si>
+  <si>
+    <t>Tipo della procura (decodifica ANSC_33)</t>
+  </si>
+  <si>
+    <t>datiEssenzialiProcura</t>
+  </si>
+  <si>
+    <t>Procura per la signora Maria Rossi</t>
+  </si>
+  <si>
+    <t>Dati essenziali della procura</t>
+  </si>
+  <si>
+    <t>titoloDichiarante</t>
+  </si>
+  <si>
+    <t>Titolo del dichiarante (decodifica ANSC_34)</t>
+  </si>
+  <si>
+    <t>dichiarazioneCongiunta</t>
+  </si>
+  <si>
+    <t>Tipo della diachiarazione congiunta (decodifica ANSC_60)</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>sordomuto che sa leggere e scrivere</t>
+  </si>
+  <si>
+    <t>comprensione dichiarante (decodifica ANSC_32)</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Descrizione impedimento</t>
+  </si>
+  <si>
+    <t>Necessario se "sordumuto che sa leggere ma non può scrivere"</t>
+  </si>
+  <si>
+    <t>ritrovamento</t>
+  </si>
+  <si>
+    <t>Rinvenuto cadavere</t>
+  </si>
+  <si>
+    <t>Testo alternativo al luogo di morte</t>
+  </si>
+  <si>
+    <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>ID del comune in cui e' avvenuto il decesso.</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>ID della provincia del decesso.</t>
+  </si>
+  <si>
+    <t>siglaProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Sigla della provincia del decesso.</t>
+  </si>
+  <si>
+    <t>idStatoMorte</t>
+  </si>
+  <si>
+    <t>ID della nazione in cui e' avvenuto il decesso.</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
     <t>Italia</t>
   </si>
   <si>
-    <t>Nome delal Nazione dell'ente dichiarante.</t>
-  </si>
-  <si>
-    <t>Estende</t>
-  </si>
-  <si>
-    <t>Tipo base</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Nazione estera dell'ente (decodifica ANPR_02)</t>
-  </si>
-  <si>
-    <t>AUSTRIA</t>
-  </si>
-  <si>
-    <t>Descrizione della nazione estera</t>
-  </si>
-  <si>
-    <t>7762</t>
-  </si>
-  <si>
-    <t>Identificativo dell'allegato.</t>
-  </si>
-  <si>
-    <t>idTipoAllegato</t>
-  </si>
-  <si>
-    <t>Id del tipo allegato (decodifica ANSC_9)</t>
-  </si>
-  <si>
-    <t>hashAllegato</t>
-  </si>
-  <si>
-    <t>9424937f3ff137865b01952e25ba8794</t>
-  </si>
-  <si>
-    <t>Hash Code dell'allegato.</t>
-  </si>
-  <si>
-    <t>DICHIARAZIONE DI NASCITA</t>
-  </si>
-  <si>
-    <t>Tipo di documento allegato.</t>
-  </si>
-  <si>
-    <t>Questi dati integrano quelli dell'intestatario e definiscono l'evento di nascita. Per non creare ridondanze la data, lo stato, la provincia e il comune dell'evento sono quelli corrispondenti indicati nel ModelSoggetto dell'intestatario</t>
-  </si>
-  <si>
-    <t>luogoFiliazione</t>
-  </si>
-  <si>
-    <t>Ospedale</t>
-  </si>
-  <si>
-    <t>Luogo in cui e' avvenuto l'evento Nascita.</t>
-  </si>
-  <si>
-    <t>indirizzoEvento</t>
-  </si>
-  <si>
-    <t>Indirizzo in cui è avvenuto l'evento</t>
-  </si>
-  <si>
-    <t>sceltaCognome</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_31)</t>
-  </si>
-  <si>
-    <t>oraNascita</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Ora in cui e' avvenuto l'evento Nascita.</t>
-  </si>
-  <si>
-    <t>minutoNascita</t>
-  </si>
-  <si>
-    <t>Minuto in cui e' avvenuto l'evento Nascita.</t>
-  </si>
-  <si>
-    <t>precisazioneCognome</t>
-  </si>
-  <si>
-    <t>Precisazione attribuzione cognome ex art.24 218/1995</t>
-  </si>
-  <si>
-    <t>Eventuale precisazione attribuzione cognome in base a legge proprio stato</t>
-  </si>
-  <si>
-    <t>natoMorto</t>
-  </si>
-  <si>
-    <t>Valore per identificare se il neonato e' nato morto, vale SI o NO</t>
-  </si>
-  <si>
-    <t>natoVivoMaDeceduto</t>
-  </si>
-  <si>
-    <t>Valore per identificare se il neonato e' nato vivo ma morto prima della dichiarazione, vale SI o NO</t>
-  </si>
-  <si>
-    <t>numeroGemelli</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Velore per identificare il numero totale dei gemelli nati.</t>
-  </si>
-  <si>
-    <t>partoGemellare</t>
-  </si>
-  <si>
-    <t>Valore per identificare se si tratta di un parto gemellare - Valori: SI/NO.</t>
-  </si>
-  <si>
-    <t>progressivoGemello</t>
-  </si>
-  <si>
-    <t>Identificativo numerico del gemello.</t>
-  </si>
-  <si>
-    <t>attiGemelliPrec</t>
-  </si>
-  <si>
-    <t>attiGemelliSucc</t>
-  </si>
-  <si>
-    <t>tipoAccertamento</t>
-  </si>
-  <si>
-    <t>tipo accertamento nascita (decodifica ANSC_78)</t>
-  </si>
-  <si>
-    <t>Descrizione del documento di Riconoscimento</t>
-  </si>
-  <si>
-    <t>numeroDocumento</t>
-  </si>
-  <si>
-    <t>AB32652AO</t>
-  </si>
-  <si>
-    <t>Numero identificativo del documento di riconoscimento.</t>
-  </si>
-  <si>
-    <t>tipologiaDocumento</t>
-  </si>
-  <si>
-    <t>Carta d'identità</t>
-  </si>
-  <si>
-    <t>Tipologia di documento utilizzato per il riconoscimento.</t>
-  </si>
-  <si>
-    <t>dataScadenza</t>
-  </si>
-  <si>
-    <t>Data di scadenza del documento.</t>
-  </si>
-  <si>
-    <t>rilasciatoDa</t>
-  </si>
-  <si>
-    <t>Comune di Cesena</t>
-  </si>
-  <si>
-    <t>Informazione sull'ente che ha rilasciato il documento di riconoscimento.</t>
-  </si>
-  <si>
-    <t>dataRilascio</t>
-  </si>
-  <si>
-    <t>2017-01-08</t>
-  </si>
-  <si>
-    <t>Data di rilascio del dcoumento di riconoscimento.</t>
-  </si>
-  <si>
-    <t>giornoRinvenimento</t>
-  </si>
-  <si>
-    <t>2022-03-12</t>
-  </si>
-  <si>
-    <t>Giorno in cui e' avvenuto il rinvenimento.</t>
-  </si>
-  <si>
-    <t>oraRinvenimento</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Ora in cui e' avvenuto il rinvenimento.</t>
-  </si>
-  <si>
-    <t>minutoRinvenimento</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Minuto in cui e' avvenuto il rinvenimento.</t>
-  </si>
-  <si>
-    <t>responsabileAffido</t>
-  </si>
-  <si>
-    <t>Mario Rossi</t>
-  </si>
-  <si>
-    <t>Responsabile dell'ente a cui viene affidato il rinvenuto.</t>
-  </si>
-  <si>
-    <t>luogoRinvenimento</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>Luogo in cui e' avvenuto il rinvenimento.</t>
-  </si>
-  <si>
-    <t>responsabileRinvenimento</t>
-  </si>
-  <si>
-    <t>Responsabile Ambulanza</t>
-  </si>
-  <si>
-    <t>Figura responsabile del rinvenimento.</t>
-  </si>
-  <si>
-    <t>enteAffido</t>
-  </si>
-  <si>
-    <t>Mortuaria Ospedale</t>
-  </si>
-  <si>
-    <t>Ente a cui viene affidato il rinvenuto.</t>
-  </si>
-  <si>
-    <t>etaPresunta</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Eta presunta del rinvenuto.</t>
-  </si>
-  <si>
-    <t>Note relative al rinvenimento.</t>
-  </si>
-  <si>
-    <t>ruolo</t>
-  </si>
-  <si>
-    <t>Ruolo del dichiarante (decodifica ANSC_4)</t>
-  </si>
-  <si>
-    <t>tipoProcura</t>
-  </si>
-  <si>
-    <t>Tipo della procura (decodifica ANSC_33)</t>
-  </si>
-  <si>
-    <t>datiEssenzialiProcura</t>
-  </si>
-  <si>
-    <t>Procura per la signora Maria Rossi</t>
-  </si>
-  <si>
-    <t>Dati essenziali della procura</t>
-  </si>
-  <si>
-    <t>titoloDichiarante</t>
-  </si>
-  <si>
-    <t>Titolo del dichiarante (decodifica ANSC_34)</t>
-  </si>
-  <si>
-    <t>dichiarazioneCongiunta</t>
-  </si>
-  <si>
-    <t>Tipo della diachiarazione congiunta (decodifica ANSC_60)</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>sordomuto che sa leggere e scrivere</t>
-  </si>
-  <si>
-    <t>comprensione dichiarante (decodifica ANSC_32)</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Descrizione impedimento</t>
-  </si>
-  <si>
-    <t>Necessario se "sordumuto che sa leggere ma non può scrivere"</t>
-  </si>
-  <si>
-    <t>ritrovamento</t>
-  </si>
-  <si>
-    <t>Rinvenuto cadavere</t>
-  </si>
-  <si>
-    <t>Testo alternativo al luogo di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>ID del comune in cui e' avvenuto il decesso.</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>ID della provincia del decesso.</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Sigla della provincia del decesso.</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>ID della nazione in cui e' avvenuto il decesso.</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
     <t>Nome della nazione in cui e' avvenuto il decesso.</t>
   </si>
   <si>
@@ -2604,6 +2595,12 @@
     <t>testimone4</t>
   </si>
   <si>
+    <t>ruoloSegretario</t>
+  </si>
+  <si>
+    <t>Segretario (decodifica ANSC_91)</t>
+  </si>
+  <si>
     <t>segretarioComunale</t>
   </si>
   <si>
@@ -2880,7 +2877,7 @@
     <t>Se l'unione civile ha un provvedimento di estinzione del giudizio d'oppozione</t>
   </si>
   <si>
-    <t>Se uno dei coniugi, o entrambi, hanno un impedimento dovuto all'eta (decodifica ANSC_47)</t>
+    <t>Se uno dei coniugi, o entrambi, hanno un impedimento dovuto all'eta (decodifica ANSC_92)</t>
   </si>
   <si>
     <t>coniuge1InPericoloVita</t>
@@ -5061,63 +5058,63 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>5</v>
@@ -5126,35 +5123,35 @@
         <v>59</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -5186,21 +5183,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5209,12 +5206,12 @@
         <v>61</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5223,12 +5220,12 @@
         <v>64</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5237,12 +5234,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5251,12 +5248,12 @@
         <v>67</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>5</v>
@@ -5265,54 +5262,54 @@
         <v>254</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>5</v>
@@ -5321,82 +5318,82 @@
         <v>321</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5405,40 +5402,40 @@
         <v>30</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5447,21 +5444,21 @@
         <v>40</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5490,7 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>5</v>
@@ -5502,40 +5499,40 @@
         <v>227</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5544,7 +5541,7 @@
         <v>94</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -5576,7 +5573,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5585,12 +5582,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -5599,7 +5596,7 @@
         <v>117</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5640,21 +5637,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
@@ -5673,7 +5670,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>143</v>
@@ -5687,7 +5684,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>148</v>
@@ -5701,7 +5698,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>148</v>
@@ -5756,7 +5753,7 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5765,12 +5762,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5779,40 +5776,40 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>143</v>
@@ -5826,21 +5823,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -5849,12 +5846,12 @@
         <v>73</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>54</v>
@@ -5863,12 +5860,12 @@
         <v>293</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>54</v>
@@ -5877,12 +5874,12 @@
         <v>293</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>54</v>
@@ -5891,12 +5888,12 @@
         <v>293</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>54</v>
@@ -5905,12 +5902,12 @@
         <v>293</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>54</v>
@@ -5919,26 +5916,26 @@
         <v>55</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>108</v>
@@ -5952,7 +5949,7 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>143</v>
@@ -5993,30 +5990,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -6048,7 +6045,7 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>54</v>
@@ -6057,12 +6054,12 @@
         <v>293</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>148</v>
@@ -6076,10 +6073,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>59</v>
@@ -6090,7 +6087,7 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>143</v>
@@ -6120,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -6145,30 +6142,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -6192,7 +6189,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -6217,7 +6214,7 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>116</v>
@@ -6231,7 +6228,7 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>116</v>
@@ -6245,7 +6242,7 @@
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>116</v>
@@ -6259,7 +6256,7 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>116</v>
@@ -6273,7 +6270,7 @@
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>116</v>
@@ -6315,7 +6312,7 @@
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>116</v>
@@ -6329,7 +6326,7 @@
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>116</v>
@@ -6343,7 +6340,7 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>116</v>
@@ -6357,7 +6354,7 @@
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>116</v>
@@ -6385,7 +6382,7 @@
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>143</v>
@@ -6399,7 +6396,7 @@
     </row>
     <row r="16">
       <c r="A16" s="38" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>5</v>
@@ -6408,12 +6405,12 @@
         <v>198</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>5</v>
@@ -6422,12 +6419,12 @@
         <v>246</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>5</v>
@@ -6436,12 +6433,12 @@
         <v>59</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="38" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>148</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="20">
       <c r="A20" s="38" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>148</v>
@@ -6469,7 +6466,7 @@
     </row>
     <row r="21">
       <c r="A21" s="38" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>148</v>
@@ -6483,7 +6480,7 @@
     </row>
     <row r="22">
       <c r="A22" s="38" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>148</v>
@@ -6497,7 +6494,7 @@
     </row>
     <row r="23">
       <c r="A23" s="38" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>148</v>
@@ -6511,7 +6508,7 @@
     </row>
     <row r="24">
       <c r="A24" s="38" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>148</v>
@@ -6525,7 +6522,7 @@
     </row>
     <row r="25">
       <c r="A25" s="38" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>5</v>
@@ -6534,12 +6531,12 @@
         <v>59</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>5</v>
@@ -6548,26 +6545,26 @@
         <v>15</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="38" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="38" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>5</v>
@@ -6576,40 +6573,40 @@
         <v>15</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="38" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>5</v>
@@ -6618,12 +6615,12 @@
         <v>15</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="38" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>5</v>
@@ -6632,12 +6629,12 @@
         <v>15</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>5</v>
@@ -6646,12 +6643,12 @@
         <v>59</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>5</v>
@@ -6660,12 +6657,12 @@
         <v>198</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>5</v>
@@ -6674,12 +6671,12 @@
         <v>15</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>5</v>
@@ -6688,26 +6685,26 @@
         <v>15</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>5</v>
@@ -6716,12 +6713,12 @@
         <v>15</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>5</v>
@@ -6730,12 +6727,12 @@
         <v>198</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>5</v>
@@ -6744,12 +6741,12 @@
         <v>198</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>5</v>
@@ -6758,12 +6755,12 @@
         <v>15</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>5</v>
@@ -6772,12 +6769,12 @@
         <v>15</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>5</v>
@@ -6786,26 +6783,26 @@
         <v>15</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>5</v>
@@ -6814,12 +6811,12 @@
         <v>15</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>5</v>
@@ -6828,26 +6825,26 @@
         <v>15</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="38" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="38" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>5</v>
@@ -6856,35 +6853,35 @@
         <v>198</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="38" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="38" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -6897,7 +6894,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6919,337 +6916,351 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7271,7 +7282,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7296,7 +7307,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -7305,40 +7316,40 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>148</v>
@@ -7352,10 +7363,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>59</v>
@@ -7366,10 +7377,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>59</v>
@@ -7410,7 +7421,7 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>114</v>
@@ -7437,10 +7448,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7451,10 +7462,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -7479,7 +7490,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -7488,12 +7499,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -7502,26 +7513,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
@@ -7530,12 +7541,12 @@
         <v>118</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>5</v>
@@ -7544,12 +7555,12 @@
         <v>59</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>54</v>
@@ -7558,26 +7569,26 @@
         <v>293</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -7586,12 +7597,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>148</v>
@@ -7605,21 +7616,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -7628,26 +7639,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7656,82 +7667,82 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>148</v>
@@ -7745,7 +7756,7 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>143</v>
@@ -7759,7 +7770,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>54</v>
@@ -7768,7 +7779,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -7793,7 +7804,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7804,7 +7815,7 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>116</v>
@@ -7818,10 +7829,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -7846,7 +7857,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -7855,21 +7866,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -7906,7 +7917,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>54</v>
@@ -7915,15 +7926,15 @@
         <v>55</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>59</v>
@@ -7934,77 +7945,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>54</v>
@@ -8013,12 +8024,12 @@
         <v>55</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -8027,26 +8038,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -8055,26 +8066,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -8083,12 +8094,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -8097,7 +8108,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16">
@@ -8108,15 +8119,15 @@
         <v>5</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>5</v>
@@ -8125,7 +8136,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18">
@@ -8136,43 +8147,43 @@
         <v>5</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -8181,7 +8192,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22">
@@ -8200,21 +8211,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>54</v>
@@ -8223,12 +8234,12 @@
         <v>55</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>116</v>
@@ -8242,105 +8253,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>54</v>
@@ -8349,26 +8360,26 @@
         <v>55</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -8377,7 +8388,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -8395,10 +8406,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8409,10 +8420,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8437,35 +8448,35 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -8474,26 +8485,26 @@
         <v>59</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -8502,82 +8513,82 @@
         <v>73</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>148</v>
@@ -8608,10 +8619,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8622,10 +8633,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8650,21 +8661,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8673,12 +8684,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>58</v>
@@ -8692,7 +8703,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>143</v>
@@ -8723,10 +8734,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8737,10 +8748,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8765,21 +8776,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>116</v>
@@ -8810,10 +8821,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8824,10 +8835,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8852,7 +8863,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>54</v>
@@ -8861,12 +8872,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>143</v>
@@ -8880,7 +8891,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>148</v>
@@ -8894,7 +8905,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8903,7 +8914,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -8925,10 +8936,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8939,10 +8950,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8967,7 +8978,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8976,26 +8987,26 @@
         <v>59</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>116</v>
@@ -9529,7 +9540,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -9538,12 +9549,12 @@
         <v>61</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -9552,12 +9563,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -9566,12 +9577,12 @@
         <v>67</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -9580,12 +9591,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
@@ -9594,12 +9605,12 @@
         <v>254</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
@@ -9608,49 +9619,49 @@
         <v>257</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -9660,7 +9671,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9682,7 +9693,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>58</v>
@@ -9696,35 +9707,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9733,54 +9744,54 @@
         <v>35</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>5</v>
@@ -9789,26 +9800,26 @@
         <v>94</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
@@ -9817,40 +9828,40 @@
         <v>94</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>116</v>
@@ -9864,7 +9875,7 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>116</v>
@@ -9878,7 +9889,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>116</v>
@@ -9892,7 +9903,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>116</v>
@@ -9906,52 +9917,52 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>59</v>
+        <v>847</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>851</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>853</v>
+        <v>54</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>59</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>59</v>
@@ -9962,21 +9973,21 @@
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>54</v>
+        <v>852</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>856</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>54</v>
@@ -9985,138 +9996,138 @@
         <v>55</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>59</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>861</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>59</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>864</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>59</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>867</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>293</v>
+        <v>94</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>59</v>
+        <v>870</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>148</v>
@@ -10130,7 +10141,7 @@
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>148</v>
@@ -10144,10 +10155,10 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>876</v>
+        <v>148</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>59</v>
@@ -10158,10 +10169,10 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>143</v>
+        <v>875</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>59</v>
@@ -10172,7 +10183,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>143</v>
@@ -10186,295 +10197,309 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>880</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>882</v>
+        <v>293</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>293</v>
+        <v>881</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>882</v>
+        <v>293</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>246</v>
+        <v>888</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>893</v>
+        <v>246</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>251</v>
+        <v>892</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>898</v>
+        <v>251</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>59</v>
+        <v>900</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>912</v>
+        <v>108</v>
       </c>
       <c r="C52" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>145</v>
+        <v>911</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>59</v>
+        <v>912</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C54" s="62" t="s">
-        <v>916</v>
+        <v>59</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>917</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>55</v>
+        <v>915</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>923</v>
+        <v>5</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>59</v>
+        <v>920</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B58" s="62" t="s">
+        <v>922</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="62" t="s">
         <v>923</v>
       </c>
-      <c r="C58" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="62" t="s">
+      <c r="B59" s="62" t="s">
+        <v>922</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="62" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10485,7 +10510,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10507,7 +10532,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>58</v>
@@ -10521,35 +10546,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10558,57 +10583,57 @@
         <v>35</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
+        <v>925</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>926</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>927</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>59</v>
@@ -10619,10 +10644,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>59</v>
@@ -10633,7 +10658,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -10642,26 +10667,26 @@
         <v>94</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
+        <v>930</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>833</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>931</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>836</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10670,40 +10695,40 @@
         <v>94</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
+        <v>934</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>833</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>935</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>836</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>116</v>
@@ -10717,7 +10742,7 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>116</v>
@@ -10731,7 +10756,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>116</v>
@@ -10745,7 +10770,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>116</v>
@@ -10759,24 +10784,24 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>59</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>937</v>
+        <v>848</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>59</v>
@@ -10787,7 +10812,7 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>143</v>
@@ -10801,105 +10826,105 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>860</v>
+        <v>937</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>939</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>59</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>940</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>59</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>941</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>869</v>
+        <v>940</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>59</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>148</v>
@@ -10913,10 +10938,10 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>876</v>
+        <v>148</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>59</v>
@@ -10927,183 +10952,197 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>942</v>
+        <v>874</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>54</v>
+        <v>875</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>943</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>882</v>
+        <v>293</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>293</v>
+        <v>881</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>882</v>
+        <v>293</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>888</v>
+        <v>947</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>890</v>
+        <v>948</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>950</v>
+        <v>888</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>952</v>
+        <v>893</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>898</v>
+        <v>950</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>899</v>
+        <v>951</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>953</v>
+        <v>897</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>954</v>
+        <v>899</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>15</v>
+        <v>952</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>922</v>
+        <v>953</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>923</v>
+        <v>5</v>
       </c>
       <c r="C43" s="64" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D43" s="64" t="s">
-        <v>59</v>
+        <v>920</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B44" s="64" t="s">
+        <v>922</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="64" t="s">
         <v>923</v>
       </c>
-      <c r="C44" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="64" t="s">
+      <c r="B45" s="64" t="s">
+        <v>922</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="64" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11136,72 +11175,72 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
+        <v>954</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>950</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>955</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>951</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
+        <v>956</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>957</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="66" t="s">
         <v>958</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
+        <v>959</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>717</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>960</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>720</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
+        <v>961</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>962</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>963</v>
-      </c>
       <c r="D5" s="66" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
+        <v>963</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>964</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="66" t="s">
+      <c r="D6" s="66" t="s">
         <v>965</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -11233,7 +11272,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -11242,12 +11281,12 @@
         <v>67</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -11256,12 +11295,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -11270,12 +11309,12 @@
         <v>61</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -11284,35 +11323,35 @@
         <v>64</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
+        <v>970</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>971</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>972</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
+        <v>973</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>974</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="68" t="s">
+      <c r="D7" s="68" t="s">
         <v>975</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -11344,7 +11383,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -11353,12 +11392,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>54</v>
@@ -11367,40 +11406,40 @@
         <v>55</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
+        <v>980</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4" s="70" t="s">
         <v>981</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>670</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
+        <v>982</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>983</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>490</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
@@ -11409,40 +11448,40 @@
         <v>246</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
+        <v>986</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="70" t="s">
         <v>987</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="70" t="s">
+      <c r="D7" s="70" t="s">
         <v>988</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
+        <v>989</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>990</v>
       </c>
-      <c r="B8" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="D8" s="70" t="s">
         <v>991</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B9" s="70" t="s">
         <v>5</v>
@@ -11451,12 +11490,12 @@
         <v>94</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="70" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>5</v>
@@ -11465,12 +11504,12 @@
         <v>94</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="70" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>116</v>
@@ -11484,7 +11523,7 @@
     </row>
     <row r="12">
       <c r="A12" s="70" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>148</v>
@@ -11525,7 +11564,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>143</v>
@@ -11539,7 +11578,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>148</v>
@@ -11553,16 +11592,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>897</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>1000</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>898</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -11594,21 +11633,21 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>1002</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>54</v>
@@ -11617,12 +11656,12 @@
         <v>55</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>54</v>
@@ -11631,12 +11670,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="74" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>116</v>
@@ -11650,21 +11689,21 @@
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>1009</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="74" t="s">
+      <c r="D6" s="74" t="s">
         <v>1010</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B7" s="74" t="s">
         <v>54</v>
@@ -11673,12 +11712,12 @@
         <v>55</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="74" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>54</v>
@@ -11687,12 +11726,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="74" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>116</v>
@@ -11706,21 +11745,21 @@
     </row>
     <row r="10">
       <c r="A10" s="74" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D10" s="74" t="s">
         <v>1017</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="74" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>143</v>
@@ -11734,7 +11773,7 @@
     </row>
     <row r="12">
       <c r="A12" s="74" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>54</v>
@@ -11743,40 +11782,40 @@
         <v>293</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="74" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="74" t="s">
         <v>1021</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="74" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="74" t="s">
         <v>1023</v>
       </c>
-      <c r="B14" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="74" t="s">
+      <c r="D14" s="74" t="s">
         <v>1024</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="74" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>143</v>
@@ -11790,7 +11829,7 @@
     </row>
     <row r="16">
       <c r="A16" s="74" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>148</v>
@@ -11804,16 +11843,16 @@
     </row>
     <row r="17">
       <c r="A17" s="74" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="74" t="s">
         <v>1027</v>
       </c>
-      <c r="B17" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="74" t="s">
+      <c r="D17" s="74" t="s">
         <v>1028</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -11845,7 +11884,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11854,12 +11893,12 @@
         <v>59</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>54</v>
@@ -11868,12 +11907,12 @@
         <v>55</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>54</v>
@@ -11882,12 +11921,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>116</v>
@@ -11901,21 +11940,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>1009</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="76" t="s">
+      <c r="D6" s="76" t="s">
         <v>1010</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>54</v>
@@ -11924,12 +11963,12 @@
         <v>55</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>54</v>
@@ -11938,12 +11977,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>116</v>
@@ -11957,21 +11996,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>1017</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>143</v>
@@ -11985,7 +12024,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>148</v>
@@ -11999,63 +12038,63 @@
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>1032</v>
       </c>
-      <c r="B13" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="76" t="s">
+      <c r="D13" s="76" t="s">
         <v>1033</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="76" t="s">
         <v>1035</v>
       </c>
-      <c r="B14" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="76" t="s">
+      <c r="D14" s="76" t="s">
         <v>1036</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>1038</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D16" s="76" t="s">
         <v>1040</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>148</v>
@@ -12069,72 +12108,72 @@
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D18" s="76" t="s">
         <v>1043</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D19" s="76" t="s">
         <v>1045</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D20" s="76" t="s">
         <v>1047</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D20" s="76" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D21" s="76" t="s">
         <v>1049</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D21" s="76" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="76" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>633</v>
+      </c>
+      <c r="D22" s="76" t="s">
         <v>1051</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>636</v>
-      </c>
-      <c r="D22" s="76" t="s">
-        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -12166,7 +12205,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>143</v>
@@ -12180,7 +12219,7 @@
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>5</v>
@@ -12189,26 +12228,26 @@
         <v>94</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
+        <v>930</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4" s="78" t="s">
         <v>931</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>836</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>5</v>
@@ -12217,54 +12256,54 @@
         <v>94</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
+        <v>934</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>833</v>
+      </c>
+      <c r="D6" s="78" t="s">
         <v>935</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>836</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>964</v>
+      </c>
+      <c r="D8" s="78" t="s">
         <v>1055</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>965</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>54</v>
@@ -12273,26 +12312,26 @@
         <v>55</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="78" t="s">
         <v>1059</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="78" t="s">
+      <c r="D10" s="78" t="s">
         <v>1060</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>5</v>
@@ -12301,12 +12340,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>54</v>
@@ -12315,26 +12354,26 @@
         <v>293</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="78" t="s">
         <v>1021</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>54</v>
@@ -12343,12 +12382,12 @@
         <v>55</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>116</v>
@@ -12362,21 +12401,21 @@
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="78" t="s">
         <v>1009</v>
       </c>
-      <c r="B16" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="78" t="s">
+      <c r="D16" s="78" t="s">
         <v>1010</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>54</v>
@@ -12385,12 +12424,12 @@
         <v>55</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>54</v>
@@ -12399,12 +12438,12 @@
         <v>55</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>54</v>
@@ -12413,12 +12452,12 @@
         <v>55</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>116</v>
@@ -12432,35 +12471,35 @@
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D21" s="78" t="s">
         <v>1017</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D22" s="78" t="s">
         <v>1065</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>143</v>
@@ -12479,7 +12518,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12651,34 +12690,6 @@
       </c>
       <c r="D12" s="8" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -12710,21 +12721,21 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>1068</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>116</v>
@@ -12738,7 +12749,7 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>116</v>
@@ -12752,7 +12763,7 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12761,35 +12772,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="80" t="s">
         <v>1074</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="80" t="s">
+      <c r="D6" s="80" t="s">
         <v>1075</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="80" t="s">
         <v>1077</v>
       </c>
-      <c r="B7" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="80" t="s">
+      <c r="D7" s="80" t="s">
         <v>1078</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -12821,7 +12832,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>148</v>
@@ -12835,16 +12846,16 @@
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="82" t="s">
         <v>1080</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="82" t="s">
+      <c r="D3" s="82" t="s">
         <v>1081</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -12890,21 +12901,21 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>1083</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="84" t="s">
         <v>1084</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="84" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>5</v>
@@ -12913,7 +12924,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -12934,7 +12945,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -12959,16 +12970,16 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>1089</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="86" t="s">
+      <c r="D3" s="86" t="s">
         <v>1090</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="4">
@@ -12979,10 +12990,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="86" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D4" s="86" t="s">
         <v>1092</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -13003,7 +13014,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>148</v>
@@ -13017,10 +13028,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -13045,30 +13056,30 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -13110,15 +13121,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -13127,21 +13138,21 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
@@ -13152,10 +13163,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -13176,7 +13187,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -13201,21 +13212,21 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
@@ -13224,12 +13235,12 @@
         <v>273</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -13238,26 +13249,26 @@
         <v>59</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -13266,26 +13277,26 @@
         <v>35</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -13294,12 +13305,12 @@
         <v>81</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -13308,26 +13319,26 @@
         <v>59</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
@@ -13336,12 +13347,12 @@
         <v>81</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -13350,12 +13361,12 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>181</v>
@@ -13369,7 +13380,7 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>181</v>
@@ -13383,7 +13394,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -13392,7 +13403,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -13416,7 +13427,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -13441,35 +13452,35 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
@@ -13478,35 +13489,35 @@
         <v>321</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -13541,114 +13552,114 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10">
@@ -13662,7 +13673,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1031">
   <si>
     <t>Campo</t>
   </si>
@@ -575,7 +575,10 @@
     <t>datiAnnotazione</t>
   </si>
   <si>
-    <t>#/components/schemas/ModelDatiAnnotazione</t>
+    <t>array[#/components/schemas/ModelDatiAnnotazione]</t>
+  </si>
+  <si>
+    <t>Dati delle annotazioni contestuali</t>
   </si>
   <si>
     <t>datiEventoMorte</t>
@@ -936,7 +939,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@79224636</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@20bc6f4d</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -1068,6 +1071,15 @@
     <t>Descrizione della nazione estera</t>
   </si>
   <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> berlino</t>
+  </si>
+  <si>
+    <t>comune estero della nazione estera</t>
+  </si>
+  <si>
     <t>7762</t>
   </si>
   <si>
@@ -1713,625 +1725,427 @@
     <t>Indirizzo di posta elettronica certificata</t>
   </si>
   <si>
-    <t>classe che raccoglie i dati specifici delle annotazioni</t>
-  </si>
-  <si>
-    <t>sposo</t>
-  </si>
-  <si>
-    <t>sposa</t>
-  </si>
-  <si>
-    <t>coniuge1</t>
-  </si>
-  <si>
-    <t>coniuge2</t>
-  </si>
-  <si>
-    <t>soggetto</t>
-  </si>
-  <si>
-    <t>genitore</t>
-  </si>
-  <si>
-    <t>affiliante</t>
-  </si>
-  <si>
-    <t>impugnatore</t>
-  </si>
-  <si>
-    <t>figlio</t>
-  </si>
-  <si>
-    <t>attoAnnotazione</t>
-  </si>
-  <si>
-    <t>dataAnnotazionePrecedente</t>
-  </si>
-  <si>
-    <t>Data annotazione precedente</t>
-  </si>
-  <si>
-    <t>comuneAnnotazionePrecedente</t>
-  </si>
-  <si>
-    <t>Comune annotazione precedente</t>
-  </si>
-  <si>
-    <t>dataAnnotazioneSeparazione</t>
-  </si>
-  <si>
-    <t>Data annotazione separazione</t>
-  </si>
-  <si>
-    <t>enteDichiaranteEsistenza</t>
-  </si>
-  <si>
-    <t>enteDichiaranteMortePresunta</t>
-  </si>
-  <si>
-    <t>enteDichiaranteOmologazione</t>
-  </si>
-  <si>
-    <t>enteDichiaranteAutorizzazione</t>
-  </si>
-  <si>
-    <t>enteDichiaranteSentenzaItaliana</t>
-  </si>
-  <si>
-    <t>enteDichiaranteSentenzaEstera</t>
-  </si>
-  <si>
-    <t>dataNegoziazioneAssistita</t>
-  </si>
-  <si>
-    <t>Data di registrazione Negoziazione Assistita</t>
-  </si>
-  <si>
-    <t>dichiarazioneRiconoscimento</t>
-  </si>
-  <si>
-    <t>specifica se è atto pubblico o testamento</t>
+    <t>classe che raccoglie i dati per le annotazioni contestuali</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>Contiene il testo completo dell’annotazione da presentare come annotazione a margine dell’atto</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>tipo di annotazione contestuale registrata</t>
+  </si>
+  <si>
+    <t>classe base per le trascrizioni. Non è mai usata da sola</t>
+  </si>
+  <si>
+    <t>tipoDichiarazione</t>
+  </si>
+  <si>
+    <t>Tipo dichiarazione (decodifica ANSC_38)</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>In caso di tipo dichiarazione comunicazione scritta, è la data della comunicazione</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Testo libero</t>
+  </si>
+  <si>
+    <t>Testo libero per la trascrizione</t>
+  </si>
+  <si>
+    <t>autoritaMittente</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelAttoEstero</t>
+  </si>
+  <si>
+    <t>attoEstero</t>
+  </si>
+  <si>
+    <t>enteEstero</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelTrascrizione</t>
+  </si>
+  <si>
+    <t>tipoRichiedente</t>
+  </si>
+  <si>
+    <t>Id del tipo richiedente (decodica ANSC_64)</t>
+  </si>
+  <si>
+    <t>tipoLuogoNascita</t>
+  </si>
+  <si>
+    <t>Id del luogo di nascita (decodica ANSC_41)</t>
+  </si>
+  <si>
+    <t>specificaLuogoNascita</t>
+  </si>
+  <si>
+    <t>Funivia</t>
+  </si>
+  <si>
+    <t>Se tipoLuogoNascita è Altro qui è indicata la denominazione</t>
+  </si>
+  <si>
+    <t>descrizioneTipoRichiedente</t>
+  </si>
+  <si>
+    <t>Descrizione del tipo richiedente</t>
   </si>
   <si>
     <t>tipoRiconoscimento</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SI/Figlio maggiorenne riconosciuto dal padre e già riconosciuto dalla madre NO/Altri casi</t>
-  </si>
-  <si>
-    <t>Tipo scelta cognome  (decodifica ANSC_39)</t>
-  </si>
-  <si>
-    <t>presenzaOmologazione</t>
-  </si>
-  <si>
-    <t>SI/Presente omologazione  NO/Non Presente omologazione</t>
-  </si>
-  <si>
-    <t>mutamentoConvenzioni</t>
-  </si>
-  <si>
-    <t>SI/Mutamento convenzioni stipulate prima della entrata in vigore della legge 10 aprile 1981, n. 142  NO/Non Presente Mutazione</t>
-  </si>
-  <si>
-    <t>sentenzaSeparazione</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_53)</t>
-  </si>
-  <si>
-    <t>tipoCancellazione</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_68)</t>
-  </si>
-  <si>
-    <t>statoTutela</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_69)</t>
-  </si>
-  <si>
-    <t>dataTutela</t>
-  </si>
-  <si>
-    <t>Data apertura/chiusura Tutela</t>
-  </si>
-  <si>
-    <t>tipoNomina</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_70)</t>
-  </si>
-  <si>
-    <t>tipoGiudizio</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_71)</t>
-  </si>
-  <si>
-    <t>cognomeOriginario</t>
-  </si>
-  <si>
-    <t>Cognome originariamente attribuito</t>
-  </si>
-  <si>
-    <t>autorizzazioneConiuge</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_72)</t>
-  </si>
-  <si>
-    <t>dataUnioneCivile</t>
-  </si>
-  <si>
-    <t>Data unione Civile</t>
+    <t>id del tipo riconoscimento (decodifica ANSC_42)</t>
+  </si>
+  <si>
+    <t>figlioDiIgnoti</t>
+  </si>
+  <si>
+    <t>Indica se si tratta di trascrizione per omessa dichiarazione di figlio di ignoti</t>
+  </si>
+  <si>
+    <t>genitoreMutazioneCognome</t>
+  </si>
+  <si>
+    <t>Genitore che ha mutato cognome (decodifica ANSC_40)</t>
+  </si>
+  <si>
+    <t>provvedimentoCambioCognome</t>
+  </si>
+  <si>
+    <t>Ente che ha ordinato il cambio cognome (1 = Ministero dell'Interno, 2 = Prefettura)</t>
+  </si>
+  <si>
+    <t>prefettura</t>
+  </si>
+  <si>
+    <t>dataProvvidementoCambioCognome</t>
+  </si>
+  <si>
+    <t>2022-02-12</t>
+  </si>
+  <si>
+    <t>Data del provvedimento di cambio cognome</t>
+  </si>
+  <si>
+    <t>tipoMutazioneCognome</t>
+  </si>
+  <si>
+    <t>Tipo mutazione cognome (decodifica ANSC_76)</t>
+  </si>
+  <si>
+    <t>vecchioCognomeGenitore</t>
+  </si>
+  <si>
+    <t>Vecchio cognome del genitore prima della mutazione</t>
+  </si>
+  <si>
+    <t>Tipo scelta cognome (decodifica ANSC_39)</t>
+  </si>
+  <si>
+    <t>Nuovo cognome assunto dall'intestatario</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Nuovo nome assunto dall'intestatario</t>
+  </si>
+  <si>
+    <t>cognomeAggiunto</t>
+  </si>
+  <si>
+    <t>Bianchi</t>
+  </si>
+  <si>
+    <t>Cognome aggiunto assunto dall'intestatario</t>
+  </si>
+  <si>
+    <t>nomeAggiunto</t>
+  </si>
+  <si>
+    <t>Paolo</t>
+  </si>
+  <si>
+    <t>Nome aggiunto assunto dall'intestatario</t>
+  </si>
+  <si>
+    <t>volontaEspressa</t>
+  </si>
+  <si>
+    <t>Testo libero per annotazione formula 147-ter</t>
+  </si>
+  <si>
+    <t>istituto</t>
+  </si>
+  <si>
+    <t>attoCambioCognomeGenitore</t>
+  </si>
+  <si>
+    <t>riconoscimentoPaternoConSentenza</t>
+  </si>
+  <si>
+    <t>Il riconoscimento paterno è avvenuto con sentenza?</t>
+  </si>
+  <si>
+    <t>Un ascendente è un avo in linea diretta</t>
+  </si>
+  <si>
+    <t>gradoDiParentela</t>
+  </si>
+  <si>
+    <t>Grado di parentela dell'ascendente (decodifica ANSC_43)</t>
+  </si>
+  <si>
+    <t>2022-10-30</t>
+  </si>
+  <si>
+    <t>Data di morte ascendente</t>
+  </si>
+  <si>
+    <t>intestatarioApolide</t>
+  </si>
+  <si>
+    <t>L'intestatario è apolide</t>
+  </si>
+  <si>
+    <t>parenteDiretto</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelAscendente</t>
+  </si>
+  <si>
+    <t>indirizzoPostaAutorità</t>
+  </si>
+  <si>
+    <t>Sindaco - Piazza del Municipio 1</t>
+  </si>
+  <si>
+    <t>Indirizzo di posta dell'autorità competente</t>
+  </si>
+  <si>
+    <t>infoResidenzaBiennale</t>
+  </si>
+  <si>
+    <t>Dati liberi relativi alla residenza biennale in Italia</t>
+  </si>
+  <si>
+    <t>dataAcquisizioneCittadinanza</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>Data acquisizione cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>idUlterioreCittadinanza</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Ulteriore cittadinanza di cui il soggetto è in possesso</t>
+  </si>
+  <si>
+    <t>ulterioreCittadinanza</t>
+  </si>
+  <si>
+    <t>Ukraina</t>
+  </si>
+  <si>
+    <t>altraCittadinanzaRiacquistata</t>
+  </si>
+  <si>
+    <t>Altra Cittadinanza Riacuistata</t>
+  </si>
+  <si>
+    <t>tipoImpiego</t>
+  </si>
+  <si>
+    <t>Tipo impiego (decodifica ANSC_44)</t>
+  </si>
+  <si>
+    <t>nazioneImpiego</t>
+  </si>
+  <si>
+    <t>Nazione presso la quale si esercita(va) l'impiego (decodifica ANPR_02)</t>
+  </si>
+  <si>
+    <t>idMotivoPerditaCittadinanza</t>
+  </si>
+  <si>
+    <t>ID del motivo perdita cittadinanza italiana (ANSC_62)</t>
+  </si>
+  <si>
+    <t>motivoPerditaCittadinanza</t>
+  </si>
+  <si>
+    <t>Motivo perdita cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>tempoAssunzione</t>
+  </si>
+  <si>
+    <t>Dice se l'assunzione è già avvenuta oppure avverrà (decodifica ANSC_45)</t>
+  </si>
+  <si>
+    <t>tipoResidenza</t>
+  </si>
+  <si>
+    <t>Tipo di residenza in Italia per richiesta di cittadinanza (decodifica ANSC_57)</t>
+  </si>
+  <si>
+    <t>Forlì</t>
+  </si>
+  <si>
+    <t>Provincia del comune in cui si intende prendere la residenza</t>
+  </si>
+  <si>
+    <t>provinciaResidenza</t>
+  </si>
+  <si>
+    <t>Sigla Provincia del comune in cui si intende prendere la residenza</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>ID Comune in cui si è presa, o si intende prendere, la residenza</t>
+  </si>
+  <si>
+    <t>comuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune in cui si è presa, o si intende prendere, la residenza</t>
+  </si>
+  <si>
+    <t>dataInizioResidenza</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>Data di inizio della residenza in Italia</t>
+  </si>
+  <si>
+    <t>tipoPerditaPerMatrimonio</t>
+  </si>
+  <si>
+    <t>Tipo di matrimonio per perdita cittadinanza (decodifica ANSC_62)</t>
+  </si>
+  <si>
+    <t>riassuntoDichiarazione</t>
+  </si>
+  <si>
+    <t>Testo libero per annotazione 140-bis</t>
+  </si>
+  <si>
+    <t>presenzaInteressato</t>
+  </si>
+  <si>
+    <t>L'interessato è presente o no?</t>
+  </si>
+  <si>
+    <t>delegato</t>
+  </si>
+  <si>
+    <t>estremiDecretoConferimento</t>
+  </si>
+  <si>
+    <t>2671/22</t>
+  </si>
+  <si>
+    <t>Estremi del decreto di conferimento della cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>dataDecretoConferimento</t>
+  </si>
+  <si>
+    <t>Data del decreto di conferimento della cittadinanza</t>
+  </si>
+  <si>
+    <t>dataRegistrazioneDecreto</t>
+  </si>
+  <si>
+    <t>Data di registrazione del decreto presso la corte dei conri</t>
+  </si>
+  <si>
+    <t>dataNotificaDelDecreto</t>
+  </si>
+  <si>
+    <t>Data di notifica del decreto</t>
+  </si>
+  <si>
+    <t>dataGiuramento</t>
+  </si>
+  <si>
+    <t>Data giuramento</t>
+  </si>
+  <si>
+    <t>estremiGiuramento</t>
+  </si>
+  <si>
+    <t>327673/2022</t>
+  </si>
+  <si>
+    <t>Estremi dell'evento di giuramento</t>
+  </si>
+  <si>
+    <t>dataAssunzione</t>
+  </si>
+  <si>
+    <t>Data assunzione Datore di Lavoro</t>
+  </si>
+  <si>
+    <t>datoreEstero</t>
+  </si>
+  <si>
+    <t>Il datore di lavoro è estero</t>
+  </si>
+  <si>
+    <t>nomeDatoreLavoro</t>
+  </si>
+  <si>
+    <t>Comune di Roma</t>
+  </si>
+  <si>
+    <t>Nome del datoredi lavoro</t>
+  </si>
+  <si>
+    <t>tipoEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>Tipo Evento Cittadinanza</t>
   </si>
   <si>
     <t>dataAccertamento</t>
   </si>
   <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
     <t>Data accertamento</t>
-  </si>
-  <si>
-    <t>sessoPrecedente</t>
-  </si>
-  <si>
-    <t>Sesso Precedente</t>
-  </si>
-  <si>
-    <t>nomePrecedente</t>
-  </si>
-  <si>
-    <t>Nome Precedente</t>
-  </si>
-  <si>
-    <t>leggittimazione</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_73)</t>
-  </si>
-  <si>
-    <t>pseudonimo</t>
-  </si>
-  <si>
-    <t>Gianni</t>
-  </si>
-  <si>
-    <t>soggettoDichiarante</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_74)</t>
-  </si>
-  <si>
-    <t>modalitaNome</t>
-  </si>
-  <si>
-    <t>modalità attributi Soggetto</t>
-  </si>
-  <si>
-    <t>dispositivo</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>campo libero</t>
-  </si>
-  <si>
-    <t>dataRicorso</t>
-  </si>
-  <si>
-    <t>tribunalRicorso</t>
-  </si>
-  <si>
-    <t>Tribunale Ricorso</t>
-  </si>
-  <si>
-    <t>esitoRicorso</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_75)</t>
-  </si>
-  <si>
-    <t>classe base per le trascrizioni. Non è mai usata da sola</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Tipo dichiarazione (decodifica ANSC_38)</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>In caso di tipo dichiarazione comunicazione scritta, è la data della comunicazione</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Testo libero</t>
-  </si>
-  <si>
-    <t>Testo libero per la trascrizione</t>
-  </si>
-  <si>
-    <t>autoritaMittente</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelAttoEstero</t>
-  </si>
-  <si>
-    <t>attoEstero</t>
-  </si>
-  <si>
-    <t>enteEstero</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelTrascrizione</t>
-  </si>
-  <si>
-    <t>tipoRichiedente</t>
-  </si>
-  <si>
-    <t>Id del tipo richiedente (decodica ANSC_64)</t>
-  </si>
-  <si>
-    <t>tipoLuogoNascita</t>
-  </si>
-  <si>
-    <t>Id del luogo di nascita (decodica ANSC_41)</t>
-  </si>
-  <si>
-    <t>specificaLuogoNascita</t>
-  </si>
-  <si>
-    <t>Funivia</t>
-  </si>
-  <si>
-    <t>Se tipoLuogoNascita è Altro qui è indicata la denominazione</t>
-  </si>
-  <si>
-    <t>descrizioneTipoRichiedente</t>
-  </si>
-  <si>
-    <t>Descrizione del tipo richiedente</t>
-  </si>
-  <si>
-    <t>id del tipo riconoscimento (decodifica ANSC_42)</t>
-  </si>
-  <si>
-    <t>figlioDiIgnoti</t>
-  </si>
-  <si>
-    <t>Indica se si tratta di trascrizione per omessa dichiarazione di figlio di ignoti</t>
-  </si>
-  <si>
-    <t>genitoreMutazioneCognome</t>
-  </si>
-  <si>
-    <t>Genitore che ha mutato cognome (decodifica ANSC_40)</t>
-  </si>
-  <si>
-    <t>provvedimentoCambioCognome</t>
-  </si>
-  <si>
-    <t>Ente che ha ordinato il cambio cognome (1 = Ministero dell'Interno, 2 = Prefettura)</t>
-  </si>
-  <si>
-    <t>prefettura</t>
-  </si>
-  <si>
-    <t>dataProvvidementoCambioCognome</t>
-  </si>
-  <si>
-    <t>2022-02-12</t>
-  </si>
-  <si>
-    <t>Data del provvedimento di cambio cognome</t>
-  </si>
-  <si>
-    <t>tipoMutazioneCognome</t>
-  </si>
-  <si>
-    <t>Tipo mutazione cognome (decodifica ANSC_76)</t>
-  </si>
-  <si>
-    <t>vecchioCognomeGenitore</t>
-  </si>
-  <si>
-    <t>Vecchio cognome del genitore prima della mutazione</t>
-  </si>
-  <si>
-    <t>Tipo scelta cognome (decodifica ANSC_39)</t>
-  </si>
-  <si>
-    <t>Nuovo cognome assunto dall'intestatario</t>
-  </si>
-  <si>
-    <t>nuovoNome</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Nuovo nome assunto dall'intestatario</t>
-  </si>
-  <si>
-    <t>cognomeAggiunto</t>
-  </si>
-  <si>
-    <t>Bianchi</t>
-  </si>
-  <si>
-    <t>Cognome aggiunto assunto dall'intestatario</t>
-  </si>
-  <si>
-    <t>nomeAggiunto</t>
-  </si>
-  <si>
-    <t>Paolo</t>
-  </si>
-  <si>
-    <t>Nome aggiunto assunto dall'intestatario</t>
-  </si>
-  <si>
-    <t>volontaEspressa</t>
-  </si>
-  <si>
-    <t>Testo libero per annotazione formula 147-ter</t>
-  </si>
-  <si>
-    <t>istituto</t>
-  </si>
-  <si>
-    <t>attoCambioCognomeGenitore</t>
-  </si>
-  <si>
-    <t>riconoscimentoPaternoConSentenza</t>
-  </si>
-  <si>
-    <t>Il riconoscimento paterno è avvenuto con sentenza?</t>
-  </si>
-  <si>
-    <t>Un ascendente è un avo in linea diretta</t>
-  </si>
-  <si>
-    <t>gradoDiParentela</t>
-  </si>
-  <si>
-    <t>Grado di parentela dell'ascendente (decodifica ANSC_43)</t>
-  </si>
-  <si>
-    <t>2022-10-30</t>
-  </si>
-  <si>
-    <t>Data di morte ascendente</t>
-  </si>
-  <si>
-    <t>intestatarioApolide</t>
-  </si>
-  <si>
-    <t>L'intestatario è apolide</t>
-  </si>
-  <si>
-    <t>parenteDiretto</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelAscendente</t>
-  </si>
-  <si>
-    <t>indirizzoPostaAutorità</t>
-  </si>
-  <si>
-    <t>Sindaco - Piazza del Municipio 1</t>
-  </si>
-  <si>
-    <t>Indirizzo di posta dell'autorità competente</t>
-  </si>
-  <si>
-    <t>infoResidenzaBiennale</t>
-  </si>
-  <si>
-    <t>Dati liberi relativi alla residenza biennale in Italia</t>
-  </si>
-  <si>
-    <t>dataAcquisizioneCittadinanza</t>
-  </si>
-  <si>
-    <t>2022-06-24</t>
-  </si>
-  <si>
-    <t>Data acquisizione cittadinanza italiana</t>
-  </si>
-  <si>
-    <t>idUlterioreCittadinanza</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Ulteriore cittadinanza di cui il soggetto è in possesso</t>
-  </si>
-  <si>
-    <t>ulterioreCittadinanza</t>
-  </si>
-  <si>
-    <t>Ukraina</t>
-  </si>
-  <si>
-    <t>altraCittadinanzaRiacquistata</t>
-  </si>
-  <si>
-    <t>Altra Cittadinanza Riacuistata</t>
-  </si>
-  <si>
-    <t>tipoImpiego</t>
-  </si>
-  <si>
-    <t>Tipo impiego (decodifica ANSC_44)</t>
-  </si>
-  <si>
-    <t>nazioneImpiego</t>
-  </si>
-  <si>
-    <t>Nazione presso la quale si esercita(va) l'impiego (decodifica ANPR_02)</t>
-  </si>
-  <si>
-    <t>idMotivoPerditaCittadinanza</t>
-  </si>
-  <si>
-    <t>ID del motivo perdita cittadinanza italiana (ANSC_62)</t>
-  </si>
-  <si>
-    <t>motivoPerditaCittadinanza</t>
-  </si>
-  <si>
-    <t>Motivo perdita cittadinanza italiana</t>
-  </si>
-  <si>
-    <t>tempoAssunzione</t>
-  </si>
-  <si>
-    <t>Dice se l'assunzione è già avvenuta oppure avverrà (decodifica ANSC_45)</t>
-  </si>
-  <si>
-    <t>tipoResidenza</t>
-  </si>
-  <si>
-    <t>Tipo di residenza in Italia per richiesta di cittadinanza (decodifica ANSC_57)</t>
-  </si>
-  <si>
-    <t>Forlì</t>
-  </si>
-  <si>
-    <t>Provincia del comune in cui si intende prendere la residenza</t>
-  </si>
-  <si>
-    <t>provinciaResidenza</t>
-  </si>
-  <si>
-    <t>Sigla Provincia del comune in cui si intende prendere la residenza</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>ID Comune in cui si è presa, o si intende prendere, la residenza</t>
-  </si>
-  <si>
-    <t>comuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune in cui si è presa, o si intende prendere, la residenza</t>
-  </si>
-  <si>
-    <t>dataInizioResidenza</t>
-  </si>
-  <si>
-    <t>2022-07-14</t>
-  </si>
-  <si>
-    <t>Data di inizio della residenza in Italia</t>
-  </si>
-  <si>
-    <t>tipoPerditaPerMatrimonio</t>
-  </si>
-  <si>
-    <t>Tipo di matrimonio per perdita cittadinanza (decodifica ANSC_62)</t>
-  </si>
-  <si>
-    <t>riassuntoDichiarazione</t>
-  </si>
-  <si>
-    <t>Testo libero per annotazione 140-bis</t>
-  </si>
-  <si>
-    <t>presenzaInteressato</t>
-  </si>
-  <si>
-    <t>L'interessato è presente o no?</t>
-  </si>
-  <si>
-    <t>delegato</t>
-  </si>
-  <si>
-    <t>estremiDecretoConferimento</t>
-  </si>
-  <si>
-    <t>2671/22</t>
-  </si>
-  <si>
-    <t>Estremi del decreto di conferimento della cittadinanza italiana</t>
-  </si>
-  <si>
-    <t>dataDecretoConferimento</t>
-  </si>
-  <si>
-    <t>Data del decreto di conferimento della cittadinanza</t>
-  </si>
-  <si>
-    <t>dataRegistrazioneDecreto</t>
-  </si>
-  <si>
-    <t>Data di registrazione del decreto presso la corte dei conri</t>
-  </si>
-  <si>
-    <t>dataNotificaDelDecreto</t>
-  </si>
-  <si>
-    <t>Data di notifica del decreto</t>
-  </si>
-  <si>
-    <t>dataGiuramento</t>
-  </si>
-  <si>
-    <t>Data giuramento</t>
-  </si>
-  <si>
-    <t>estremiGiuramento</t>
-  </si>
-  <si>
-    <t>327673/2022</t>
-  </si>
-  <si>
-    <t>Estremi dell'evento di giuramento</t>
-  </si>
-  <si>
-    <t>dataAssunzione</t>
-  </si>
-  <si>
-    <t>Data assunzione Datore di Lavoro</t>
-  </si>
-  <si>
-    <t>datoreEstero</t>
-  </si>
-  <si>
-    <t>Il datore di lavoro è estero</t>
-  </si>
-  <si>
-    <t>nomeDatoreLavoro</t>
-  </si>
-  <si>
-    <t>Comune di Roma</t>
-  </si>
-  <si>
-    <t>Nome del datoredi lavoro</t>
-  </si>
-  <si>
-    <t>tipoEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>Tipo Evento Cittadinanza</t>
-  </si>
-  <si>
-    <t>2022-06-23</t>
   </si>
   <si>
     <t>esitoAccertamento</t>
@@ -4942,15 +4756,15 @@
         <v>59</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>59</v>
@@ -4961,10 +4775,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>59</v>
@@ -4975,10 +4789,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>59</v>
@@ -4989,35 +4803,35 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>5</v>
@@ -5026,7 +4840,7 @@
         <v>59</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5058,63 +4872,63 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>5</v>
@@ -5123,35 +4937,35 @@
         <v>59</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -5183,21 +4997,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5206,12 +5020,12 @@
         <v>61</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5220,12 +5034,12 @@
         <v>64</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5234,12 +5048,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5248,152 +5062,152 @@
         <v>67</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5402,40 +5216,40 @@
         <v>30</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5444,21 +5258,21 @@
         <v>40</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -5490,49 +5304,49 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5541,7 +5355,7 @@
         <v>94</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5573,7 +5387,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5582,12 +5396,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -5596,7 +5410,7 @@
         <v>117</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5637,21 +5451,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4">
@@ -5670,7 +5484,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>143</v>
@@ -5684,7 +5498,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>148</v>
@@ -5698,7 +5512,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>148</v>
@@ -5753,7 +5567,7 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5762,12 +5576,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5776,40 +5590,40 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>143</v>
@@ -5823,21 +5637,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -5846,68 +5660,68 @@
         <v>73</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>54</v>
@@ -5916,26 +5730,26 @@
         <v>55</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>108</v>
@@ -5949,7 +5763,7 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>143</v>
@@ -5990,30 +5804,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -6045,21 +5859,21 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>148</v>
@@ -6073,10 +5887,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>59</v>
@@ -6087,7 +5901,7 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>143</v>
@@ -6117,7 +5931,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -6142,30 +5956,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -6178,7 +5992,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6189,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -6214,674 +6028,30 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>59</v>
+        <v>558</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>59</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="38" t="s">
         <v>561</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="38" t="s">
-        <v>605</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="38" t="s">
-        <v>615</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -6939,7 +6109,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -6953,7 +6123,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -6967,7 +6137,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
@@ -6981,7 +6151,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7">
@@ -6992,15 +6162,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -7009,7 +6179,7 @@
         <v>170</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -7023,7 +6193,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
@@ -7065,7 +6235,7 @@
         <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13">
@@ -7076,10 +6246,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -7093,7 +6263,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
@@ -7126,7 +6296,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -7140,7 +6310,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -7154,72 +6324,72 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
@@ -7261,7 +6431,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7282,7 +6452,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>627</v>
+        <v>562</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7307,7 +6477,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>628</v>
+        <v>563</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -7316,40 +6486,40 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>629</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>630</v>
+        <v>565</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>631</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>632</v>
+        <v>567</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>634</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>635</v>
+        <v>570</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>148</v>
@@ -7363,10 +6533,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>636</v>
+        <v>571</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>59</v>
@@ -7377,10 +6547,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>637</v>
+        <v>572</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>636</v>
+        <v>571</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>59</v>
@@ -7421,7 +6591,7 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>638</v>
+        <v>573</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>114</v>
@@ -7448,10 +6618,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7462,10 +6632,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -7490,7 +6660,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>640</v>
+        <v>575</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -7499,12 +6669,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>641</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -7513,26 +6683,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>643</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
@@ -7541,12 +6711,12 @@
         <v>118</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>648</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>5</v>
@@ -7555,40 +6725,40 @@
         <v>59</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -7597,12 +6767,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>655</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>148</v>
@@ -7616,21 +6786,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
-        <v>657</v>
+        <v>593</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -7639,26 +6809,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7667,82 +6837,82 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>664</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
-        <v>666</v>
+        <v>602</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>668</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
-        <v>669</v>
+        <v>605</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>670</v>
+        <v>606</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>671</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
-        <v>672</v>
+        <v>608</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>673</v>
+        <v>609</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>674</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
-        <v>675</v>
+        <v>611</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>676</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>677</v>
+        <v>613</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>148</v>
@@ -7756,7 +6926,7 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>678</v>
+        <v>614</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>143</v>
@@ -7770,7 +6940,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>679</v>
+        <v>615</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>54</v>
@@ -7779,7 +6949,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>680</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -7804,7 +6974,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>681</v>
+        <v>617</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7815,7 +6985,7 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>116</v>
@@ -7829,10 +6999,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -7857,7 +7027,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>682</v>
+        <v>618</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -7866,21 +7036,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>683</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>684</v>
+        <v>620</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -7917,7 +7087,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>686</v>
+        <v>622</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>54</v>
@@ -7926,15 +7096,15 @@
         <v>55</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>687</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>688</v>
+        <v>624</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>689</v>
+        <v>625</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>59</v>
@@ -7945,77 +7115,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>690</v>
+        <v>626</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>691</v>
+        <v>627</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>693</v>
+        <v>629</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>694</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>695</v>
+        <v>631</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>696</v>
+        <v>632</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>697</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>698</v>
+        <v>634</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>699</v>
+        <v>635</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>703</v>
+        <v>639</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>54</v>
@@ -8024,12 +7194,12 @@
         <v>55</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>704</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>705</v>
+        <v>641</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -8038,26 +7208,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>707</v>
+        <v>643</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>708</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -8066,26 +7236,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>710</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>713</v>
+        <v>649</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -8094,12 +7264,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>714</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>715</v>
+        <v>651</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -8108,26 +7278,26 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>716</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>717</v>
+        <v>653</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>718</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>719</v>
+        <v>655</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>5</v>
@@ -8136,54 +7306,54 @@
         <v>70</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>720</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>721</v>
+        <v>657</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>722</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
-        <v>723</v>
+        <v>659</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>717</v>
+        <v>653</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>724</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
-        <v>725</v>
+        <v>661</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>727</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -8192,7 +7362,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>729</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22">
@@ -8211,21 +7381,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>731</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>732</v>
+        <v>668</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>54</v>
@@ -8234,12 +7404,12 @@
         <v>55</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>733</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>734</v>
+        <v>670</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>116</v>
@@ -8253,105 +7423,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>735</v>
+        <v>671</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>737</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>740</v>
+        <v>676</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>741</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>742</v>
+        <v>678</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>743</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>744</v>
+        <v>680</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>745</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>747</v>
+        <v>683</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>748</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>749</v>
+        <v>685</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>696</v>
+        <v>632</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>750</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>751</v>
+        <v>687</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>54</v>
@@ -8360,26 +7530,26 @@
         <v>55</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>752</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>755</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>756</v>
+        <v>692</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -8388,7 +7558,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>757</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -8406,10 +7576,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8420,10 +7590,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8448,35 +7618,35 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>605</v>
+        <v>694</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>758</v>
+        <v>695</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>606</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>760</v>
+        <v>698</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>761</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>762</v>
+        <v>700</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -8485,26 +7655,26 @@
         <v>59</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>763</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>764</v>
+        <v>702</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>765</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>766</v>
+        <v>704</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -8513,82 +7683,82 @@
         <v>73</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>767</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>768</v>
+        <v>706</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>769</v>
+        <v>707</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>770</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>771</v>
+        <v>709</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>772</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>773</v>
+        <v>711</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>774</v>
+        <v>712</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>775</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>776</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>777</v>
+        <v>715</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>778</v>
+        <v>716</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>779</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>780</v>
+        <v>718</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>148</v>
@@ -8619,10 +7789,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8633,10 +7803,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8661,21 +7831,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>781</v>
+        <v>719</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>696</v>
+        <v>632</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>782</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>783</v>
+        <v>721</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8684,12 +7854,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>784</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>785</v>
+        <v>723</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>58</v>
@@ -8703,7 +7873,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>786</v>
+        <v>724</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>143</v>
@@ -8734,10 +7904,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8748,10 +7918,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8776,21 +7946,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>787</v>
+        <v>725</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>788</v>
+        <v>726</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>789</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>790</v>
+        <v>728</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>116</v>
@@ -8821,10 +7991,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8835,10 +8005,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8863,7 +8033,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>791</v>
+        <v>729</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>54</v>
@@ -8872,12 +8042,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>792</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>793</v>
+        <v>731</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>143</v>
@@ -8891,7 +8061,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>794</v>
+        <v>732</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>148</v>
@@ -8905,7 +8075,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>795</v>
+        <v>733</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8914,7 +8084,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>796</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -8936,10 +8106,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -8950,10 +8120,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -8978,7 +8148,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>797</v>
+        <v>735</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8987,26 +8157,26 @@
         <v>59</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>798</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>787</v>
+        <v>725</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>788</v>
+        <v>726</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>789</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>790</v>
+        <v>728</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>116</v>
@@ -9057,141 +8227,141 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -9200,82 +8370,82 @@
         <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -9284,68 +8454,68 @@
         <v>67</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -9354,26 +8524,26 @@
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -9382,26 +8552,26 @@
         <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
@@ -9410,26 +8580,26 @@
         <v>15</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>5</v>
@@ -9438,57 +8608,57 @@
         <v>59</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>59</v>
@@ -9499,10 +8669,10 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>59</v>
@@ -9540,7 +8710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>799</v>
+        <v>737</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -9549,12 +8719,12 @@
         <v>61</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>800</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>801</v>
+        <v>739</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -9563,12 +8733,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>802</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>803</v>
+        <v>741</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -9577,12 +8747,12 @@
         <v>67</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>804</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>805</v>
+        <v>743</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -9591,77 +8761,77 @@
         <v>67</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>806</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>807</v>
+        <v>745</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>808</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>809</v>
+        <v>747</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>810</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>812</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>813</v>
+        <v>751</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>814</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>815</v>
+        <v>753</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>816</v>
+        <v>754</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>817</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -9693,7 +8863,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>818</v>
+        <v>756</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>58</v>
@@ -9707,35 +8877,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>819</v>
+        <v>757</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>696</v>
+        <v>632</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>820</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>821</v>
+        <v>759</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>822</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>823</v>
+        <v>761</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9744,54 +8914,54 @@
         <v>35</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>824</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>790</v>
+        <v>728</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>825</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>826</v>
+        <v>764</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>827</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>828</v>
+        <v>766</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>829</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>830</v>
+        <v>768</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>5</v>
@@ -9800,26 +8970,26 @@
         <v>94</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>831</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>832</v>
+        <v>770</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>833</v>
+        <v>771</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>834</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>835</v>
+        <v>773</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
@@ -9828,40 +8998,40 @@
         <v>94</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>836</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>837</v>
+        <v>775</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>833</v>
+        <v>771</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>838</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>839</v>
+        <v>777</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>840</v>
+        <v>778</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>841</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>842</v>
+        <v>780</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>116</v>
@@ -9875,7 +9045,7 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>843</v>
+        <v>781</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>116</v>
@@ -9889,7 +9059,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>844</v>
+        <v>782</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>116</v>
@@ -9903,7 +9073,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>845</v>
+        <v>783</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>116</v>
@@ -9917,7 +9087,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>846</v>
+        <v>784</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>5</v>
@@ -9926,12 +9096,12 @@
         <v>15</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>847</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>848</v>
+        <v>786</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>116</v>
@@ -9945,7 +9115,7 @@
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>849</v>
+        <v>787</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>54</v>
@@ -9954,15 +9124,15 @@
         <v>55</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>850</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>851</v>
+        <v>789</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>852</v>
+        <v>790</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>59</v>
@@ -9973,10 +9143,10 @@
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>853</v>
+        <v>791</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>852</v>
+        <v>790</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>59</v>
@@ -9987,7 +9157,7 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>854</v>
+        <v>792</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>54</v>
@@ -9996,12 +9166,12 @@
         <v>55</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>855</v>
+        <v>793</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>856</v>
+        <v>794</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>54</v>
@@ -10010,12 +9180,12 @@
         <v>55</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>857</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>858</v>
+        <v>796</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>148</v>
@@ -10029,7 +9199,7 @@
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>859</v>
+        <v>797</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>54</v>
@@ -10038,12 +9208,12 @@
         <v>55</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>860</v>
+        <v>798</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>861</v>
+        <v>799</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>148</v>
@@ -10057,7 +9227,7 @@
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>862</v>
+        <v>800</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>54</v>
@@ -10066,12 +9236,12 @@
         <v>55</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>863</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>864</v>
+        <v>802</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>148</v>
@@ -10085,7 +9255,7 @@
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>865</v>
+        <v>803</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>5</v>
@@ -10094,12 +9264,12 @@
         <v>15</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>866</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>867</v>
+        <v>805</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>5</v>
@@ -10108,26 +9278,26 @@
         <v>94</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>868</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>869</v>
+        <v>807</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>870</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>871</v>
+        <v>809</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>148</v>
@@ -10141,7 +9311,7 @@
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>872</v>
+        <v>810</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>148</v>
@@ -10155,7 +9325,7 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>873</v>
+        <v>811</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>148</v>
@@ -10169,10 +9339,10 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>874</v>
+        <v>812</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>875</v>
+        <v>813</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>59</v>
@@ -10183,7 +9353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>876</v>
+        <v>814</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>143</v>
@@ -10197,7 +9367,7 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>877</v>
+        <v>815</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>143</v>
@@ -10211,147 +9381,147 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>878</v>
+        <v>816</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>879</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>880</v>
+        <v>818</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>881</v>
+        <v>819</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>882</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>883</v>
+        <v>821</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>884</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>885</v>
+        <v>823</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>881</v>
+        <v>819</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>886</v>
+        <v>824</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>887</v>
+        <v>825</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>888</v>
+        <v>826</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>889</v>
+        <v>827</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>890</v>
+        <v>828</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>889</v>
+        <v>827</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>891</v>
+        <v>829</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>892</v>
+        <v>830</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>893</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>894</v>
+        <v>832</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>895</v>
+        <v>833</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>896</v>
+        <v>834</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>897</v>
+        <v>835</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>898</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>899</v>
+        <v>837</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>900</v>
+        <v>838</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>901</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>902</v>
+        <v>840</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
@@ -10360,26 +9530,26 @@
         <v>59</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>903</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>904</v>
+        <v>842</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>905</v>
+        <v>843</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>906</v>
+        <v>844</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>5</v>
@@ -10388,12 +9558,12 @@
         <v>15</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>907</v>
+        <v>845</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>908</v>
+        <v>846</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>108</v>
@@ -10402,26 +9572,26 @@
         <v>59</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>909</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>910</v>
+        <v>848</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>911</v>
+        <v>849</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>912</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>913</v>
+        <v>851</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>145</v>
@@ -10435,21 +9605,21 @@
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>914</v>
+        <v>852</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>915</v>
+        <v>853</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>916</v>
+        <v>854</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>917</v>
+        <v>855</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>54</v>
@@ -10458,12 +9628,12 @@
         <v>55</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>918</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>919</v>
+        <v>857</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>5</v>
@@ -10472,15 +9642,15 @@
         <v>15</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>920</v>
+        <v>858</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>921</v>
+        <v>859</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>922</v>
+        <v>860</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>59</v>
@@ -10491,10 +9661,10 @@
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>923</v>
+        <v>861</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>922</v>
+        <v>860</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>59</v>
@@ -10532,7 +9702,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>818</v>
+        <v>756</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>58</v>
@@ -10546,35 +9716,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>819</v>
+        <v>757</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>696</v>
+        <v>632</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>924</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>821</v>
+        <v>759</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>822</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>823</v>
+        <v>761</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10583,57 +9753,57 @@
         <v>35</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>824</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>790</v>
+        <v>728</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>825</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>826</v>
+        <v>764</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>827</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>828</v>
+        <v>766</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>829</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>925</v>
+        <v>863</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>926</v>
+        <v>864</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>59</v>
@@ -10644,10 +9814,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>927</v>
+        <v>865</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>926</v>
+        <v>864</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>59</v>
@@ -10658,7 +9828,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>928</v>
+        <v>866</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -10667,26 +9837,26 @@
         <v>94</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>929</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>930</v>
+        <v>868</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>833</v>
+        <v>771</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>931</v>
+        <v>869</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>932</v>
+        <v>870</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10695,40 +9865,40 @@
         <v>94</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>933</v>
+        <v>871</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>934</v>
+        <v>872</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>833</v>
+        <v>771</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>935</v>
+        <v>873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>839</v>
+        <v>777</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>840</v>
+        <v>778</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>841</v>
+        <v>779</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>842</v>
+        <v>780</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>116</v>
@@ -10742,7 +9912,7 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>843</v>
+        <v>781</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>116</v>
@@ -10756,7 +9926,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>844</v>
+        <v>782</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>116</v>
@@ -10770,7 +9940,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>845</v>
+        <v>783</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>116</v>
@@ -10784,7 +9954,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>846</v>
+        <v>784</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>5</v>
@@ -10793,12 +9963,12 @@
         <v>15</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>847</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>848</v>
+        <v>786</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>116</v>
@@ -10812,7 +9982,7 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>936</v>
+        <v>874</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>143</v>
@@ -10826,7 +9996,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>937</v>
+        <v>875</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>143</v>
@@ -10840,7 +10010,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>859</v>
+        <v>797</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>54</v>
@@ -10849,12 +10019,12 @@
         <v>55</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>938</v>
+        <v>876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>861</v>
+        <v>799</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>148</v>
@@ -10868,7 +10038,7 @@
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>862</v>
+        <v>800</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>54</v>
@@ -10877,12 +10047,12 @@
         <v>55</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>939</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>864</v>
+        <v>802</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>148</v>
@@ -10896,7 +10066,7 @@
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>865</v>
+        <v>803</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>5</v>
@@ -10905,12 +10075,12 @@
         <v>15</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>940</v>
+        <v>878</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>867</v>
+        <v>805</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>5</v>
@@ -10919,12 +10089,12 @@
         <v>94</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>868</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>871</v>
+        <v>809</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>148</v>
@@ -10938,7 +10108,7 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>872</v>
+        <v>810</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>148</v>
@@ -10952,10 +10122,10 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>874</v>
+        <v>812</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>875</v>
+        <v>813</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>59</v>
@@ -10966,147 +10136,147 @@
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>941</v>
+        <v>879</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>942</v>
+        <v>880</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>943</v>
+        <v>881</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>881</v>
+        <v>819</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>944</v>
+        <v>882</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>945</v>
+        <v>883</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>946</v>
+        <v>884</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>947</v>
+        <v>885</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>881</v>
+        <v>819</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>948</v>
+        <v>886</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>887</v>
+        <v>825</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>888</v>
+        <v>826</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>889</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>890</v>
+        <v>828</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>949</v>
+        <v>887</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>889</v>
+        <v>827</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>891</v>
+        <v>829</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>950</v>
+        <v>888</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>893</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>894</v>
+        <v>832</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>950</v>
+        <v>888</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>951</v>
+        <v>889</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>896</v>
+        <v>834</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>897</v>
+        <v>835</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>898</v>
+        <v>836</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>899</v>
+        <v>837</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>952</v>
+        <v>890</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>901</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>953</v>
+        <v>891</v>
       </c>
       <c r="B43" s="64" t="s">
         <v>5</v>
@@ -11115,15 +10285,15 @@
         <v>15</v>
       </c>
       <c r="D43" s="64" t="s">
-        <v>920</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>921</v>
+        <v>859</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>922</v>
+        <v>860</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>59</v>
@@ -11134,10 +10304,10 @@
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>923</v>
+        <v>861</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>922</v>
+        <v>860</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>59</v>
@@ -11175,72 +10345,72 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>954</v>
+        <v>892</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>950</v>
+        <v>888</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>955</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>956</v>
+        <v>894</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>957</v>
+        <v>895</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>958</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>959</v>
+        <v>897</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>717</v>
+        <v>653</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>960</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>961</v>
+        <v>899</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>962</v>
+        <v>900</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>960</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>963</v>
+        <v>901</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>964</v>
+        <v>902</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>965</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -11272,7 +10442,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>803</v>
+        <v>741</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -11281,12 +10451,12 @@
         <v>67</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>966</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>967</v>
+        <v>905</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -11295,12 +10465,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>966</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>799</v>
+        <v>737</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -11309,12 +10479,12 @@
         <v>61</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>968</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>969</v>
+        <v>907</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -11323,35 +10493,35 @@
         <v>64</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>968</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>970</v>
+        <v>908</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>971</v>
+        <v>909</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>972</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>973</v>
+        <v>911</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>974</v>
+        <v>912</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>975</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -11383,7 +10553,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>976</v>
+        <v>914</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -11392,12 +10562,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>977</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>978</v>
+        <v>916</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>54</v>
@@ -11406,82 +10576,82 @@
         <v>55</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>979</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>980</v>
+        <v>918</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>981</v>
+        <v>919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>982</v>
+        <v>920</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>983</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>984</v>
+        <v>922</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>985</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>986</v>
+        <v>924</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>987</v>
+        <v>925</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>988</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>989</v>
+        <v>927</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>990</v>
+        <v>928</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>991</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>992</v>
+        <v>930</v>
       </c>
       <c r="B9" s="70" t="s">
         <v>5</v>
@@ -11490,12 +10660,12 @@
         <v>94</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>993</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="70" t="s">
-        <v>994</v>
+        <v>932</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>5</v>
@@ -11504,12 +10674,12 @@
         <v>94</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>995</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="70" t="s">
-        <v>996</v>
+        <v>934</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>116</v>
@@ -11523,7 +10693,7 @@
     </row>
     <row r="12">
       <c r="A12" s="70" t="s">
-        <v>997</v>
+        <v>935</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>148</v>
@@ -11564,7 +10734,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>793</v>
+        <v>731</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>143</v>
@@ -11578,7 +10748,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>998</v>
+        <v>936</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>148</v>
@@ -11592,16 +10762,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>999</v>
+        <v>937</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>897</v>
+        <v>835</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>1000</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -11633,7 +10803,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>1001</v>
+        <v>939</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11642,12 +10812,12 @@
         <v>59</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>1002</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>1003</v>
+        <v>941</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>54</v>
@@ -11656,12 +10826,12 @@
         <v>55</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>1004</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>1005</v>
+        <v>943</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>54</v>
@@ -11670,12 +10840,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>1006</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="74" t="s">
-        <v>1007</v>
+        <v>945</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>116</v>
@@ -11689,21 +10859,21 @@
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
-        <v>1008</v>
+        <v>946</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>1009</v>
+        <v>947</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>1010</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>1011</v>
+        <v>949</v>
       </c>
       <c r="B7" s="74" t="s">
         <v>54</v>
@@ -11712,12 +10882,12 @@
         <v>55</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>1012</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="74" t="s">
-        <v>1013</v>
+        <v>951</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>54</v>
@@ -11726,12 +10896,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>1014</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="74" t="s">
-        <v>1015</v>
+        <v>953</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>116</v>
@@ -11745,21 +10915,21 @@
     </row>
     <row r="10">
       <c r="A10" s="74" t="s">
-        <v>1016</v>
+        <v>954</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>1009</v>
+        <v>947</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>1017</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="74" t="s">
-        <v>793</v>
+        <v>731</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>143</v>
@@ -11773,21 +10943,21 @@
     </row>
     <row r="12">
       <c r="A12" s="74" t="s">
-        <v>1018</v>
+        <v>956</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>1019</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="74" t="s">
-        <v>1020</v>
+        <v>958</v>
       </c>
       <c r="B13" s="74" t="s">
         <v>5</v>
@@ -11796,26 +10966,26 @@
         <v>59</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>1021</v>
+        <v>959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="74" t="s">
-        <v>1022</v>
+        <v>960</v>
       </c>
       <c r="B14" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>1023</v>
+        <v>961</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>1024</v>
+        <v>962</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="74" t="s">
-        <v>1025</v>
+        <v>963</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>143</v>
@@ -11829,7 +10999,7 @@
     </row>
     <row r="16">
       <c r="A16" s="74" t="s">
-        <v>998</v>
+        <v>936</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>148</v>
@@ -11843,16 +11013,16 @@
     </row>
     <row r="17">
       <c r="A17" s="74" t="s">
-        <v>1026</v>
+        <v>964</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>1027</v>
+        <v>965</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>1028</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -11884,7 +11054,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>1001</v>
+        <v>939</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11893,12 +11063,12 @@
         <v>59</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>1029</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>1003</v>
+        <v>941</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>54</v>
@@ -11907,12 +11077,12 @@
         <v>55</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>1004</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>1005</v>
+        <v>943</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>54</v>
@@ -11921,12 +11091,12 @@
         <v>55</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>1006</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>1007</v>
+        <v>945</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>116</v>
@@ -11940,21 +11110,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>1008</v>
+        <v>946</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>1009</v>
+        <v>947</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>1010</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>1011</v>
+        <v>949</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>54</v>
@@ -11963,12 +11133,12 @@
         <v>55</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>1012</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>1013</v>
+        <v>951</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>54</v>
@@ -11977,12 +11147,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>1014</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>1015</v>
+        <v>953</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>116</v>
@@ -11996,21 +11166,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>1016</v>
+        <v>954</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>1009</v>
+        <v>947</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>1017</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>793</v>
+        <v>731</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>143</v>
@@ -12024,7 +11194,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>1030</v>
+        <v>968</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>148</v>
@@ -12038,63 +11208,63 @@
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>1031</v>
+        <v>969</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>1032</v>
+        <v>970</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>1033</v>
+        <v>971</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>1034</v>
+        <v>972</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>1035</v>
+        <v>973</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>1036</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>1037</v>
+        <v>975</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>1032</v>
+        <v>970</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>1038</v>
+        <v>976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>1039</v>
+        <v>977</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>1035</v>
+        <v>973</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>1040</v>
+        <v>978</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>1041</v>
+        <v>979</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>148</v>
@@ -12108,72 +11278,72 @@
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>1042</v>
+        <v>980</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>1032</v>
+        <v>970</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>1043</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>1044</v>
+        <v>982</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>1032</v>
+        <v>970</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>1045</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
-        <v>1046</v>
+        <v>984</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>1032</v>
+        <v>970</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>1047</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>1048</v>
+        <v>986</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>1032</v>
+        <v>970</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>1049</v>
+        <v>987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="76" t="s">
-        <v>1050</v>
+        <v>988</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>1051</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -12205,7 +11375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>1052</v>
+        <v>990</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>143</v>
@@ -12219,7 +11389,7 @@
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>928</v>
+        <v>866</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>5</v>
@@ -12228,26 +11398,26 @@
         <v>94</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>929</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>930</v>
+        <v>868</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>833</v>
+        <v>771</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>931</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>932</v>
+        <v>870</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>5</v>
@@ -12256,54 +11426,54 @@
         <v>94</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>933</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>934</v>
+        <v>872</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>833</v>
+        <v>771</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>935</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>964</v>
+        <v>902</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>1053</v>
+        <v>991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>1054</v>
+        <v>992</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>964</v>
+        <v>902</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>1055</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>1056</v>
+        <v>994</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>54</v>
@@ -12312,26 +11482,26 @@
         <v>55</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>1057</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>1058</v>
+        <v>996</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>1059</v>
+        <v>997</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>1060</v>
+        <v>998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>1061</v>
+        <v>999</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>5</v>
@@ -12340,26 +11510,26 @@
         <v>15</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>1062</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1018</v>
+        <v>956</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1063</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1020</v>
+        <v>958</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
@@ -12368,12 +11538,12 @@
         <v>59</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1021</v>
+        <v>959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1005</v>
+        <v>943</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>54</v>
@@ -12382,12 +11552,12 @@
         <v>55</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1006</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1007</v>
+        <v>945</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>116</v>
@@ -12401,21 +11571,21 @@
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1008</v>
+        <v>946</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1009</v>
+        <v>947</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1010</v>
+        <v>948</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1003</v>
+        <v>941</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>54</v>
@@ -12424,12 +11594,12 @@
         <v>55</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1004</v>
+        <v>942</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1011</v>
+        <v>949</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>54</v>
@@ -12438,12 +11608,12 @@
         <v>55</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1012</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1013</v>
+        <v>951</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>54</v>
@@ -12452,12 +11622,12 @@
         <v>55</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1014</v>
+        <v>952</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1015</v>
+        <v>953</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>116</v>
@@ -12471,35 +11641,35 @@
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1016</v>
+        <v>954</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1009</v>
+        <v>947</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1017</v>
+        <v>955</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1022</v>
+        <v>960</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1064</v>
+        <v>1002</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1065</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1066</v>
+        <v>1004</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>143</v>
@@ -12540,7 +11710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -12549,12 +11719,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -12563,12 +11733,12 @@
         <v>170</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -12577,40 +11747,40 @@
         <v>170</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -12619,12 +11789,12 @@
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -12633,40 +11803,40 @@
         <v>67</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -12675,21 +11845,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -12721,7 +11891,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1067</v>
+        <v>1005</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>5</v>
@@ -12730,12 +11900,12 @@
         <v>59</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>1068</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>1069</v>
+        <v>1007</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>116</v>
@@ -12749,7 +11919,7 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>1070</v>
+        <v>1008</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>116</v>
@@ -12763,7 +11933,7 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>1071</v>
+        <v>1009</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12772,35 +11942,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>1072</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>1073</v>
+        <v>1011</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>1074</v>
+        <v>1012</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>1075</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>1076</v>
+        <v>1014</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>1077</v>
+        <v>1015</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1078</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -12832,7 +12002,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>148</v>
@@ -12846,16 +12016,16 @@
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1079</v>
+        <v>1017</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>1080</v>
+        <v>1018</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>1081</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -12901,21 +12071,21 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1082</v>
+        <v>1020</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1083</v>
+        <v>1021</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1084</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="84" t="s">
-        <v>1085</v>
+        <v>1023</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>5</v>
@@ -12924,7 +12094,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1086</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -12945,7 +12115,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>1087</v>
+        <v>1025</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -12970,30 +12140,30 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1088</v>
+        <v>1026</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1089</v>
+        <v>1027</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1090</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>1091</v>
+        <v>1029</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1092</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -13006,7 +12176,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13014,7 +12184,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>148</v>
@@ -13028,10 +12198,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -13056,30 +12226,44 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -13121,15 +12305,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -13138,35 +12322,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -13187,7 +12371,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -13212,35 +12396,35 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -13249,26 +12433,26 @@
         <v>59</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -13277,26 +12461,26 @@
         <v>35</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -13305,12 +12489,12 @@
         <v>81</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -13319,26 +12503,26 @@
         <v>59</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
@@ -13347,12 +12531,12 @@
         <v>81</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -13361,15 +12545,15 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>59</v>
@@ -13380,10 +12564,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>59</v>
@@ -13394,7 +12578,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -13403,7 +12587,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -13427,7 +12611,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -13452,72 +12636,72 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -13552,119 +12736,119 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>5</v>
@@ -13673,7 +12857,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="1033">
   <si>
     <t>Campo</t>
   </si>
@@ -936,7 +936,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@559d9517</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@1000303a</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -2209,6 +2209,15 @@
   </si>
   <si>
     <t>decretoIntimazione</t>
+  </si>
+  <si>
+    <t>genitoreConCittadinanza</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>Genitore che ha avuto cittadinanza</t>
   </si>
   <si>
     <t>dataUltimoLuogo</t>
@@ -7579,7 +7588,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7779,6 +7788,20 @@
       </c>
       <c r="D14" s="50" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>719</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -7842,7 +7865,7 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
@@ -7851,12 +7874,12 @@
         <v>631</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -7865,12 +7888,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>61</v>
@@ -7884,7 +7907,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>145</v>
@@ -7957,21 +7980,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>118</v>
@@ -8044,7 +8067,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>57</v>
@@ -8053,12 +8076,12 @@
         <v>58</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>145</v>
@@ -8072,7 +8095,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>150</v>
@@ -8086,7 +8109,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8095,7 +8118,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -8159,7 +8182,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8168,26 +8191,26 @@
         <v>62</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>118</v>
@@ -8707,7 +8730,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -8716,12 +8739,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -8730,12 +8753,12 @@
         <v>67</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -8744,12 +8767,12 @@
         <v>70</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -8758,12 +8781,12 @@
         <v>70</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
@@ -8772,12 +8795,12 @@
         <v>257</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
@@ -8786,12 +8809,12 @@
         <v>260</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
@@ -8800,12 +8823,12 @@
         <v>408</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
@@ -8814,21 +8837,21 @@
         <v>455</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -8860,7 +8883,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>61</v>
@@ -8874,7 +8897,7 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -8883,12 +8906,12 @@
         <v>631</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
@@ -8897,12 +8920,12 @@
         <v>358</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -8911,12 +8934,12 @@
         <v>38</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
@@ -8925,12 +8948,12 @@
         <v>477</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
@@ -8939,12 +8962,12 @@
         <v>490</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
@@ -8953,12 +8976,12 @@
         <v>602</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>5</v>
@@ -8967,26 +8990,26 @@
         <v>27</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
@@ -8995,40 +9018,40 @@
         <v>27</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>118</v>
@@ -9042,7 +9065,7 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>118</v>
@@ -9056,7 +9079,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>118</v>
@@ -9070,7 +9093,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>118</v>
@@ -9084,7 +9107,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>5</v>
@@ -9093,12 +9116,12 @@
         <v>15</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>118</v>
@@ -9112,7 +9135,7 @@
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>57</v>
@@ -9121,15 +9144,15 @@
         <v>58</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>62</v>
@@ -9140,10 +9163,10 @@
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>62</v>
@@ -9154,7 +9177,7 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>57</v>
@@ -9163,12 +9186,12 @@
         <v>58</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>57</v>
@@ -9177,12 +9200,12 @@
         <v>58</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>150</v>
@@ -9196,7 +9219,7 @@
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>57</v>
@@ -9205,12 +9228,12 @@
         <v>58</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>150</v>
@@ -9224,7 +9247,7 @@
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>57</v>
@@ -9233,12 +9256,12 @@
         <v>58</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>150</v>
@@ -9252,7 +9275,7 @@
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>5</v>
@@ -9261,12 +9284,12 @@
         <v>15</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>5</v>
@@ -9275,12 +9298,12 @@
         <v>27</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>57</v>
@@ -9289,12 +9312,12 @@
         <v>293</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>150</v>
@@ -9308,7 +9331,7 @@
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>150</v>
@@ -9322,7 +9345,7 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>150</v>
@@ -9336,10 +9359,10 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>62</v>
@@ -9350,7 +9373,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>145</v>
@@ -9364,7 +9387,7 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>145</v>
@@ -9378,7 +9401,7 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>57</v>
@@ -9387,26 +9410,26 @@
         <v>293</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>57</v>
@@ -9415,40 +9438,40 @@
         <v>293</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
@@ -9457,26 +9480,26 @@
         <v>249</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
@@ -9485,40 +9508,40 @@
         <v>254</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
@@ -9527,12 +9550,12 @@
         <v>62</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>57</v>
@@ -9541,12 +9564,12 @@
         <v>293</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>5</v>
@@ -9555,12 +9578,12 @@
         <v>15</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>110</v>
@@ -9569,26 +9592,26 @@
         <v>62</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>62</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>147</v>
@@ -9602,21 +9625,21 @@
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>57</v>
@@ -9625,12 +9648,12 @@
         <v>58</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>5</v>
@@ -9639,15 +9662,15 @@
         <v>15</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>62</v>
@@ -9658,10 +9681,10 @@
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>62</v>
@@ -9699,7 +9722,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>61</v>
@@ -9713,7 +9736,7 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
@@ -9722,12 +9745,12 @@
         <v>631</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
@@ -9736,12 +9759,12 @@
         <v>358</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -9750,12 +9773,12 @@
         <v>38</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
@@ -9764,12 +9787,12 @@
         <v>477</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>5</v>
@@ -9778,12 +9801,12 @@
         <v>490</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
@@ -9792,15 +9815,15 @@
         <v>602</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>62</v>
@@ -9811,10 +9834,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>62</v>
@@ -9825,7 +9848,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -9834,26 +9857,26 @@
         <v>27</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -9862,40 +9885,40 @@
         <v>27</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>118</v>
@@ -9909,7 +9932,7 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>118</v>
@@ -9923,7 +9946,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>118</v>
@@ -9937,7 +9960,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>118</v>
@@ -9951,7 +9974,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>5</v>
@@ -9960,12 +9983,12 @@
         <v>15</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>118</v>
@@ -9979,7 +10002,7 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>145</v>
@@ -9993,7 +10016,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>145</v>
@@ -10007,7 +10030,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>57</v>
@@ -10016,12 +10039,12 @@
         <v>58</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>150</v>
@@ -10035,7 +10058,7 @@
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>57</v>
@@ -10044,12 +10067,12 @@
         <v>58</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>150</v>
@@ -10063,7 +10086,7 @@
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>5</v>
@@ -10072,12 +10095,12 @@
         <v>15</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>5</v>
@@ -10086,12 +10109,12 @@
         <v>27</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>150</v>
@@ -10105,7 +10128,7 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>150</v>
@@ -10119,10 +10142,10 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>62</v>
@@ -10133,7 +10156,7 @@
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>57</v>
@@ -10142,26 +10165,26 @@
         <v>293</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>57</v>
@@ -10170,110 +10193,110 @@
         <v>293</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B43" s="64" t="s">
         <v>5</v>
@@ -10282,15 +10305,15 @@
         <v>15</v>
       </c>
       <c r="D43" s="64" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>62</v>
@@ -10301,10 +10324,10 @@
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>62</v>
@@ -10342,35 +10365,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -10379,35 +10402,35 @@
         <v>652</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -10439,7 +10462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -10448,12 +10471,12 @@
         <v>70</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10462,12 +10485,12 @@
         <v>73</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -10476,12 +10499,12 @@
         <v>64</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10490,35 +10513,35 @@
         <v>67</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -10550,7 +10573,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -10559,12 +10582,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>57</v>
@@ -10573,12 +10596,12 @@
         <v>58</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
@@ -10587,12 +10610,12 @@
         <v>602</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
@@ -10601,12 +10624,12 @@
         <v>490</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
@@ -10615,40 +10638,40 @@
         <v>249</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B9" s="70" t="s">
         <v>5</v>
@@ -10657,12 +10680,12 @@
         <v>27</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="70" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>5</v>
@@ -10671,12 +10694,12 @@
         <v>27</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="70" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>118</v>
@@ -10690,7 +10713,7 @@
     </row>
     <row r="12">
       <c r="A12" s="70" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>150</v>
@@ -10731,7 +10754,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>145</v>
@@ -10745,7 +10768,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>150</v>
@@ -10759,16 +10782,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -10800,7 +10823,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -10809,12 +10832,12 @@
         <v>62</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>57</v>
@@ -10823,12 +10846,12 @@
         <v>58</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>57</v>
@@ -10837,12 +10860,12 @@
         <v>58</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="74" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>118</v>
@@ -10856,21 +10879,21 @@
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B7" s="74" t="s">
         <v>57</v>
@@ -10879,12 +10902,12 @@
         <v>58</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="74" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>57</v>
@@ -10893,12 +10916,12 @@
         <v>58</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="74" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>118</v>
@@ -10912,21 +10935,21 @@
     </row>
     <row r="10">
       <c r="A10" s="74" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="74" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>145</v>
@@ -10940,7 +10963,7 @@
     </row>
     <row r="12">
       <c r="A12" s="74" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>57</v>
@@ -10949,12 +10972,12 @@
         <v>293</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="74" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B13" s="74" t="s">
         <v>5</v>
@@ -10963,26 +10986,26 @@
         <v>62</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="74" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B14" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="74" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>145</v>
@@ -10996,7 +11019,7 @@
     </row>
     <row r="16">
       <c r="A16" s="74" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>150</v>
@@ -11010,16 +11033,16 @@
     </row>
     <row r="17">
       <c r="A17" s="74" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -11051,7 +11074,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11060,12 +11083,12 @@
         <v>62</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>57</v>
@@ -11074,12 +11097,12 @@
         <v>58</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>57</v>
@@ -11088,12 +11111,12 @@
         <v>58</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>118</v>
@@ -11107,21 +11130,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>57</v>
@@ -11130,12 +11153,12 @@
         <v>58</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>57</v>
@@ -11144,12 +11167,12 @@
         <v>58</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>118</v>
@@ -11163,21 +11186,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>145</v>
@@ -11191,7 +11214,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>150</v>
@@ -11205,63 +11228,63 @@
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>150</v>
@@ -11275,63 +11298,63 @@
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="76" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>5</v>
@@ -11340,7 +11363,7 @@
         <v>567</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -11372,7 +11395,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>145</v>
@@ -11386,7 +11409,7 @@
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>5</v>
@@ -11395,26 +11418,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>5</v>
@@ -11423,21 +11446,21 @@
         <v>27</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7">
@@ -11448,29 +11471,29 @@
         <v>5</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>57</v>
@@ -11479,26 +11502,26 @@
         <v>58</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>5</v>
@@ -11507,12 +11530,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>57</v>
@@ -11521,12 +11544,12 @@
         <v>293</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
@@ -11535,12 +11558,12 @@
         <v>62</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>57</v>
@@ -11549,12 +11572,12 @@
         <v>58</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>118</v>
@@ -11568,21 +11591,21 @@
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>57</v>
@@ -11591,12 +11614,12 @@
         <v>58</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>57</v>
@@ -11605,12 +11628,12 @@
         <v>58</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>57</v>
@@ -11619,12 +11642,12 @@
         <v>58</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>118</v>
@@ -11638,35 +11661,35 @@
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>145</v>
@@ -11888,7 +11911,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>5</v>
@@ -11897,12 +11920,12 @@
         <v>62</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>118</v>
@@ -11916,7 +11939,7 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>118</v>
@@ -11930,7 +11953,7 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -11939,35 +11962,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -12013,16 +12036,16 @@
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -12068,21 +12091,21 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="84" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>5</v>
@@ -12091,7 +12114,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -12112,7 +12135,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
@@ -12137,16 +12160,16 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4">
@@ -12157,10 +12180,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1030">
   <si>
     <t>Campo</t>
   </si>
@@ -936,7 +936,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@1000303a</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@5e9c6d8a</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -2209,15 +2209,6 @@
   </si>
   <si>
     <t>decretoIntimazione</t>
-  </si>
-  <si>
-    <t>genitoreConCittadinanza</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>Genitore che ha avuto cittadinanza</t>
   </si>
   <si>
     <t>dataUltimoLuogo</t>
@@ -7588,7 +7579,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7788,20 +7779,6 @@
       </c>
       <c r="D14" s="50" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="50" t="s">
-        <v>718</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>719</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -7865,7 +7842,7 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
@@ -7874,12 +7851,12 @@
         <v>631</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -7888,12 +7865,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>61</v>
@@ -7907,7 +7884,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>145</v>
@@ -7980,21 +7957,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>118</v>
@@ -8067,7 +8044,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>57</v>
@@ -8076,12 +8053,12 @@
         <v>58</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>145</v>
@@ -8095,7 +8072,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>150</v>
@@ -8109,7 +8086,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8118,7 +8095,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -8182,7 +8159,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8191,26 +8168,26 @@
         <v>62</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>118</v>
@@ -8730,7 +8707,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -8739,12 +8716,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -8753,12 +8730,12 @@
         <v>67</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -8767,12 +8744,12 @@
         <v>70</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -8781,12 +8758,12 @@
         <v>70</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
@@ -8795,12 +8772,12 @@
         <v>257</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
@@ -8809,12 +8786,12 @@
         <v>260</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
@@ -8823,12 +8800,12 @@
         <v>408</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
@@ -8837,21 +8814,21 @@
         <v>455</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -8883,7 +8860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>61</v>
@@ -8897,7 +8874,7 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -8906,12 +8883,12 @@
         <v>631</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
@@ -8920,12 +8897,12 @@
         <v>358</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -8934,12 +8911,12 @@
         <v>38</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
@@ -8948,12 +8925,12 @@
         <v>477</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
@@ -8962,12 +8939,12 @@
         <v>490</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
@@ -8976,12 +8953,12 @@
         <v>602</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>5</v>
@@ -8990,26 +8967,26 @@
         <v>27</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
@@ -9018,40 +8995,40 @@
         <v>27</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>118</v>
@@ -9065,7 +9042,7 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>118</v>
@@ -9079,7 +9056,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>118</v>
@@ -9093,7 +9070,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>118</v>
@@ -9107,7 +9084,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>5</v>
@@ -9116,12 +9093,12 @@
         <v>15</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>118</v>
@@ -9135,7 +9112,7 @@
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>57</v>
@@ -9144,15 +9121,15 @@
         <v>58</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>62</v>
@@ -9163,10 +9140,10 @@
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>62</v>
@@ -9177,7 +9154,7 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>57</v>
@@ -9186,12 +9163,12 @@
         <v>58</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>57</v>
@@ -9200,12 +9177,12 @@
         <v>58</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>150</v>
@@ -9219,7 +9196,7 @@
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>57</v>
@@ -9228,12 +9205,12 @@
         <v>58</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>150</v>
@@ -9247,7 +9224,7 @@
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>57</v>
@@ -9256,12 +9233,12 @@
         <v>58</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>150</v>
@@ -9275,7 +9252,7 @@
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>5</v>
@@ -9284,12 +9261,12 @@
         <v>15</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>5</v>
@@ -9298,12 +9275,12 @@
         <v>27</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>57</v>
@@ -9312,12 +9289,12 @@
         <v>293</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>150</v>
@@ -9331,7 +9308,7 @@
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>150</v>
@@ -9345,7 +9322,7 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>150</v>
@@ -9359,10 +9336,10 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>62</v>
@@ -9373,7 +9350,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>145</v>
@@ -9387,7 +9364,7 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>145</v>
@@ -9401,7 +9378,7 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>57</v>
@@ -9410,26 +9387,26 @@
         <v>293</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>57</v>
@@ -9438,40 +9415,40 @@
         <v>293</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
@@ -9480,26 +9457,26 @@
         <v>249</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
@@ -9508,40 +9485,40 @@
         <v>254</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
@@ -9550,12 +9527,12 @@
         <v>62</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>57</v>
@@ -9564,12 +9541,12 @@
         <v>293</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>5</v>
@@ -9578,12 +9555,12 @@
         <v>15</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>110</v>
@@ -9592,26 +9569,26 @@
         <v>62</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>62</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>147</v>
@@ -9625,21 +9602,21 @@
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>57</v>
@@ -9648,12 +9625,12 @@
         <v>58</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>5</v>
@@ -9662,15 +9639,15 @@
         <v>15</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>62</v>
@@ -9681,10 +9658,10 @@
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>62</v>
@@ -9722,7 +9699,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>61</v>
@@ -9736,7 +9713,7 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
@@ -9745,12 +9722,12 @@
         <v>631</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
@@ -9759,12 +9736,12 @@
         <v>358</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -9773,12 +9750,12 @@
         <v>38</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
@@ -9787,12 +9764,12 @@
         <v>477</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>5</v>
@@ -9801,12 +9778,12 @@
         <v>490</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
@@ -9815,15 +9792,15 @@
         <v>602</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>62</v>
@@ -9834,10 +9811,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>62</v>
@@ -9848,7 +9825,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -9857,26 +9834,26 @@
         <v>27</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -9885,40 +9862,40 @@
         <v>27</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>118</v>
@@ -9932,7 +9909,7 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>118</v>
@@ -9946,7 +9923,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>118</v>
@@ -9960,7 +9937,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>118</v>
@@ -9974,7 +9951,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>5</v>
@@ -9983,12 +9960,12 @@
         <v>15</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>118</v>
@@ -10002,7 +9979,7 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>145</v>
@@ -10016,7 +9993,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>145</v>
@@ -10030,7 +10007,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>57</v>
@@ -10039,12 +10016,12 @@
         <v>58</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>150</v>
@@ -10058,7 +10035,7 @@
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>57</v>
@@ -10067,12 +10044,12 @@
         <v>58</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>150</v>
@@ -10086,7 +10063,7 @@
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>5</v>
@@ -10095,12 +10072,12 @@
         <v>15</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>5</v>
@@ -10109,12 +10086,12 @@
         <v>27</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>150</v>
@@ -10128,7 +10105,7 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>150</v>
@@ -10142,10 +10119,10 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>62</v>
@@ -10156,7 +10133,7 @@
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>57</v>
@@ -10165,26 +10142,26 @@
         <v>293</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>57</v>
@@ -10193,110 +10170,110 @@
         <v>293</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B43" s="64" t="s">
         <v>5</v>
@@ -10305,15 +10282,15 @@
         <v>15</v>
       </c>
       <c r="D43" s="64" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>62</v>
@@ -10324,10 +10301,10 @@
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>62</v>
@@ -10365,35 +10342,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -10402,35 +10379,35 @@
         <v>652</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -10462,7 +10439,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -10471,12 +10448,12 @@
         <v>70</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10485,12 +10462,12 @@
         <v>73</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -10499,12 +10476,12 @@
         <v>64</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10513,35 +10490,35 @@
         <v>67</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -10573,7 +10550,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -10582,12 +10559,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>57</v>
@@ -10596,12 +10573,12 @@
         <v>58</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
@@ -10610,12 +10587,12 @@
         <v>602</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
@@ -10624,12 +10601,12 @@
         <v>490</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
@@ -10638,40 +10615,40 @@
         <v>249</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B9" s="70" t="s">
         <v>5</v>
@@ -10680,12 +10657,12 @@
         <v>27</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="70" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>5</v>
@@ -10694,12 +10671,12 @@
         <v>27</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="70" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B11" s="70" t="s">
         <v>118</v>
@@ -10713,7 +10690,7 @@
     </row>
     <row r="12">
       <c r="A12" s="70" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B12" s="70" t="s">
         <v>150</v>
@@ -10754,7 +10731,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>145</v>
@@ -10768,7 +10745,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>150</v>
@@ -10782,16 +10759,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -10823,7 +10800,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -10832,12 +10809,12 @@
         <v>62</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>57</v>
@@ -10846,12 +10823,12 @@
         <v>58</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>57</v>
@@ -10860,12 +10837,12 @@
         <v>58</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="74" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>118</v>
@@ -10879,21 +10856,21 @@
     </row>
     <row r="6">
       <c r="A6" s="74" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="74" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B7" s="74" t="s">
         <v>57</v>
@@ -10902,12 +10879,12 @@
         <v>58</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="74" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B8" s="74" t="s">
         <v>57</v>
@@ -10916,12 +10893,12 @@
         <v>58</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="74" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>118</v>
@@ -10935,21 +10912,21 @@
     </row>
     <row r="10">
       <c r="A10" s="74" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="74" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B11" s="74" t="s">
         <v>145</v>
@@ -10963,7 +10940,7 @@
     </row>
     <row r="12">
       <c r="A12" s="74" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>57</v>
@@ -10972,12 +10949,12 @@
         <v>293</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="74" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B13" s="74" t="s">
         <v>5</v>
@@ -10986,26 +10963,26 @@
         <v>62</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="74" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B14" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="74" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>145</v>
@@ -11019,7 +10996,7 @@
     </row>
     <row r="16">
       <c r="A16" s="74" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>150</v>
@@ -11033,16 +11010,16 @@
     </row>
     <row r="17">
       <c r="A17" s="74" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -11074,7 +11051,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11083,12 +11060,12 @@
         <v>62</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>57</v>
@@ -11097,12 +11074,12 @@
         <v>58</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>57</v>
@@ -11111,12 +11088,12 @@
         <v>58</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>118</v>
@@ -11130,21 +11107,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>57</v>
@@ -11153,12 +11130,12 @@
         <v>58</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>57</v>
@@ -11167,12 +11144,12 @@
         <v>58</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>118</v>
@@ -11186,21 +11163,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>145</v>
@@ -11214,7 +11191,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>150</v>
@@ -11228,63 +11205,63 @@
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>150</v>
@@ -11298,63 +11275,63 @@
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="76" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>5</v>
@@ -11363,7 +11340,7 @@
         <v>567</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -11395,7 +11372,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>145</v>
@@ -11409,7 +11386,7 @@
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>5</v>
@@ -11418,26 +11395,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>5</v>
@@ -11446,21 +11423,21 @@
         <v>27</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7">
@@ -11471,29 +11448,29 @@
         <v>5</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>57</v>
@@ -11502,26 +11479,26 @@
         <v>58</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>5</v>
@@ -11530,12 +11507,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>57</v>
@@ -11544,12 +11521,12 @@
         <v>293</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
@@ -11558,12 +11535,12 @@
         <v>62</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>57</v>
@@ -11572,12 +11549,12 @@
         <v>58</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>118</v>
@@ -11591,21 +11568,21 @@
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>57</v>
@@ -11614,12 +11591,12 @@
         <v>58</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>57</v>
@@ -11628,12 +11605,12 @@
         <v>58</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>57</v>
@@ -11642,12 +11619,12 @@
         <v>58</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>118</v>
@@ -11661,35 +11638,35 @@
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>145</v>
@@ -11911,7 +11888,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>5</v>
@@ -11920,12 +11897,12 @@
         <v>62</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>118</v>
@@ -11939,7 +11916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>118</v>
@@ -11953,7 +11930,7 @@
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -11962,35 +11939,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -12036,16 +12013,16 @@
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -12091,21 +12068,21 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="84" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>5</v>
@@ -12114,7 +12091,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -12135,7 +12112,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
@@ -12160,16 +12137,16 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4">
@@ -12180,10 +12157,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1055">
   <si>
     <t>Campo</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>#/components/schemas/ModelDatiAnnotazione</t>
+  </si>
+  <si>
+    <t>Dati delle annotazioni contestuali</t>
   </si>
   <si>
     <t>datiEventoMorte</t>
@@ -817,7 +820,7 @@
     <t>descrizione del sesso</t>
   </si>
   <si>
-    <t>datanascita</t>
+    <t>dataNascita</t>
   </si>
   <si>
     <t>2020-01-01</t>
@@ -1774,625 +1777,427 @@
     <t>Indirizzo di posta elettronica certificata</t>
   </si>
   <si>
-    <t>classe che raccoglie i dati specifici delle annotazioni</t>
-  </si>
-  <si>
-    <t>sposo</t>
-  </si>
-  <si>
-    <t>sposa</t>
-  </si>
-  <si>
-    <t>coniuge1</t>
-  </si>
-  <si>
-    <t>coniuge2</t>
-  </si>
-  <si>
-    <t>soggetto</t>
-  </si>
-  <si>
-    <t>genitore</t>
-  </si>
-  <si>
-    <t>affiliante</t>
-  </si>
-  <si>
-    <t>impugnatore</t>
-  </si>
-  <si>
-    <t>figlio</t>
-  </si>
-  <si>
-    <t>attoAnnotazione</t>
-  </si>
-  <si>
-    <t>dataAnnotazionePrecedente</t>
-  </si>
-  <si>
-    <t>Data annotazione precedente</t>
-  </si>
-  <si>
-    <t>comuneAnnotazionePrecedente</t>
-  </si>
-  <si>
-    <t>Comune annotazione precedente</t>
-  </si>
-  <si>
-    <t>dataAnnotazioneSeparazione</t>
-  </si>
-  <si>
-    <t>Data annotazione separazione</t>
-  </si>
-  <si>
-    <t>enteDichiaranteEsistenza</t>
-  </si>
-  <si>
-    <t>enteDichiaranteMortePresunta</t>
-  </si>
-  <si>
-    <t>enteDichiaranteOmologazione</t>
-  </si>
-  <si>
-    <t>enteDichiaranteAutorizzazione</t>
-  </si>
-  <si>
-    <t>enteDichiaranteSentenzaItaliana</t>
-  </si>
-  <si>
-    <t>enteDichiaranteSentenzaEstera</t>
-  </si>
-  <si>
-    <t>dataNegoziazioneAssistita</t>
-  </si>
-  <si>
-    <t>Data di registrazione Negoziazione Assistita</t>
-  </si>
-  <si>
-    <t>dichiarazioneRiconoscimento</t>
-  </si>
-  <si>
-    <t>specifica se è atto pubblico o testamento</t>
+    <t>classe che raccoglie i dati per le annotazioni contestuali</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>Contiene il testo completo dell’annotazione da presentare come annotazione a margine dell’atto</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>tipo di annotazione contestuale registrata</t>
+  </si>
+  <si>
+    <t>classe base per le trascrizioni. Non è mai usata da sola</t>
+  </si>
+  <si>
+    <t>tipoDichiarazione</t>
+  </si>
+  <si>
+    <t>Tipo dichiarazione (decodifica ANSC_38)</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>In caso di tipo dichiarazione comunicazione scritta, è la data della comunicazione</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Testo libero</t>
+  </si>
+  <si>
+    <t>Testo libero per la trascrizione</t>
+  </si>
+  <si>
+    <t>autoritaMittente</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelAttoEstero</t>
+  </si>
+  <si>
+    <t>attoEstero</t>
+  </si>
+  <si>
+    <t>enteEstero</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelTrascrizione</t>
+  </si>
+  <si>
+    <t>tipoRichiedente</t>
+  </si>
+  <si>
+    <t>Id del tipo richiedente (decodica ANSC_64)</t>
+  </si>
+  <si>
+    <t>tipoLuogoNascita</t>
+  </si>
+  <si>
+    <t>Id del luogo di nascita (decodica ANSC_41)</t>
+  </si>
+  <si>
+    <t>specificaLuogoNascita</t>
+  </si>
+  <si>
+    <t>Funivia</t>
+  </si>
+  <si>
+    <t>Se tipoLuogoNascita è Altro qui è indicata la denominazione</t>
+  </si>
+  <si>
+    <t>descrizioneTipoRichiedente</t>
+  </si>
+  <si>
+    <t>Descrizione del tipo richiedente</t>
   </si>
   <si>
     <t>tipoRiconoscimento</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SI/Figlio maggiorenne riconosciuto dal padre e già riconosciuto dalla madre NO/Altri casi</t>
-  </si>
-  <si>
-    <t>Tipo scelta cognome  (decodifica ANSC_39)</t>
-  </si>
-  <si>
-    <t>presenzaOmologazione</t>
-  </si>
-  <si>
-    <t>SI/Presente omologazione  NO/Non Presente omologazione</t>
-  </si>
-  <si>
-    <t>mutamentoConvenzioni</t>
-  </si>
-  <si>
-    <t>SI/Mutamento convenzioni stipulate prima della entrata in vigore della legge 10 aprile 1981, n. 142  NO/Non Presente Mutazione</t>
-  </si>
-  <si>
-    <t>sentenzaSeparazione</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_53)</t>
-  </si>
-  <si>
-    <t>tipoCancellazione</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_68)</t>
-  </si>
-  <si>
-    <t>statoTutela</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_69)</t>
-  </si>
-  <si>
-    <t>dataTutela</t>
-  </si>
-  <si>
-    <t>Data apertura/chiusura Tutela</t>
-  </si>
-  <si>
-    <t>tipoNomina</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_70)</t>
-  </si>
-  <si>
-    <t>tipoGiudizio</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_71)</t>
-  </si>
-  <si>
-    <t>cognomeOriginario</t>
-  </si>
-  <si>
-    <t>Cognome originariamente attribuito</t>
-  </si>
-  <si>
-    <t>autorizzazioneConiuge</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_72)</t>
-  </si>
-  <si>
-    <t>dataUnioneCivile</t>
-  </si>
-  <si>
-    <t>Data unione Civile</t>
+    <t>id del tipo riconoscimento (decodifica ANSC_42)</t>
+  </si>
+  <si>
+    <t>figlioDiIgnoti</t>
+  </si>
+  <si>
+    <t>Indica se si tratta di trascrizione per omessa dichiarazione di figlio di ignoti</t>
+  </si>
+  <si>
+    <t>genitoreMutazioneCognome</t>
+  </si>
+  <si>
+    <t>Genitore che ha mutato cognome (decodifica ANSC_40)</t>
+  </si>
+  <si>
+    <t>provvedimentoCambioCognome</t>
+  </si>
+  <si>
+    <t>Ente che ha ordinato il cambio cognome (1 = Ministero dell'Interno, 2 = Prefettura)</t>
+  </si>
+  <si>
+    <t>prefettura</t>
+  </si>
+  <si>
+    <t>dataProvvidementoCambioCognome</t>
+  </si>
+  <si>
+    <t>2022-02-12</t>
+  </si>
+  <si>
+    <t>Data del provvedimento di cambio cognome</t>
+  </si>
+  <si>
+    <t>tipoMutazioneCognome</t>
+  </si>
+  <si>
+    <t>Tipo mutazione cognome (decodifica ANSC_76)</t>
+  </si>
+  <si>
+    <t>vecchioCognomeGenitore</t>
+  </si>
+  <si>
+    <t>Vecchio cognome del genitore prima della mutazione</t>
+  </si>
+  <si>
+    <t>Tipo scelta cognome (decodifica ANSC_39)</t>
+  </si>
+  <si>
+    <t>Nuovo cognome assunto dall'intestatario</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Nuovo nome assunto dall'intestatario</t>
+  </si>
+  <si>
+    <t>cognomeAggiunto</t>
+  </si>
+  <si>
+    <t>Bianchi</t>
+  </si>
+  <si>
+    <t>Cognome aggiunto assunto dall'intestatario</t>
+  </si>
+  <si>
+    <t>nomeAggiunto</t>
+  </si>
+  <si>
+    <t>Paolo</t>
+  </si>
+  <si>
+    <t>Nome aggiunto assunto dall'intestatario</t>
+  </si>
+  <si>
+    <t>volontaEspressa</t>
+  </si>
+  <si>
+    <t>Testo libero per annotazione formula 147-ter</t>
+  </si>
+  <si>
+    <t>istituto</t>
+  </si>
+  <si>
+    <t>attoCambioCognomeGenitore</t>
+  </si>
+  <si>
+    <t>riconoscimentoPaternoConSentenza</t>
+  </si>
+  <si>
+    <t>Il riconoscimento paterno è avvenuto con sentenza?</t>
+  </si>
+  <si>
+    <t>Un ascendente è un avo in linea diretta</t>
+  </si>
+  <si>
+    <t>gradoDiParentela</t>
+  </si>
+  <si>
+    <t>Grado di parentela dell'ascendente (decodifica ANSC_43)</t>
+  </si>
+  <si>
+    <t>2022-10-30</t>
+  </si>
+  <si>
+    <t>Data di morte ascendente</t>
+  </si>
+  <si>
+    <t>intestatarioApolide</t>
+  </si>
+  <si>
+    <t>L'intestatario è apolide</t>
+  </si>
+  <si>
+    <t>parenteDiretto</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelAscendente</t>
+  </si>
+  <si>
+    <t>indirizzoPostaAutorità</t>
+  </si>
+  <si>
+    <t>Sindaco - Piazza del Municipio 1</t>
+  </si>
+  <si>
+    <t>Indirizzo di posta dell'autorità competente</t>
+  </si>
+  <si>
+    <t>infoResidenzaBiennale</t>
+  </si>
+  <si>
+    <t>Dati liberi relativi alla residenza biennale in Italia</t>
+  </si>
+  <si>
+    <t>dataAcquisizioneCittadinanza</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>Data acquisizione cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>idUlterioreCittadinanza</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Ulteriore cittadinanza di cui il soggetto è in possesso</t>
+  </si>
+  <si>
+    <t>ulterioreCittadinanza</t>
+  </si>
+  <si>
+    <t>Ukraina</t>
+  </si>
+  <si>
+    <t>altraCittadinanzaRiacquistata</t>
+  </si>
+  <si>
+    <t>Altra Cittadinanza Riacuistata</t>
+  </si>
+  <si>
+    <t>tipoImpiego</t>
+  </si>
+  <si>
+    <t>Tipo impiego (decodifica ANSC_44)</t>
+  </si>
+  <si>
+    <t>nazioneImpiego</t>
+  </si>
+  <si>
+    <t>Nazione presso la quale si esercita(va) l'impiego (decodifica ANPR_02)</t>
+  </si>
+  <si>
+    <t>idMotivoPerditaCittadinanza</t>
+  </si>
+  <si>
+    <t>ID del motivo perdita cittadinanza italiana (ANSC_62)</t>
+  </si>
+  <si>
+    <t>motivoPerditaCittadinanza</t>
+  </si>
+  <si>
+    <t>Motivo perdita cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>tempoAssunzione</t>
+  </si>
+  <si>
+    <t>Dice se l'assunzione è già avvenuta oppure avverrà (decodifica ANSC_45)</t>
+  </si>
+  <si>
+    <t>tipoResidenza</t>
+  </si>
+  <si>
+    <t>Tipo di residenza in Italia per richiesta di cittadinanza (decodifica ANSC_57)</t>
+  </si>
+  <si>
+    <t>Forlì</t>
+  </si>
+  <si>
+    <t>Provincia del comune in cui si intende prendere la residenza</t>
+  </si>
+  <si>
+    <t>provinciaResidenza</t>
+  </si>
+  <si>
+    <t>Sigla Provincia del comune in cui si intende prendere la residenza</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>ID Comune in cui si è presa, o si intende prendere, la residenza</t>
+  </si>
+  <si>
+    <t>comuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune in cui si è presa, o si intende prendere, la residenza</t>
+  </si>
+  <si>
+    <t>dataInizioResidenza</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>Data di inizio della residenza in Italia</t>
+  </si>
+  <si>
+    <t>tipoPerditaPerMatrimonio</t>
+  </si>
+  <si>
+    <t>Tipo di matrimonio per perdita cittadinanza (decodifica ANSC_62)</t>
+  </si>
+  <si>
+    <t>riassuntoDichiarazione</t>
+  </si>
+  <si>
+    <t>Testo libero per annotazione 140-bis</t>
+  </si>
+  <si>
+    <t>presenzaInteressato</t>
+  </si>
+  <si>
+    <t>L'interessato è presente o no?</t>
+  </si>
+  <si>
+    <t>delegato</t>
+  </si>
+  <si>
+    <t>estremiDecretoConferimento</t>
+  </si>
+  <si>
+    <t>2671/22</t>
+  </si>
+  <si>
+    <t>Estremi del decreto di conferimento della cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>dataDecretoConferimento</t>
+  </si>
+  <si>
+    <t>Data del decreto di conferimento della cittadinanza</t>
+  </si>
+  <si>
+    <t>dataRegistrazioneDecreto</t>
+  </si>
+  <si>
+    <t>Data di registrazione del decreto presso la corte dei conri</t>
+  </si>
+  <si>
+    <t>dataNotificaDelDecreto</t>
+  </si>
+  <si>
+    <t>Data di notifica del decreto</t>
+  </si>
+  <si>
+    <t>dataGiuramento</t>
+  </si>
+  <si>
+    <t>Data giuramento</t>
+  </si>
+  <si>
+    <t>estremiGiuramento</t>
+  </si>
+  <si>
+    <t>327673/2022</t>
+  </si>
+  <si>
+    <t>Estremi dell'evento di giuramento</t>
+  </si>
+  <si>
+    <t>dataAssunzione</t>
+  </si>
+  <si>
+    <t>Data assunzione Datore di Lavoro</t>
+  </si>
+  <si>
+    <t>datoreEstero</t>
+  </si>
+  <si>
+    <t>Il datore di lavoro è estero</t>
+  </si>
+  <si>
+    <t>nomeDatoreLavoro</t>
+  </si>
+  <si>
+    <t>Comune di Roma</t>
+  </si>
+  <si>
+    <t>Nome del datoredi lavoro</t>
+  </si>
+  <si>
+    <t>tipoEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>Tipo Evento Cittadinanza</t>
   </si>
   <si>
     <t>dataAccertamento</t>
   </si>
   <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
     <t>Data accertamento</t>
-  </si>
-  <si>
-    <t>sessoPrecedente</t>
-  </si>
-  <si>
-    <t>Sesso Precedente</t>
-  </si>
-  <si>
-    <t>nomePrecedente</t>
-  </si>
-  <si>
-    <t>Nome Precedente</t>
-  </si>
-  <si>
-    <t>leggittimazione</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_73)</t>
-  </si>
-  <si>
-    <t>pseudonimo</t>
-  </si>
-  <si>
-    <t>Gianni</t>
-  </si>
-  <si>
-    <t>soggettoDichiarante</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_74)</t>
-  </si>
-  <si>
-    <t>modalitaNome</t>
-  </si>
-  <si>
-    <t>modalità attributi Soggetto</t>
-  </si>
-  <si>
-    <t>dispositivo</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>campo libero</t>
-  </si>
-  <si>
-    <t>dataRicorso</t>
-  </si>
-  <si>
-    <t>tribunalRicorso</t>
-  </si>
-  <si>
-    <t>Tribunale Ricorso</t>
-  </si>
-  <si>
-    <t>esitoRicorso</t>
-  </si>
-  <si>
-    <t>(decodifica ANSC_75)</t>
-  </si>
-  <si>
-    <t>classe base per le trascrizioni. Non è mai usata da sola</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Tipo dichiarazione (decodifica ANSC_38)</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>In caso di tipo dichiarazione comunicazione scritta, è la data della comunicazione</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Testo libero</t>
-  </si>
-  <si>
-    <t>Testo libero per la trascrizione</t>
-  </si>
-  <si>
-    <t>autoritaMittente</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelAttoEstero</t>
-  </si>
-  <si>
-    <t>attoEstero</t>
-  </si>
-  <si>
-    <t>enteEstero</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelTrascrizione</t>
-  </si>
-  <si>
-    <t>tipoRichiedente</t>
-  </si>
-  <si>
-    <t>Id del tipo richiedente (decodica ANSC_64)</t>
-  </si>
-  <si>
-    <t>tipoLuogoNascita</t>
-  </si>
-  <si>
-    <t>Id del luogo di nascita (decodica ANSC_41)</t>
-  </si>
-  <si>
-    <t>specificaLuogoNascita</t>
-  </si>
-  <si>
-    <t>Funivia</t>
-  </si>
-  <si>
-    <t>Se tipoLuogoNascita è Altro qui è indicata la denominazione</t>
-  </si>
-  <si>
-    <t>descrizioneTipoRichiedente</t>
-  </si>
-  <si>
-    <t>Descrizione del tipo richiedente</t>
-  </si>
-  <si>
-    <t>id del tipo riconoscimento (decodifica ANSC_42)</t>
-  </si>
-  <si>
-    <t>figlioDiIgnoti</t>
-  </si>
-  <si>
-    <t>Indica se si tratta di trascrizione per omessa dichiarazione di figlio di ignoti</t>
-  </si>
-  <si>
-    <t>genitoreMutazioneCognome</t>
-  </si>
-  <si>
-    <t>Genitore che ha mutato cognome (decodifica ANSC_40)</t>
-  </si>
-  <si>
-    <t>provvedimentoCambioCognome</t>
-  </si>
-  <si>
-    <t>Ente che ha ordinato il cambio cognome (1 = Ministero dell'Interno, 2 = Prefettura)</t>
-  </si>
-  <si>
-    <t>prefettura</t>
-  </si>
-  <si>
-    <t>dataProvvidementoCambioCognome</t>
-  </si>
-  <si>
-    <t>2022-02-12</t>
-  </si>
-  <si>
-    <t>Data del provvedimento di cambio cognome</t>
-  </si>
-  <si>
-    <t>tipoMutazioneCognome</t>
-  </si>
-  <si>
-    <t>Tipo mutazione cognome (decodifica ANSC_76)</t>
-  </si>
-  <si>
-    <t>vecchioCognomeGenitore</t>
-  </si>
-  <si>
-    <t>Vecchio cognome del genitore prima della mutazione</t>
-  </si>
-  <si>
-    <t>Tipo scelta cognome (decodifica ANSC_39)</t>
-  </si>
-  <si>
-    <t>Nuovo cognome assunto dall'intestatario</t>
-  </si>
-  <si>
-    <t>nuovoNome</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Nuovo nome assunto dall'intestatario</t>
-  </si>
-  <si>
-    <t>cognomeAggiunto</t>
-  </si>
-  <si>
-    <t>Bianchi</t>
-  </si>
-  <si>
-    <t>Cognome aggiunto assunto dall'intestatario</t>
-  </si>
-  <si>
-    <t>nomeAggiunto</t>
-  </si>
-  <si>
-    <t>Paolo</t>
-  </si>
-  <si>
-    <t>Nome aggiunto assunto dall'intestatario</t>
-  </si>
-  <si>
-    <t>volontaEspressa</t>
-  </si>
-  <si>
-    <t>Testo libero per annotazione formula 147-ter</t>
-  </si>
-  <si>
-    <t>istituto</t>
-  </si>
-  <si>
-    <t>attoCambioCognomeGenitore</t>
-  </si>
-  <si>
-    <t>riconoscimentoPaternoConSentenza</t>
-  </si>
-  <si>
-    <t>Il riconoscimento paterno è avvenuto con sentenza?</t>
-  </si>
-  <si>
-    <t>Un ascendente è un avo in linea diretta</t>
-  </si>
-  <si>
-    <t>gradoDiParentela</t>
-  </si>
-  <si>
-    <t>Grado di parentela dell'ascendente (decodifica ANSC_43)</t>
-  </si>
-  <si>
-    <t>2022-10-30</t>
-  </si>
-  <si>
-    <t>Data di morte ascendente</t>
-  </si>
-  <si>
-    <t>intestatarioApolide</t>
-  </si>
-  <si>
-    <t>L'intestatario è apolide</t>
-  </si>
-  <si>
-    <t>parenteDiretto</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelAscendente</t>
-  </si>
-  <si>
-    <t>indirizzoPostaAutorità</t>
-  </si>
-  <si>
-    <t>Sindaco - Piazza del Municipio 1</t>
-  </si>
-  <si>
-    <t>Indirizzo di posta dell'autorità competente</t>
-  </si>
-  <si>
-    <t>infoResidenzaBiennale</t>
-  </si>
-  <si>
-    <t>Dati liberi relativi alla residenza biennale in Italia</t>
-  </si>
-  <si>
-    <t>dataAcquisizioneCittadinanza</t>
-  </si>
-  <si>
-    <t>2022-06-24</t>
-  </si>
-  <si>
-    <t>Data acquisizione cittadinanza italiana</t>
-  </si>
-  <si>
-    <t>idUlterioreCittadinanza</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Ulteriore cittadinanza di cui il soggetto è in possesso</t>
-  </si>
-  <si>
-    <t>ulterioreCittadinanza</t>
-  </si>
-  <si>
-    <t>Ukraina</t>
-  </si>
-  <si>
-    <t>altraCittadinanzaRiacquistata</t>
-  </si>
-  <si>
-    <t>Altra Cittadinanza Riacuistata</t>
-  </si>
-  <si>
-    <t>tipoImpiego</t>
-  </si>
-  <si>
-    <t>Tipo impiego (decodifica ANSC_44)</t>
-  </si>
-  <si>
-    <t>nazioneImpiego</t>
-  </si>
-  <si>
-    <t>Nazione presso la quale si esercita(va) l'impiego (decodifica ANPR_02)</t>
-  </si>
-  <si>
-    <t>idMotivoPerditaCittadinanza</t>
-  </si>
-  <si>
-    <t>ID del motivo perdita cittadinanza italiana (ANSC_62)</t>
-  </si>
-  <si>
-    <t>motivoPerditaCittadinanza</t>
-  </si>
-  <si>
-    <t>Motivo perdita cittadinanza italiana</t>
-  </si>
-  <si>
-    <t>tempoAssunzione</t>
-  </si>
-  <si>
-    <t>Dice se l'assunzione è già avvenuta oppure avverrà (decodifica ANSC_45)</t>
-  </si>
-  <si>
-    <t>tipoResidenza</t>
-  </si>
-  <si>
-    <t>Tipo di residenza in Italia per richiesta di cittadinanza (decodifica ANSC_57)</t>
-  </si>
-  <si>
-    <t>Forlì</t>
-  </si>
-  <si>
-    <t>Provincia del comune in cui si intende prendere la residenza</t>
-  </si>
-  <si>
-    <t>provinciaResidenza</t>
-  </si>
-  <si>
-    <t>Sigla Provincia del comune in cui si intende prendere la residenza</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>ID Comune in cui si è presa, o si intende prendere, la residenza</t>
-  </si>
-  <si>
-    <t>comuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune in cui si è presa, o si intende prendere, la residenza</t>
-  </si>
-  <si>
-    <t>dataInizioResidenza</t>
-  </si>
-  <si>
-    <t>2022-07-14</t>
-  </si>
-  <si>
-    <t>Data di inizio della residenza in Italia</t>
-  </si>
-  <si>
-    <t>tipoPerditaPerMatrimonio</t>
-  </si>
-  <si>
-    <t>Tipo di matrimonio per perdita cittadinanza (decodifica ANSC_62)</t>
-  </si>
-  <si>
-    <t>riassuntoDichiarazione</t>
-  </si>
-  <si>
-    <t>Testo libero per annotazione 140-bis</t>
-  </si>
-  <si>
-    <t>presenzaInteressato</t>
-  </si>
-  <si>
-    <t>L'interessato è presente o no?</t>
-  </si>
-  <si>
-    <t>delegato</t>
-  </si>
-  <si>
-    <t>estremiDecretoConferimento</t>
-  </si>
-  <si>
-    <t>2671/22</t>
-  </si>
-  <si>
-    <t>Estremi del decreto di conferimento della cittadinanza italiana</t>
-  </si>
-  <si>
-    <t>dataDecretoConferimento</t>
-  </si>
-  <si>
-    <t>Data del decreto di conferimento della cittadinanza</t>
-  </si>
-  <si>
-    <t>dataRegistrazioneDecreto</t>
-  </si>
-  <si>
-    <t>Data di registrazione del decreto presso la corte dei conri</t>
-  </si>
-  <si>
-    <t>dataNotificaDelDecreto</t>
-  </si>
-  <si>
-    <t>Data di notifica del decreto</t>
-  </si>
-  <si>
-    <t>dataGiuramento</t>
-  </si>
-  <si>
-    <t>Data giuramento</t>
-  </si>
-  <si>
-    <t>estremiGiuramento</t>
-  </si>
-  <si>
-    <t>327673/2022</t>
-  </si>
-  <si>
-    <t>Estremi dell'evento di giuramento</t>
-  </si>
-  <si>
-    <t>dataAssunzione</t>
-  </si>
-  <si>
-    <t>Data assunzione Datore di Lavoro</t>
-  </si>
-  <si>
-    <t>datoreEstero</t>
-  </si>
-  <si>
-    <t>Il datore di lavoro è estero</t>
-  </si>
-  <si>
-    <t>nomeDatoreLavoro</t>
-  </si>
-  <si>
-    <t>Comune di Roma</t>
-  </si>
-  <si>
-    <t>Nome del datoredi lavoro</t>
-  </si>
-  <si>
-    <t>tipoEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>Tipo Evento Cittadinanza</t>
-  </si>
-  <si>
-    <t>2022-06-23</t>
   </si>
   <si>
     <t>esitoAccertamento</t>
@@ -5119,15 +4924,15 @@
         <v>64</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>64</v>
@@ -5138,10 +4943,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>64</v>
@@ -5152,10 +4957,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>64</v>
@@ -5166,35 +4971,35 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>5</v>
@@ -5203,7 +5008,7 @@
         <v>64</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5235,63 +5040,63 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>5</v>
@@ -5300,35 +5105,35 @@
         <v>64</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5360,21 +5165,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5383,12 +5188,12 @@
         <v>66</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5397,12 +5202,12 @@
         <v>69</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5411,12 +5216,12 @@
         <v>72</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5425,152 +5230,152 @@
         <v>72</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5579,40 +5384,40 @@
         <v>35</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5621,21 +5426,21 @@
         <v>45</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5667,49 +5472,49 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5718,7 +5523,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5750,7 +5555,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5759,12 +5564,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -5773,7 +5578,7 @@
         <v>131</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5814,21 +5619,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4">
@@ -5847,7 +5652,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>157</v>
@@ -5861,7 +5666,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>162</v>
@@ -5875,7 +5680,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>162</v>
@@ -5930,7 +5735,7 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5939,12 +5744,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5953,40 +5758,40 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>157</v>
@@ -6000,21 +5805,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -6023,68 +5828,68 @@
         <v>78</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>59</v>
@@ -6093,26 +5898,26 @@
         <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>122</v>
@@ -6126,7 +5931,7 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>157</v>
@@ -6167,30 +5972,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -6222,21 +6027,21 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>162</v>
@@ -6250,10 +6055,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>64</v>
@@ -6264,7 +6069,7 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>157</v>
@@ -6294,7 +6099,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6319,30 +6124,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -6355,7 +6160,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6366,7 +6171,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6391,674 +6196,30 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>64</v>
+        <v>575</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>64</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>576</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="s">
         <v>578</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="38" t="s">
-        <v>590</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="38" t="s">
-        <v>605</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="38" t="s">
-        <v>615</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="38" t="s">
-        <v>629</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>640</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>640</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>640</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -7116,7 +6277,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
@@ -7130,7 +6291,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
@@ -7144,7 +6305,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -7158,7 +6319,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7">
@@ -7169,15 +6330,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -7186,7 +6347,7 @@
         <v>184</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -7200,7 +6361,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10">
@@ -7242,7 +6403,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13">
@@ -7253,10 +6414,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14">
@@ -7270,7 +6431,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15">
@@ -7303,7 +6464,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -7317,7 +6478,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -7331,72 +6492,72 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
@@ -7438,7 +6599,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7459,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7484,7 +6645,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>648</v>
+        <v>580</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -7493,40 +6654,40 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>650</v>
+        <v>582</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>651</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>652</v>
+        <v>584</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>654</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>162</v>
@@ -7540,10 +6701,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>64</v>
@@ -7554,10 +6715,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>657</v>
+        <v>589</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>64</v>
@@ -7598,7 +6759,7 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>658</v>
+        <v>590</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>128</v>
@@ -7625,10 +6786,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7639,10 +6800,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7667,7 +6828,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -7676,12 +6837,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>661</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -7690,26 +6851,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>663</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>664</v>
+        <v>596</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>667</v>
+        <v>599</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
@@ -7718,12 +6879,12 @@
         <v>132</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>668</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>5</v>
@@ -7732,40 +6893,40 @@
         <v>64</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>671</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>673</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -7774,12 +6935,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>675</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>162</v>
@@ -7793,21 +6954,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>680</v>
+        <v>613</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -7816,26 +6977,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>681</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
-        <v>682</v>
+        <v>615</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>683</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7844,82 +7005,82 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>684</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>685</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
-        <v>686</v>
+        <v>619</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>687</v>
+        <v>620</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>688</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
-        <v>689</v>
+        <v>622</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>690</v>
+        <v>623</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>691</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
-        <v>692</v>
+        <v>625</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>693</v>
+        <v>626</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>694</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
-        <v>695</v>
+        <v>628</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>696</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>697</v>
+        <v>630</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>162</v>
@@ -7933,7 +7094,7 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>698</v>
+        <v>631</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>157</v>
@@ -7947,7 +7108,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>699</v>
+        <v>632</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>59</v>
@@ -7956,7 +7117,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>700</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7142,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>701</v>
+        <v>634</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7992,7 +7153,7 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>130</v>
@@ -8006,10 +7167,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -8034,7 +7195,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>702</v>
+        <v>635</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -8043,21 +7204,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>703</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>704</v>
+        <v>637</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>705</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -8094,7 +7255,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>706</v>
+        <v>639</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>59</v>
@@ -8103,15 +7264,15 @@
         <v>60</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>707</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>64</v>
@@ -8122,77 +7283,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>711</v>
+        <v>644</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>712</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>717</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>719</v>
+        <v>652</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>720</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>722</v>
+        <v>655</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>720</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>723</v>
+        <v>656</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>59</v>
@@ -8201,12 +7362,12 @@
         <v>60</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>724</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>725</v>
+        <v>658</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -8215,26 +7376,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>726</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>729</v>
+        <v>662</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -8243,26 +7404,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>733</v>
+        <v>666</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -8271,12 +7432,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -8285,26 +7446,26 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>738</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>5</v>
@@ -8313,54 +7474,54 @@
         <v>75</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>741</v>
+        <v>674</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>742</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
-        <v>743</v>
+        <v>676</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>744</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
-        <v>745</v>
+        <v>678</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>747</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>748</v>
+        <v>681</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -8369,7 +7530,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>749</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22">
@@ -8388,21 +7549,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>750</v>
+        <v>683</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>751</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -8411,12 +7572,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>753</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>130</v>
@@ -8430,105 +7591,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>755</v>
+        <v>688</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>756</v>
+        <v>689</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>759</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>760</v>
+        <v>693</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>761</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>763</v>
+        <v>696</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>764</v>
+        <v>697</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>765</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>767</v>
+        <v>700</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>768</v>
+        <v>701</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>59</v>
@@ -8537,26 +7698,26 @@
         <v>60</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>772</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>774</v>
+        <v>707</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>775</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -8565,7 +7726,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -8583,10 +7744,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8597,10 +7758,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8625,35 +7786,35 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>625</v>
+        <v>711</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>778</v>
+        <v>712</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>626</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>779</v>
+        <v>714</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>780</v>
+        <v>715</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>781</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>782</v>
+        <v>717</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -8662,26 +7823,26 @@
         <v>64</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>783</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>784</v>
+        <v>719</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>785</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>786</v>
+        <v>721</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -8690,82 +7851,82 @@
         <v>78</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>787</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>788</v>
+        <v>723</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>789</v>
+        <v>724</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>790</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>791</v>
+        <v>726</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>792</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>793</v>
+        <v>728</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>794</v>
+        <v>729</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>795</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>721</v>
+        <v>654</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>796</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>797</v>
+        <v>732</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>798</v>
+        <v>733</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>799</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>800</v>
+        <v>735</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>162</v>
@@ -8779,16 +7940,16 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>801</v>
+        <v>736</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>802</v>
+        <v>737</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>803</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -8810,10 +7971,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8824,10 +7985,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8852,21 +8013,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>804</v>
+        <v>739</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>805</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>806</v>
+        <v>741</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8875,12 +8036,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>807</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>808</v>
+        <v>743</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>63</v>
@@ -8894,7 +8055,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>809</v>
+        <v>744</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>157</v>
@@ -8925,10 +8086,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8939,10 +8100,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8967,21 +8128,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>810</v>
+        <v>745</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>811</v>
+        <v>746</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>812</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>813</v>
+        <v>748</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>130</v>
@@ -9012,10 +8173,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -9026,10 +8187,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -9054,7 +8215,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>814</v>
+        <v>749</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>59</v>
@@ -9063,12 +8224,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>815</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>816</v>
+        <v>751</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>157</v>
@@ -9082,7 +8243,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>817</v>
+        <v>752</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>162</v>
@@ -9096,7 +8257,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>818</v>
+        <v>753</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -9105,7 +8266,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>819</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -9127,10 +8288,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -9141,10 +8302,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -9169,7 +8330,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>820</v>
+        <v>755</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -9178,26 +8339,26 @@
         <v>64</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>821</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>810</v>
+        <v>745</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>811</v>
+        <v>746</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>812</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>813</v>
+        <v>748</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>130</v>
@@ -9248,141 +8409,141 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -9391,82 +8552,82 @@
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -9475,68 +8636,68 @@
         <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -9545,26 +8706,26 @@
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -9573,12 +8734,12 @@
         <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
@@ -9587,26 +8748,26 @@
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -9615,57 +8776,57 @@
         <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>64</v>
@@ -9676,10 +8837,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>64</v>
@@ -9717,7 +8878,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>822</v>
+        <v>757</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -9726,12 +8887,12 @@
         <v>66</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>823</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>824</v>
+        <v>759</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -9740,12 +8901,12 @@
         <v>69</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>825</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>826</v>
+        <v>761</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -9754,12 +8915,12 @@
         <v>72</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>827</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>828</v>
+        <v>763</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -9768,77 +8929,77 @@
         <v>72</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>829</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>830</v>
+        <v>765</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>831</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>832</v>
+        <v>767</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>833</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>834</v>
+        <v>769</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>835</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>836</v>
+        <v>771</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>837</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>838</v>
+        <v>773</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>839</v>
+        <v>774</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>840</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -9870,7 +9031,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>841</v>
+        <v>776</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>63</v>
@@ -9884,35 +9045,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>842</v>
+        <v>777</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>843</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>844</v>
+        <v>779</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>845</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>846</v>
+        <v>781</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9921,54 +9082,54 @@
         <v>40</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>847</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>813</v>
+        <v>748</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>848</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>849</v>
+        <v>784</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>850</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>851</v>
+        <v>786</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>687</v>
+        <v>620</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>852</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>853</v>
+        <v>788</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>5</v>
@@ -9977,26 +9138,26 @@
         <v>27</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>854</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>855</v>
+        <v>790</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>856</v>
+        <v>791</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>857</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>858</v>
+        <v>793</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
@@ -10005,40 +9166,40 @@
         <v>27</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>859</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>860</v>
+        <v>795</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>856</v>
+        <v>791</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>861</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>862</v>
+        <v>797</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>863</v>
+        <v>798</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>864</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>865</v>
+        <v>800</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>130</v>
@@ -10052,7 +9213,7 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>866</v>
+        <v>801</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>130</v>
@@ -10066,7 +9227,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>867</v>
+        <v>802</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>130</v>
@@ -10080,7 +9241,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>868</v>
+        <v>803</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>130</v>
@@ -10094,7 +9255,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>869</v>
+        <v>804</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>5</v>
@@ -10103,12 +9264,12 @@
         <v>15</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>870</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>871</v>
+        <v>806</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>130</v>
@@ -10122,7 +9283,7 @@
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>872</v>
+        <v>807</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>59</v>
@@ -10131,15 +9292,15 @@
         <v>60</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>873</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>874</v>
+        <v>809</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>875</v>
+        <v>810</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>64</v>
@@ -10150,10 +9311,10 @@
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>876</v>
+        <v>811</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>875</v>
+        <v>810</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>64</v>
@@ -10164,7 +9325,7 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>877</v>
+        <v>812</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>59</v>
@@ -10173,12 +9334,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>878</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>879</v>
+        <v>814</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>59</v>
@@ -10187,12 +9348,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>880</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>881</v>
+        <v>816</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>162</v>
@@ -10206,7 +9367,7 @@
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>882</v>
+        <v>817</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>59</v>
@@ -10215,12 +9376,12 @@
         <v>60</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>883</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>884</v>
+        <v>819</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>162</v>
@@ -10234,7 +9395,7 @@
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>885</v>
+        <v>820</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>59</v>
@@ -10243,12 +9404,12 @@
         <v>60</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>886</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>887</v>
+        <v>822</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>162</v>
@@ -10262,7 +9423,7 @@
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>888</v>
+        <v>823</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>5</v>
@@ -10271,12 +9432,12 @@
         <v>15</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>889</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>890</v>
+        <v>825</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>5</v>
@@ -10285,26 +9446,26 @@
         <v>27</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>891</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>892</v>
+        <v>827</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>893</v>
+        <v>828</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>894</v>
+        <v>829</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>162</v>
@@ -10318,7 +9479,7 @@
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>895</v>
+        <v>830</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>162</v>
@@ -10332,7 +9493,7 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>896</v>
+        <v>831</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>162</v>
@@ -10346,10 +9507,10 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>897</v>
+        <v>832</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>898</v>
+        <v>833</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>64</v>
@@ -10360,7 +9521,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>899</v>
+        <v>834</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>157</v>
@@ -10374,7 +9535,7 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>900</v>
+        <v>835</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>157</v>
@@ -10388,147 +9549,147 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>901</v>
+        <v>836</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>902</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>903</v>
+        <v>838</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>904</v>
+        <v>839</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>905</v>
+        <v>840</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>906</v>
+        <v>841</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>907</v>
+        <v>842</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>908</v>
+        <v>843</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>904</v>
+        <v>839</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>909</v>
+        <v>844</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>910</v>
+        <v>845</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>911</v>
+        <v>846</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>912</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>913</v>
+        <v>848</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>912</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>914</v>
+        <v>849</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>915</v>
+        <v>850</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>916</v>
+        <v>851</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>917</v>
+        <v>852</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>918</v>
+        <v>853</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>919</v>
+        <v>854</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>920</v>
+        <v>855</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>921</v>
+        <v>856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>922</v>
+        <v>857</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>923</v>
+        <v>858</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>924</v>
+        <v>859</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>925</v>
+        <v>860</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
@@ -10537,26 +9698,26 @@
         <v>64</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>926</v>
+        <v>861</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>927</v>
+        <v>862</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>928</v>
+        <v>863</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>929</v>
+        <v>864</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>5</v>
@@ -10565,12 +9726,12 @@
         <v>15</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>930</v>
+        <v>865</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>931</v>
+        <v>866</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>122</v>
@@ -10579,26 +9740,26 @@
         <v>64</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>932</v>
+        <v>867</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>933</v>
+        <v>868</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>934</v>
+        <v>869</v>
       </c>
       <c r="C53" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>935</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>936</v>
+        <v>871</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>159</v>
@@ -10612,21 +9773,21 @@
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>937</v>
+        <v>872</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>938</v>
+        <v>873</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>939</v>
+        <v>874</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>940</v>
+        <v>875</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>59</v>
@@ -10635,12 +9796,12 @@
         <v>60</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>941</v>
+        <v>876</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>942</v>
+        <v>877</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>5</v>
@@ -10649,15 +9810,15 @@
         <v>15</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>943</v>
+        <v>878</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>944</v>
+        <v>879</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>945</v>
+        <v>880</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>64</v>
@@ -10668,10 +9829,10 @@
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>946</v>
+        <v>881</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>945</v>
+        <v>880</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>64</v>
@@ -10709,7 +9870,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>841</v>
+        <v>776</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>63</v>
@@ -10723,35 +9884,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>842</v>
+        <v>777</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>947</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>844</v>
+        <v>779</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>845</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>846</v>
+        <v>781</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10760,57 +9921,57 @@
         <v>40</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>847</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>813</v>
+        <v>748</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>848</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>849</v>
+        <v>784</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>850</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>851</v>
+        <v>786</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>687</v>
+        <v>620</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>852</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>948</v>
+        <v>883</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>949</v>
+        <v>884</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>64</v>
@@ -10821,10 +9982,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>950</v>
+        <v>885</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>949</v>
+        <v>884</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -10835,7 +9996,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>951</v>
+        <v>886</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -10844,26 +10005,26 @@
         <v>27</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>952</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>953</v>
+        <v>888</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>856</v>
+        <v>791</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>954</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>955</v>
+        <v>890</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10872,40 +10033,40 @@
         <v>27</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>956</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>957</v>
+        <v>892</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>856</v>
+        <v>791</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>958</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>862</v>
+        <v>797</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>863</v>
+        <v>798</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>864</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>865</v>
+        <v>800</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>130</v>
@@ -10919,7 +10080,7 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>866</v>
+        <v>801</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>130</v>
@@ -10933,7 +10094,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>867</v>
+        <v>802</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>130</v>
@@ -10947,7 +10108,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>868</v>
+        <v>803</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>130</v>
@@ -10961,7 +10122,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>869</v>
+        <v>804</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>5</v>
@@ -10970,12 +10131,12 @@
         <v>15</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>870</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>871</v>
+        <v>806</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>130</v>
@@ -10989,7 +10150,7 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>959</v>
+        <v>894</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>157</v>
@@ -11003,7 +10164,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>960</v>
+        <v>895</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>157</v>
@@ -11017,7 +10178,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>882</v>
+        <v>817</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>59</v>
@@ -11026,12 +10187,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>961</v>
+        <v>896</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>884</v>
+        <v>819</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>162</v>
@@ -11045,7 +10206,7 @@
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>885</v>
+        <v>820</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>59</v>
@@ -11054,12 +10215,12 @@
         <v>60</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>962</v>
+        <v>897</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>887</v>
+        <v>822</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>162</v>
@@ -11073,7 +10234,7 @@
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>894</v>
+        <v>829</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>162</v>
@@ -11087,7 +10248,7 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>895</v>
+        <v>830</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>162</v>
@@ -11101,10 +10262,10 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>897</v>
+        <v>832</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>898</v>
+        <v>833</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>64</v>
@@ -11115,147 +10276,147 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>963</v>
+        <v>898</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>964</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>965</v>
+        <v>900</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>904</v>
+        <v>839</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>966</v>
+        <v>901</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>967</v>
+        <v>902</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>968</v>
+        <v>903</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>969</v>
+        <v>904</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>904</v>
+        <v>839</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>970</v>
+        <v>905</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>910</v>
+        <v>845</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>911</v>
+        <v>846</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>912</v>
+        <v>847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>913</v>
+        <v>848</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>971</v>
+        <v>906</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>912</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>914</v>
+        <v>849</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>972</v>
+        <v>907</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>916</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>917</v>
+        <v>852</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>972</v>
+        <v>907</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>973</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>919</v>
+        <v>854</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>920</v>
+        <v>855</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>921</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>922</v>
+        <v>857</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>974</v>
+        <v>909</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>924</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>975</v>
+        <v>910</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
@@ -11264,15 +10425,15 @@
         <v>15</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>943</v>
+        <v>878</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>944</v>
+        <v>879</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>945</v>
+        <v>880</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>64</v>
@@ -11283,10 +10444,10 @@
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>946</v>
+        <v>881</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>945</v>
+        <v>880</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -11297,7 +10458,7 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>976</v>
+        <v>911</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>5</v>
@@ -11306,15 +10467,15 @@
         <v>27</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>977</v>
+        <v>912</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>978</v>
+        <v>913</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>945</v>
+        <v>880</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>64</v>
@@ -11352,72 +10513,72 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>979</v>
+        <v>914</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>972</v>
+        <v>907</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>980</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>981</v>
+        <v>916</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>982</v>
+        <v>917</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>983</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>984</v>
+        <v>919</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>985</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>986</v>
+        <v>921</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>987</v>
+        <v>922</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>985</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>988</v>
+        <v>923</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>989</v>
+        <v>924</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>990</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -11449,7 +10610,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>826</v>
+        <v>761</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -11458,12 +10619,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>991</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>992</v>
+        <v>927</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -11472,12 +10633,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>991</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>822</v>
+        <v>757</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -11486,12 +10647,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>993</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>994</v>
+        <v>929</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -11500,35 +10661,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>993</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>995</v>
+        <v>930</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>996</v>
+        <v>931</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>997</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>998</v>
+        <v>933</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>999</v>
+        <v>934</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>1000</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -11560,7 +10721,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>1001</v>
+        <v>936</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -11569,12 +10730,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>1002</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>1003</v>
+        <v>938</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -11583,91 +10744,91 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>1004</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>1005</v>
+        <v>940</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>687</v>
+        <v>620</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>1006</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>1007</v>
+        <v>942</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>1008</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>1009</v>
+        <v>944</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>1010</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>1011</v>
+        <v>946</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>1012</v>
+        <v>947</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>1013</v>
+        <v>948</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>1014</v>
+        <v>949</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>1015</v>
+        <v>950</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>1016</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>1017</v>
+        <v>952</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>1018</v>
+        <v>953</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>1019</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -11699,7 +10860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>816</v>
+        <v>751</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>157</v>
@@ -11713,7 +10874,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>1020</v>
+        <v>955</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>162</v>
@@ -11727,16 +10888,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>1021</v>
+        <v>956</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>920</v>
+        <v>855</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>1022</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -11768,7 +10929,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>1023</v>
+        <v>958</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11777,12 +10938,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>1024</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>1025</v>
+        <v>960</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>122</v>
@@ -11791,12 +10952,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>1026</v>
+        <v>961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>1027</v>
+        <v>962</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>162</v>
@@ -11837,7 +10998,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>1028</v>
+        <v>963</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11846,12 +11007,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>1029</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>1030</v>
+        <v>965</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11860,12 +11021,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>1031</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>1032</v>
+        <v>967</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11874,12 +11035,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>1033</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>1034</v>
+        <v>969</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>130</v>
@@ -11893,21 +11054,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>1035</v>
+        <v>970</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>1036</v>
+        <v>971</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>1037</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>1038</v>
+        <v>973</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11916,12 +11077,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>1039</v>
+        <v>974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>1040</v>
+        <v>975</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11930,12 +11091,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>1041</v>
+        <v>976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>1042</v>
+        <v>977</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>130</v>
@@ -11949,21 +11110,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>1043</v>
+        <v>978</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>1036</v>
+        <v>971</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>1044</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>816</v>
+        <v>751</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>157</v>
@@ -11977,21 +11138,21 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>1045</v>
+        <v>980</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>1046</v>
+        <v>981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>1047</v>
+        <v>982</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -12000,26 +11161,26 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>1048</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>1049</v>
+        <v>984</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>1050</v>
+        <v>985</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>1051</v>
+        <v>986</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>1052</v>
+        <v>987</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>157</v>
@@ -12033,7 +11194,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>1020</v>
+        <v>955</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>162</v>
@@ -12047,16 +11208,16 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>1053</v>
+        <v>988</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1054</v>
+        <v>989</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>1055</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -12088,7 +11249,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>1028</v>
+        <v>963</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -12097,12 +11258,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1056</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>1030</v>
+        <v>965</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -12111,12 +11272,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>1031</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>1032</v>
+        <v>967</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -12125,12 +11286,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>1033</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>1034</v>
+        <v>969</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>130</v>
@@ -12144,21 +11305,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>1035</v>
+        <v>970</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>1036</v>
+        <v>971</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>1037</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>1038</v>
+        <v>973</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -12167,12 +11328,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>1039</v>
+        <v>974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>1040</v>
+        <v>975</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -12181,12 +11342,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>1041</v>
+        <v>976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>1042</v>
+        <v>977</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>130</v>
@@ -12200,21 +11361,21 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>1043</v>
+        <v>978</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>1036</v>
+        <v>971</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>1044</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>816</v>
+        <v>751</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>157</v>
@@ -12228,7 +11389,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1057</v>
+        <v>992</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>162</v>
@@ -12242,63 +11403,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1058</v>
+        <v>993</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1059</v>
+        <v>994</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1060</v>
+        <v>995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1061</v>
+        <v>996</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1062</v>
+        <v>997</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1063</v>
+        <v>998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1064</v>
+        <v>999</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1059</v>
+        <v>994</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1065</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1066</v>
+        <v>1001</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1062</v>
+        <v>997</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1067</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1068</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>162</v>
@@ -12312,72 +11473,72 @@
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1069</v>
+        <v>1004</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>1059</v>
+        <v>994</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1070</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1071</v>
+        <v>1006</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1059</v>
+        <v>994</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1072</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1073</v>
+        <v>1008</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1059</v>
+        <v>994</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1074</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1075</v>
+        <v>1010</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1059</v>
+        <v>994</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1076</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1077</v>
+        <v>1012</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1078</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -12409,7 +11570,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -12418,12 +11579,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -12432,12 +11593,12 @@
         <v>184</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -12446,40 +11607,40 @@
         <v>184</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -12488,12 +11649,12 @@
         <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -12502,40 +11663,40 @@
         <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -12544,21 +11705,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -12590,7 +11751,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1079</v>
+        <v>1014</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>157</v>
@@ -12604,7 +11765,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>951</v>
+        <v>886</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -12613,26 +11774,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>952</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>953</v>
+        <v>888</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>856</v>
+        <v>791</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>954</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>955</v>
+        <v>890</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12641,54 +11802,54 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>956</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>957</v>
+        <v>892</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>856</v>
+        <v>791</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>958</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>989</v>
+        <v>924</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1080</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1081</v>
+        <v>1016</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>989</v>
+        <v>924</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1082</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1083</v>
+        <v>1018</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12697,26 +11858,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1084</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1085</v>
+        <v>1020</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1086</v>
+        <v>1021</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1087</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1088</v>
+        <v>1023</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12725,26 +11886,26 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1089</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>1045</v>
+        <v>980</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1090</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>1047</v>
+        <v>982</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -12753,12 +11914,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>1048</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>1032</v>
+        <v>967</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -12767,12 +11928,12 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>1033</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>1034</v>
+        <v>969</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>130</v>
@@ -12786,21 +11947,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
-        <v>1035</v>
+        <v>970</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>1036</v>
+        <v>971</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>1037</v>
+        <v>972</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>1030</v>
+        <v>965</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -12809,12 +11970,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>1031</v>
+        <v>966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>1038</v>
+        <v>973</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -12823,12 +11984,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>1039</v>
+        <v>974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>1040</v>
+        <v>975</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -12837,12 +11998,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>1041</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>1042</v>
+        <v>977</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>130</v>
@@ -12856,35 +12017,35 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>1043</v>
+        <v>978</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>1036</v>
+        <v>971</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>1044</v>
+        <v>979</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>1049</v>
+        <v>984</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1091</v>
+        <v>1026</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1092</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1093</v>
+        <v>1028</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>157</v>
@@ -12925,7 +12086,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1094</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12934,12 +12095,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1095</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1096</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>130</v>
@@ -12953,7 +12114,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1097</v>
+        <v>1032</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>130</v>
@@ -12967,7 +12128,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1098</v>
+        <v>1033</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12976,35 +12137,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1099</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1100</v>
+        <v>1035</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1101</v>
+        <v>1036</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1102</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1103</v>
+        <v>1038</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1104</v>
+        <v>1039</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1105</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -13036,7 +12197,7 @@
     </row>
     <row r="2">
       <c r="A2" s="84" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B2" s="84" t="s">
         <v>162</v>
@@ -13050,16 +12211,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1106</v>
+        <v>1041</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1107</v>
+        <v>1042</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1108</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -13105,21 +12266,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1109</v>
+        <v>1044</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1110</v>
+        <v>1045</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1111</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1112</v>
+        <v>1047</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -13128,7 +12289,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1113</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -13149,7 +12310,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1114</v>
+        <v>1049</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -13174,30 +12335,30 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1115</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1116</v>
+        <v>1051</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1117</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B4" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1118</v>
+        <v>1053</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1119</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -13218,7 +12379,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>162</v>
@@ -13232,10 +12393,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -13260,72 +12421,72 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -13367,15 +12528,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -13384,35 +12545,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -13433,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -13458,35 +12619,35 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -13495,26 +12656,26 @@
         <v>64</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -13523,26 +12684,26 @@
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -13551,12 +12712,12 @@
         <v>96</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -13565,26 +12726,26 @@
         <v>64</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
@@ -13593,12 +12754,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -13607,15 +12768,15 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>64</v>
@@ -13626,10 +12787,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>64</v>
@@ -13640,7 +12801,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -13649,7 +12810,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -13673,7 +12834,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -13698,72 +12859,72 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -13798,119 +12959,119 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>5</v>
@@ -13919,7 +13080,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -618,7 +618,7 @@
     <t>datiAnnotazione</t>
   </si>
   <si>
-    <t>#/components/schemas/ModelDatiAnnotazione</t>
+    <t>array[#/components/schemas/ModelDatiAnnotazione]</t>
   </si>
   <si>
     <t>Dati delle annotazioni contestuali</t>
@@ -973,7 +973,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@7953a656</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@672c6b93</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -1120,13 +1120,13 @@
     <t>190</t>
   </si>
   <si>
-    <t>id sede estera del consolato</t>
+    <t>id sede estera del consolato (decodifica ANSC_97)</t>
   </si>
   <si>
     <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
-    <t>Berlino</t>
+    <t>VILNIUS</t>
   </si>
   <si>
     <t>Descrizione sede estera del consolato</t>
@@ -2269,10 +2269,10 @@
     <t>genitoreConCittadinanza</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Genitore che ha la cittadinanza italiana</t>
+    <t>1 = Madre , 2= Padre , 3 = Entrambe</t>
+  </si>
+  <si>
+    <t>Genitore che ha la cittadinanza italiana (decodifica ANSC_73)</t>
   </si>
   <si>
     <t>dataUltimoLuogo</t>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1054">
   <si>
     <t>Campo</t>
   </si>
@@ -147,7 +147,7 @@
     <t>idVersion</t>
   </si>
   <si>
-    <t>Id della versione utilizzato per la creazione dell'evento</t>
+    <t>Id della versione utilizzato per la creazione dell'evento (decodifica ANSC_100)</t>
   </si>
   <si>
     <t>dataformazione</t>
@@ -426,7 +426,7 @@
     <t>array[#/components/schemas/ModelSoggetto]</t>
   </si>
   <si>
-    <t>Intestatari dell'atto (uno o più in base al registro)</t>
+    <t>Intestatari dell'atto (uno o più in base al registro), in caso di intestatari di un matrimonio nel primo elemento va inserito lo sposo (elemento con indice 0) e nel secondo elemento (elemento con indice 1) va inserita la sposa</t>
   </si>
   <si>
     <t>variazioni</t>
@@ -724,10 +724,7 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Nascita</t>
-  </si>
-  <si>
-    <t>Tipologia dell'atto collegato</t>
+    <t>Tipologia dell'atto collegato (decodifica ANSC_01)</t>
   </si>
   <si>
     <t>parte</t>
@@ -973,7 +970,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@672c6b93</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@e7b7395</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -1285,7 +1282,7 @@
     <t>Comune di Cesena</t>
   </si>
   <si>
-    <t>Informazione sull'ente che ha rilasciato il documento di riconoscimento.</t>
+    <t>Informazione sull'ente che ha rilasciato il documento di riconoscimento (decodifica ANSC_20).</t>
   </si>
   <si>
     <t>dataRilascio</t>
@@ -2269,10 +2266,10 @@
     <t>genitoreConCittadinanza</t>
   </si>
   <si>
-    <t>1 = Madre , 2= Padre , 3 = Entrambe</t>
-  </si>
-  <si>
-    <t>Genitore che ha la cittadinanza italiana (decodifica ANSC_73)</t>
+    <t>1 = madre, 2 = padre, 3 = entrambi</t>
+  </si>
+  <si>
+    <t>Genitore che ha la cittadinanza italiana (decodifica ANSC_97)</t>
   </si>
   <si>
     <t>dataUltimoLuogo</t>
@@ -5040,100 +5037,100 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>438</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>440</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>445</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>450</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>453</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5165,21 +5162,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>456</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5188,12 +5185,12 @@
         <v>66</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5202,12 +5199,12 @@
         <v>69</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5216,12 +5213,12 @@
         <v>72</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5230,152 +5227,152 @@
         <v>72</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>465</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>468</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>473</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>475</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>478</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>481</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>484</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>487</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>490</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5384,40 +5381,40 @@
         <v>35</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>495</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="D19" s="22" t="s">
         <v>498</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5426,21 +5423,21 @@
         <v>45</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>503</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5472,49 +5469,49 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>505</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>508</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>511</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5523,7 +5520,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5552,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5564,12 +5561,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -5578,7 +5575,7 @@
         <v>131</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5619,21 +5616,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>520</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="4">
@@ -5652,7 +5649,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>157</v>
@@ -5666,7 +5663,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>162</v>
@@ -5680,7 +5677,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>162</v>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5744,12 +5741,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5758,40 +5755,40 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>529</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>532</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>157</v>
@@ -5805,21 +5802,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>536</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -5828,68 +5825,68 @@
         <v>78</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>59</v>
@@ -5898,26 +5895,26 @@
         <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>551</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>122</v>
@@ -5931,7 +5928,7 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>157</v>
@@ -5972,30 +5969,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>556</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>559</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -6027,21 +6024,21 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>162</v>
@@ -6055,10 +6052,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>564</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>565</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>64</v>
@@ -6069,7 +6066,7 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>157</v>
@@ -6099,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6124,30 +6121,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>568</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>571</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -6171,7 +6168,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6196,21 +6193,21 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>575</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>5</v>
@@ -6219,7 +6216,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6512,52 +6509,52 @@
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="24">
@@ -6599,7 +6596,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6620,7 +6617,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6645,7 +6642,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -6654,40 +6651,40 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>582</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>584</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>585</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>162</v>
@@ -6701,10 +6698,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>64</v>
@@ -6715,10 +6712,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>64</v>
@@ -6759,7 +6756,7 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>128</v>
@@ -6786,10 +6783,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6800,10 +6797,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>341</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6828,7 +6825,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -6837,12 +6834,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -6851,26 +6848,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>597</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
@@ -6879,54 +6876,54 @@
         <v>132</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>601</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>605</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -6935,12 +6932,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>162</v>
@@ -6954,21 +6951,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
+        <v>609</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>610</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="D13" s="44" t="s">
         <v>611</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -6977,26 +6974,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
+        <v>614</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>615</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>508</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7005,82 +7002,82 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>619</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="44" t="s">
+      <c r="D18" s="44" t="s">
         <v>620</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
+        <v>621</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="D19" s="44" t="s">
         <v>623</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="44" t="s">
+      <c r="D20" s="44" t="s">
         <v>626</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>628</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>162</v>
@@ -7094,7 +7091,7 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>157</v>
@@ -7108,7 +7105,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>59</v>
@@ -7117,7 +7114,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -7142,7 +7139,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7153,7 +7150,7 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>130</v>
@@ -7167,10 +7164,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>341</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>342</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -7195,7 +7192,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -7204,21 +7201,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>637</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -7255,7 +7252,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>59</v>
@@ -7264,15 +7261,15 @@
         <v>60</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>641</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>642</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>64</v>
@@ -7283,77 +7280,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="D4" s="48" t="s">
         <v>644</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>646</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
+        <v>647</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>648</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="D6" s="48" t="s">
         <v>649</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>651</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="48" t="s">
+      <c r="D7" s="48" t="s">
         <v>652</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
+        <v>653</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>654</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>655</v>
-      </c>
       <c r="D8" s="48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>59</v>
@@ -7362,12 +7359,12 @@
         <v>60</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -7376,26 +7373,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>550</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>660</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>551</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -7404,26 +7401,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>664</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -7432,12 +7429,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -7446,26 +7443,26 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="48" t="s">
+        <v>669</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>670</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>5</v>
@@ -7474,54 +7471,54 @@
         <v>75</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="48" t="s">
+        <v>673</v>
+      </c>
+      <c r="D18" s="48" t="s">
         <v>674</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
+        <v>675</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>669</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>676</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>670</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>678</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="48" t="s">
+      <c r="D20" s="48" t="s">
         <v>679</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -7530,7 +7527,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22">
@@ -7549,21 +7546,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="D23" s="48" t="s">
         <v>683</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -7572,12 +7569,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>130</v>
@@ -7591,105 +7588,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>688</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="48" t="s">
+      <c r="D26" s="48" t="s">
         <v>689</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="D27" s="48" t="s">
         <v>691</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>679</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
+        <v>692</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="D28" s="48" t="s">
         <v>693</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>679</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
+        <v>694</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="D29" s="48" t="s">
         <v>695</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>679</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="D30" s="48" t="s">
         <v>697</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>679</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
+        <v>698</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>699</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="48" t="s">
+      <c r="D31" s="48" t="s">
         <v>700</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>648</v>
+      </c>
+      <c r="D32" s="48" t="s">
         <v>702</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>649</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>59</v>
@@ -7698,26 +7695,26 @@
         <v>60</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="48" t="s">
         <v>706</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="48" t="s">
+      <c r="D34" s="48" t="s">
         <v>707</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -7726,7 +7723,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -7744,10 +7741,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7758,10 +7755,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>341</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7786,63 +7783,63 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
+        <v>710</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>711</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="50" t="s">
         <v>712</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>714</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="50" t="s">
         <v>715</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>717</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>719</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>559</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -7851,82 +7848,82 @@
         <v>78</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
+        <v>722</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>723</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="50" t="s">
+      <c r="D9" s="50" t="s">
         <v>724</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
+        <v>725</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>558</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>726</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>559</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
+        <v>727</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>728</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="50" t="s">
+      <c r="D11" s="50" t="s">
         <v>729</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
+        <v>731</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="50" t="s">
+      <c r="D13" s="50" t="s">
         <v>733</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>162</v>
@@ -7940,16 +7937,16 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
+        <v>735</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>736</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="D15" s="50" t="s">
         <v>737</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -7971,10 +7968,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7985,10 +7982,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>341</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8013,21 +8010,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
+        <v>738</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>739</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>649</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8036,12 +8033,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>63</v>
@@ -8055,7 +8052,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>157</v>
@@ -8086,10 +8083,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8100,10 +8097,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>341</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8128,21 +8125,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>745</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="54" t="s">
+      <c r="D4" s="54" t="s">
         <v>746</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>130</v>
@@ -8173,10 +8170,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8187,10 +8184,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>341</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8215,7 +8212,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>59</v>
@@ -8224,12 +8221,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>157</v>
@@ -8243,7 +8240,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>162</v>
@@ -8257,7 +8254,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8266,7 +8263,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -8288,10 +8285,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8302,10 +8299,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>341</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8330,35 +8327,35 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
+        <v>754</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>755</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>745</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="D5" s="58" t="s">
         <v>746</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>130</v>
@@ -8409,141 +8406,141 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -8552,82 +8549,82 @@
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -8636,68 +8633,68 @@
         <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -8706,40 +8703,40 @@
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
@@ -8748,85 +8745,85 @@
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>64</v>
@@ -8837,10 +8834,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>64</v>
@@ -8878,7 +8875,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -8887,12 +8884,12 @@
         <v>66</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -8901,12 +8898,12 @@
         <v>69</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -8915,12 +8912,12 @@
         <v>72</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -8929,77 +8926,77 @@
         <v>72</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>765</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>767</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>769</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>426</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
+        <v>770</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>771</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>473</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>773</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="60" t="s">
+      <c r="D10" s="60" t="s">
         <v>774</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -9031,7 +9028,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>63</v>
@@ -9045,35 +9042,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
+        <v>776</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>648</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>777</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>649</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
+        <v>778</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>779</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9082,54 +9079,54 @@
         <v>40</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
+        <v>783</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>784</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>508</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
+        <v>785</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>786</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>620</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>5</v>
@@ -9138,26 +9135,26 @@
         <v>27</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
+        <v>789</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>790</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="62" t="s">
+      <c r="D10" s="62" t="s">
         <v>791</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
@@ -9166,40 +9163,40 @@
         <v>27</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
+        <v>794</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>790</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>795</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>791</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
+        <v>796</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>797</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="62" t="s">
+      <c r="D13" s="62" t="s">
         <v>798</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>130</v>
@@ -9213,7 +9210,7 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>130</v>
@@ -9227,7 +9224,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>130</v>
@@ -9241,7 +9238,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>130</v>
@@ -9255,7 +9252,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>5</v>
@@ -9264,12 +9261,12 @@
         <v>15</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>130</v>
@@ -9283,7 +9280,7 @@
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>59</v>
@@ -9292,15 +9289,15 @@
         <v>60</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B21" s="62" t="s">
         <v>809</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>810</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>64</v>
@@ -9311,10 +9308,10 @@
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>64</v>
@@ -9325,7 +9322,7 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>59</v>
@@ -9334,12 +9331,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>59</v>
@@ -9348,12 +9345,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>162</v>
@@ -9367,7 +9364,7 @@
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>59</v>
@@ -9376,12 +9373,12 @@
         <v>60</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>162</v>
@@ -9395,7 +9392,7 @@
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>59</v>
@@ -9404,12 +9401,12 @@
         <v>60</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>162</v>
@@ -9423,7 +9420,7 @@
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>5</v>
@@ -9432,12 +9429,12 @@
         <v>15</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>5</v>
@@ -9446,26 +9443,26 @@
         <v>27</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>162</v>
@@ -9479,7 +9476,7 @@
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>162</v>
@@ -9493,7 +9490,7 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>162</v>
@@ -9507,10 +9504,10 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
+        <v>831</v>
+      </c>
+      <c r="B36" s="62" t="s">
         <v>832</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>833</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>64</v>
@@ -9521,7 +9518,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>157</v>
@@ -9535,7 +9532,7 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>157</v>
@@ -9549,175 +9546,175 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
+        <v>837</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="62" t="s">
         <v>838</v>
       </c>
-      <c r="B40" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="62" t="s">
+      <c r="D40" s="62" t="s">
         <v>839</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
+        <v>842</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>838</v>
+      </c>
+      <c r="D42" s="62" t="s">
         <v>843</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
+        <v>844</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="62" t="s">
         <v>845</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="62" t="s">
+      <c r="D43" s="62" t="s">
         <v>846</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
+        <v>848</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="62" t="s">
         <v>849</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="62" t="s">
+      <c r="D45" s="62" t="s">
         <v>850</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
+        <v>851</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="62" t="s">
         <v>852</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
+        <v>853</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="62" t="s">
         <v>854</v>
       </c>
-      <c r="B47" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="62" t="s">
+      <c r="D47" s="62" t="s">
         <v>855</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
+        <v>856</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="62" t="s">
         <v>857</v>
       </c>
-      <c r="B48" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="62" t="s">
+      <c r="D48" s="62" t="s">
         <v>858</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
+        <v>859</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="62" t="s">
         <v>860</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>5</v>
@@ -9726,12 +9723,12 @@
         <v>15</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>122</v>
@@ -9740,26 +9737,26 @@
         <v>64</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
+        <v>867</v>
+      </c>
+      <c r="B53" s="62" t="s">
         <v>868</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="C53" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="62" t="s">
         <v>869</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="62" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>159</v>
@@ -9773,21 +9770,21 @@
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
+        <v>871</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="62" t="s">
         <v>872</v>
       </c>
-      <c r="B55" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="62" t="s">
+      <c r="D55" s="62" t="s">
         <v>873</v>
-      </c>
-      <c r="D55" s="62" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>59</v>
@@ -9796,12 +9793,12 @@
         <v>60</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>5</v>
@@ -9810,15 +9807,15 @@
         <v>15</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
+        <v>878</v>
+      </c>
+      <c r="B58" s="62" t="s">
         <v>879</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>880</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>64</v>
@@ -9829,10 +9826,10 @@
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>64</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>63</v>
@@ -9884,35 +9881,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
+        <v>778</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>779</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -9921,57 +9918,57 @@
         <v>40</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
+        <v>783</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>784</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>508</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>786</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>620</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
+        <v>882</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>883</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>884</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>64</v>
@@ -9982,10 +9979,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -9996,7 +9993,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -10005,26 +10002,26 @@
         <v>27</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
+        <v>887</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>790</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>888</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>791</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10033,40 +10030,40 @@
         <v>27</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
+        <v>891</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>790</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>892</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>791</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="64" t="s">
+      <c r="D15" s="64" t="s">
         <v>798</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>130</v>
@@ -10080,7 +10077,7 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>130</v>
@@ -10094,7 +10091,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>130</v>
@@ -10108,7 +10105,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>130</v>
@@ -10122,7 +10119,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>5</v>
@@ -10131,12 +10128,12 @@
         <v>15</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>130</v>
@@ -10150,7 +10147,7 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>157</v>
@@ -10164,7 +10161,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>157</v>
@@ -10178,7 +10175,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>59</v>
@@ -10187,12 +10184,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>162</v>
@@ -10206,7 +10203,7 @@
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>59</v>
@@ -10215,12 +10212,12 @@
         <v>60</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>162</v>
@@ -10234,7 +10231,7 @@
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>162</v>
@@ -10248,7 +10245,7 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>162</v>
@@ -10262,10 +10259,10 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
+        <v>831</v>
+      </c>
+      <c r="B30" s="64" t="s">
         <v>832</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>833</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>64</v>
@@ -10276,147 +10273,147 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
+        <v>899</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>838</v>
+      </c>
+      <c r="D32" s="64" t="s">
         <v>900</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>839</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
+        <v>903</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>838</v>
+      </c>
+      <c r="D34" s="64" t="s">
         <v>904</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>839</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
+        <v>844</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>845</v>
       </c>
-      <c r="B35" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="64" t="s">
+      <c r="D35" s="64" t="s">
         <v>846</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="D38" s="64" t="s">
         <v>907</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
+        <v>853</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>854</v>
       </c>
-      <c r="B39" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="64" t="s">
+      <c r="D39" s="64" t="s">
         <v>855</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
@@ -10425,15 +10422,15 @@
         <v>15</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
+        <v>878</v>
+      </c>
+      <c r="B42" s="64" t="s">
         <v>879</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>880</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>64</v>
@@ -10444,10 +10441,10 @@
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -10458,7 +10455,7 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>5</v>
@@ -10467,15 +10464,15 @@
         <v>27</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>64</v>
@@ -10513,72 +10510,72 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
+        <v>913</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>906</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>914</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>907</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
+        <v>915</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>916</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="66" t="s">
         <v>917</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>669</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>919</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
+        <v>920</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>921</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>922</v>
-      </c>
       <c r="D5" s="66" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
+        <v>922</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>923</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="66" t="s">
+      <c r="D6" s="66" t="s">
         <v>924</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -10610,7 +10607,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -10619,12 +10616,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10633,12 +10630,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -10647,12 +10644,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10661,35 +10658,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
+        <v>929</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>930</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>931</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
+        <v>932</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>933</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="68" t="s">
+      <c r="D7" s="68" t="s">
         <v>934</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -10721,7 +10718,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -10730,12 +10727,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -10744,91 +10741,91 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
+        <v>939</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" s="70" t="s">
         <v>940</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>620</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>942</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>508</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>944</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="70" t="s">
         <v>946</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="70" t="s">
+      <c r="D7" s="70" t="s">
         <v>947</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
+        <v>948</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>949</v>
       </c>
-      <c r="B8" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="D8" s="70" t="s">
         <v>950</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="B9" s="70" t="s">
         <v>952</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="C9" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>953</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10860,7 +10857,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>157</v>
@@ -10874,7 +10871,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>162</v>
@@ -10888,16 +10885,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
+        <v>955</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>854</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>956</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>855</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -10929,7 +10926,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -10938,12 +10935,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>122</v>
@@ -10952,12 +10949,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>162</v>
@@ -10998,21 +10995,21 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
+        <v>962</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="76" t="s">
         <v>963</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11021,12 +11018,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11035,12 +11032,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>130</v>
@@ -11054,21 +11051,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
+        <v>969</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>970</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="76" t="s">
+      <c r="D6" s="76" t="s">
         <v>971</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11077,12 +11074,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11091,12 +11088,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>130</v>
@@ -11110,21 +11107,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
+        <v>977</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>970</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>978</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>971</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>157</v>
@@ -11138,49 +11135,49 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
+        <v>981</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="76" t="s">
         <v>982</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
+        <v>983</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="76" t="s">
         <v>984</v>
       </c>
-      <c r="B14" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="76" t="s">
+      <c r="D14" s="76" t="s">
         <v>985</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>157</v>
@@ -11194,7 +11191,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>162</v>
@@ -11208,16 +11205,16 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
+        <v>987</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>988</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="76" t="s">
+      <c r="D17" s="76" t="s">
         <v>989</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -11249,7 +11246,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11258,12 +11255,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11272,12 +11269,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11286,12 +11283,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>130</v>
@@ -11305,21 +11302,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
+        <v>969</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="78" t="s">
         <v>970</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="78" t="s">
+      <c r="D6" s="78" t="s">
         <v>971</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11328,12 +11325,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11342,12 +11339,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>130</v>
@@ -11361,21 +11358,21 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
+        <v>977</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>970</v>
+      </c>
+      <c r="D10" s="78" t="s">
         <v>978</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>971</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>157</v>
@@ -11389,7 +11386,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>162</v>
@@ -11403,63 +11400,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
+        <v>992</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="78" t="s">
         <v>993</v>
       </c>
-      <c r="B13" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="78" t="s">
+      <c r="D13" s="78" t="s">
         <v>994</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
+        <v>995</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="78" t="s">
         <v>996</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="78" t="s">
+      <c r="D14" s="78" t="s">
         <v>997</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
+        <v>998</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>993</v>
+      </c>
+      <c r="D15" s="78" t="s">
         <v>999</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>994</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>996</v>
+      </c>
+      <c r="D16" s="78" t="s">
         <v>1001</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>997</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>162</v>
@@ -11473,72 +11470,72 @@
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>993</v>
+      </c>
+      <c r="D18" s="78" t="s">
         <v>1004</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>994</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>993</v>
+      </c>
+      <c r="D19" s="78" t="s">
         <v>1006</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>994</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>993</v>
+      </c>
+      <c r="D20" s="78" t="s">
         <v>1008</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>994</v>
-      </c>
-      <c r="D20" s="78" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>993</v>
+      </c>
+      <c r="D21" s="78" t="s">
         <v>1010</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>994</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>584</v>
+      </c>
+      <c r="D22" s="78" t="s">
         <v>1012</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>585</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -11570,7 +11567,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -11579,12 +11576,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -11593,12 +11590,12 @@
         <v>184</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -11607,40 +11604,40 @@
         <v>184</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -11649,12 +11646,12 @@
         <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -11663,40 +11660,40 @@
         <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -11705,21 +11702,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -11751,7 +11748,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>157</v>
@@ -11765,7 +11762,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -11774,26 +11771,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
+        <v>887</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>790</v>
+      </c>
+      <c r="D4" s="80" t="s">
         <v>888</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>791</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -11802,54 +11799,54 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
+        <v>891</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>790</v>
+      </c>
+      <c r="D6" s="80" t="s">
         <v>892</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>791</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>923</v>
+      </c>
+      <c r="D8" s="80" t="s">
         <v>1016</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>924</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -11858,26 +11855,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="80" t="s">
         <v>1020</v>
       </c>
-      <c r="B10" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="80" t="s">
+      <c r="D10" s="80" t="s">
         <v>1021</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -11886,40 +11883,40 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
+        <v>981</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="80" t="s">
         <v>982</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -11928,12 +11925,12 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>130</v>
@@ -11947,21 +11944,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
+        <v>969</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="80" t="s">
         <v>970</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="80" t="s">
+      <c r="D16" s="80" t="s">
         <v>971</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -11970,12 +11967,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -11984,12 +11981,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -11998,12 +11995,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>130</v>
@@ -12017,35 +12014,35 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
+        <v>977</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>970</v>
+      </c>
+      <c r="D21" s="80" t="s">
         <v>978</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>971</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D22" s="80" t="s">
         <v>1026</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>157</v>
@@ -12086,21 +12083,21 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="82" t="s">
         <v>1029</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>130</v>
@@ -12114,7 +12111,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>130</v>
@@ -12128,7 +12125,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12137,35 +12134,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="82" t="s">
         <v>1035</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="82" t="s">
+      <c r="D6" s="82" t="s">
         <v>1036</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="82" t="s">
         <v>1038</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="82" t="s">
+      <c r="D7" s="82" t="s">
         <v>1039</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -12197,7 +12194,7 @@
     </row>
     <row r="2">
       <c r="A2" s="84" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B2" s="84" t="s">
         <v>162</v>
@@ -12211,16 +12208,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>1041</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="84" t="s">
         <v>1042</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -12266,21 +12263,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>1044</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="86" t="s">
+      <c r="D3" s="86" t="s">
         <v>1045</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12289,7 +12286,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -12310,7 +12307,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12335,16 +12332,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>1050</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="88" t="s">
+      <c r="D3" s="88" t="s">
         <v>1051</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="4">
@@ -12355,10 +12352,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D4" s="88" t="s">
         <v>1053</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -12379,7 +12376,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>162</v>
@@ -12393,10 +12390,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -12421,72 +12418,72 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -12528,15 +12525,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -12545,35 +12542,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -12594,7 +12591,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12619,63 +12616,63 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>371</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>376</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -12684,26 +12681,26 @@
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>381</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -12712,40 +12709,40 @@
         <v>96</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>385</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
@@ -12754,12 +12751,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -12768,12 +12765,12 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>196</v>
@@ -12787,7 +12784,7 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>196</v>
@@ -12801,7 +12798,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -12810,7 +12807,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -12834,7 +12831,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12859,72 +12856,72 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>400</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>403</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>405</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>408</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -12959,119 +12956,119 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>414</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>417</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>420</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>426</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>429</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>432</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>435</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>5</v>
@@ -13080,7 +13077,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -664,7 +664,7 @@
     <t>idRiconoscimentoSentenza</t>
   </si>
   <si>
-    <t>Identificativo ricoscimento.</t>
+    <t>Identificativo ricoscimento. (decodifica ANSC_98)</t>
   </si>
   <si>
     <t>Identificativo dell'atto collegato.</t>
@@ -970,7 +970,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@e7b7395</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@3794621d</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -2269,7 +2269,7 @@
     <t>1 = madre, 2 = padre, 3 = entrambi</t>
   </si>
   <si>
-    <t>Genitore che ha la cittadinanza italiana (decodifica ANSC_97)</t>
+    <t>Genitore che ha la cittadinanza italiana (decodifica ANSC_88)</t>
   </si>
   <si>
     <t>dataUltimoLuogo</t>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1054">
   <si>
     <t>Campo</t>
   </si>
@@ -447,10 +447,13 @@
     <t>ufficialeStatoCivile</t>
   </si>
   <si>
+    <t>-- DEPRECATO -- usare i campi relativi all operatore</t>
+  </si>
+  <si>
+    <t>madre</t>
+  </si>
+  <si>
     <t>#/components/schemas/ModelSoggetto</t>
-  </si>
-  <si>
-    <t>madre</t>
   </si>
   <si>
     <t>padre</t>
@@ -970,7 +973,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@3794621d</t>
+    <t>freemarker.template.FalseTemplateBooleanModel@434896b0</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -1279,9 +1282,6 @@
     <t>rilasciatoDa</t>
   </si>
   <si>
-    <t>Comune di Cesena</t>
-  </si>
-  <si>
     <t>Informazione sull'ente che ha rilasciato il documento di riconoscimento (decodifica ANSC_20).</t>
   </si>
   <si>
@@ -1405,9 +1405,6 @@
     <t>comprensione</t>
   </si>
   <si>
-    <t>sordomuto che sa leggere e scrivere</t>
-  </si>
-  <si>
     <t>comprensione dichiarante (decodifica ANSC_32)</t>
   </si>
   <si>
@@ -2185,7 +2182,7 @@
     <t>tipoEventoCittadinanza</t>
   </si>
   <si>
-    <t>Tipo Evento Cittadinanza</t>
+    <t>Tipo Evento Cittadinanza  (decodifica ANSC_84)</t>
   </si>
   <si>
     <t>dataAccertamento</t>
@@ -2266,9 +2263,6 @@
     <t>genitoreConCittadinanza</t>
   </si>
   <si>
-    <t>1 = madre, 2 = padre, 3 = entrambi</t>
-  </si>
-  <si>
     <t>Genitore che ha la cittadinanza italiana (decodifica ANSC_88)</t>
   </si>
   <si>
@@ -3095,6 +3089,12 @@
   </si>
   <si>
     <t>Testo della trascrizione dell'accordo</t>
+  </si>
+  <si>
+    <t>tipoProvvedimento</t>
+  </si>
+  <si>
+    <t>Tipo provvedimento (decodifica ANSC_99)</t>
   </si>
   <si>
     <t>attoUnioneCivile</t>
@@ -4439,13 +4439,13 @@
         <v>129</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49">
@@ -4453,7 +4453,7 @@
         <v>131</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>64</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>64</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>64</v>
@@ -4492,10 +4492,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>64</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>64</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>64</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>64</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>64</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>64</v>
@@ -4576,10 +4576,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>64</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>64</v>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>64</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>64</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>64</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>64</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>64</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>64</v>
@@ -4702,10 +4702,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>64</v>
@@ -4716,10 +4716,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>64</v>
@@ -4730,10 +4730,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>64</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>64</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>64</v>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>64</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>64</v>
@@ -4800,10 +4800,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>64</v>
@@ -4814,10 +4814,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>64</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>64</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>64</v>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>64</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>64</v>
@@ -4884,10 +4884,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>64</v>
@@ -4898,10 +4898,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>64</v>
@@ -4912,24 +4912,24 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>64</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>64</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>64</v>
@@ -4968,35 +4968,35 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>5</v>
@@ -5005,7 +5005,7 @@
         <v>64</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5043,7 +5043,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>438</v>
@@ -5057,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>440</v>
@@ -5085,7 +5085,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>445</v>
@@ -5113,24 +5113,24 @@
         <v>5</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>452</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5162,21 +5162,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>455</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5185,12 +5185,12 @@
         <v>66</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5199,12 +5199,12 @@
         <v>69</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5213,12 +5213,12 @@
         <v>72</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5227,40 +5227,40 @@
         <v>72</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>464</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>467</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
@@ -5269,110 +5269,110 @@
         <v>425</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>472</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>477</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>480</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>483</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>486</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>489</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5381,40 +5381,40 @@
         <v>35</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="D19" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5423,21 +5423,21 @@
         <v>45</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>502</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -5469,49 +5469,49 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>504</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>507</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>510</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5520,7 +5520,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5561,12 +5561,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -5575,7 +5575,7 @@
         <v>131</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -5616,21 +5616,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>519</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="4">
@@ -5649,10 +5649,10 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>64</v>
@@ -5663,10 +5663,10 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>64</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>64</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5741,12 +5741,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5755,43 +5755,43 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>528</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>531</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>64</v>
@@ -5802,21 +5802,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>535</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -5825,68 +5825,68 @@
         <v>78</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>59</v>
@@ -5895,26 +5895,26 @@
         <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>550</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>122</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>64</v>
@@ -5969,30 +5969,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>554</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>555</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>558</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -6024,24 +6024,24 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>64</v>
@@ -6052,10 +6052,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>563</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>564</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>64</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>64</v>
@@ -6096,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6121,30 +6121,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>567</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>570</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -6168,7 +6168,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6193,21 +6193,21 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="38" t="s">
         <v>574</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>5</v>
@@ -6216,7 +6216,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -6274,7 +6274,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
@@ -6288,7 +6288,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
@@ -6302,7 +6302,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6">
@@ -6316,7 +6316,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
@@ -6327,24 +6327,24 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -6358,7 +6358,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -6400,7 +6400,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13">
@@ -6411,10 +6411,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14">
@@ -6428,7 +6428,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15">
@@ -6461,7 +6461,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -6489,21 +6489,21 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -6512,49 +6512,49 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
@@ -6596,7 +6596,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6617,7 +6617,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -6651,43 +6651,43 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>581</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>583</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>584</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>64</v>
@@ -6698,10 +6698,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>64</v>
@@ -6712,10 +6712,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>64</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>128</v>
@@ -6783,10 +6783,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6797,10 +6797,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -6834,12 +6834,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -6848,82 +6848,82 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>596</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>598</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>600</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>604</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -6932,15 +6932,15 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>64</v>
@@ -6951,21 +6951,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
+        <v>608</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>609</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="D13" s="44" t="s">
         <v>610</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -6974,26 +6974,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
+        <v>613</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>614</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7002,85 +7002,85 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
+        <v>617</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="44" t="s">
+      <c r="D18" s="44" t="s">
         <v>619</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
+        <v>620</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="D19" s="44" t="s">
         <v>622</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
+        <v>623</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="44" t="s">
+      <c r="D20" s="44" t="s">
         <v>625</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
+        <v>626</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>583</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>627</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>584</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>64</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>64</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>59</v>
@@ -7114,7 +7114,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -7139,7 +7139,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7150,10 +7150,10 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7164,10 +7164,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -7201,21 +7201,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
+        <v>635</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>636</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>59</v>
@@ -7261,15 +7261,15 @@
         <v>60</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>640</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>641</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>64</v>
@@ -7280,77 +7280,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="D4" s="48" t="s">
         <v>643</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>645</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
+        <v>646</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>647</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="D6" s="48" t="s">
         <v>648</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
+        <v>649</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>650</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="48" t="s">
+      <c r="D7" s="48" t="s">
         <v>651</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
+        <v>652</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>653</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>654</v>
-      </c>
       <c r="D8" s="48" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>59</v>
@@ -7359,12 +7359,12 @@
         <v>60</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -7373,26 +7373,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>659</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>550</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -7401,26 +7401,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>663</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -7429,12 +7429,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -7443,26 +7443,26 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="48" t="s">
+        <v>668</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>669</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>5</v>
@@ -7471,54 +7471,54 @@
         <v>75</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="48" t="s">
+        <v>672</v>
+      </c>
+      <c r="D18" s="48" t="s">
         <v>673</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
+        <v>674</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>675</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>669</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>677</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="48" t="s">
+      <c r="D20" s="48" t="s">
         <v>678</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -7527,15 +7527,15 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>64</v>
@@ -7546,21 +7546,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="D23" s="48" t="s">
         <v>682</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -7569,15 +7569,15 @@
         <v>60</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C25" s="48" t="s">
         <v>64</v>
@@ -7588,105 +7588,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>687</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="48" t="s">
+      <c r="D26" s="48" t="s">
         <v>688</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="D27" s="48" t="s">
         <v>690</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>678</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="D28" s="48" t="s">
         <v>692</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>678</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
+        <v>693</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="D29" s="48" t="s">
         <v>694</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>678</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
+        <v>695</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="D30" s="48" t="s">
         <v>696</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>678</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
+        <v>697</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>698</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="48" t="s">
+      <c r="D31" s="48" t="s">
         <v>699</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
+        <v>700</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>647</v>
+      </c>
+      <c r="D32" s="48" t="s">
         <v>701</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>648</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>59</v>
@@ -7695,26 +7695,26 @@
         <v>60</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
+        <v>704</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="48" t="s">
         <v>705</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="48" t="s">
+      <c r="D34" s="48" t="s">
         <v>706</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -7723,7 +7723,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -7741,10 +7741,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7755,10 +7755,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7783,63 +7783,63 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>710</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="50" t="s">
         <v>711</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>713</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="D5" s="50" t="s">
         <v>714</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>716</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
+        <v>717</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>718</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -7848,85 +7848,85 @@
         <v>78</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
+        <v>721</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>722</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="50" t="s">
+      <c r="D9" s="50" t="s">
         <v>723</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
+        <v>724</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>725</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>727</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="50" t="s">
+      <c r="D11" s="50" t="s">
         <v>728</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>731</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="50" t="s">
+      <c r="D13" s="50" t="s">
         <v>732</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>64</v>
@@ -7937,16 +7937,16 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
+        <v>734</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>735</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>736</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -7968,10 +7968,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7982,10 +7982,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8010,21 +8010,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8033,12 +8033,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>63</v>
@@ -8052,10 +8052,10 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>64</v>
@@ -8083,10 +8083,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8125,24 +8125,24 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
+        <v>742</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>743</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>744</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>745</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="54" t="s">
         <v>64</v>
@@ -8170,10 +8170,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8184,10 +8184,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>59</v>
@@ -8221,15 +8221,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>64</v>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>64</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8263,7 +8263,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -8285,10 +8285,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8299,10 +8299,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8336,29 +8336,29 @@
         <v>64</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
+        <v>742</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>744</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>745</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>64</v>
@@ -8406,141 +8406,141 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -8549,82 +8549,82 @@
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -8633,68 +8633,68 @@
         <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -8703,26 +8703,26 @@
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -8731,12 +8731,12 @@
         <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
@@ -8745,26 +8745,26 @@
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -8773,57 +8773,57 @@
         <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>64</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>64</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -8884,12 +8884,12 @@
         <v>66</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -8898,12 +8898,12 @@
         <v>69</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -8912,12 +8912,12 @@
         <v>72</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -8926,40 +8926,40 @@
         <v>72</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
@@ -8968,35 +8968,35 @@
         <v>425</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
+        <v>770</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>772</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>773</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>63</v>
@@ -9042,35 +9042,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9079,54 +9079,54 @@
         <v>40</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>494</v>
+        <v>15</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>5</v>
@@ -9135,26 +9135,26 @@
         <v>27</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
+        <v>787</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>788</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>789</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>790</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
@@ -9163,43 +9163,43 @@
         <v>27</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
+        <v>794</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>795</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>796</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>797</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>64</v>
@@ -9210,10 +9210,10 @@
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>64</v>
@@ -9224,10 +9224,10 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>64</v>
@@ -9238,10 +9238,10 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>64</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>5</v>
@@ -9261,15 +9261,15 @@
         <v>15</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>64</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>59</v>
@@ -9289,15 +9289,15 @@
         <v>60</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>64</v>
@@ -9308,10 +9308,10 @@
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>64</v>
@@ -9322,7 +9322,7 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>59</v>
@@ -9331,12 +9331,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>59</v>
@@ -9345,15 +9345,15 @@
         <v>60</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>64</v>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>59</v>
@@ -9373,15 +9373,15 @@
         <v>60</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>64</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>59</v>
@@ -9401,15 +9401,15 @@
         <v>60</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>64</v>
@@ -9420,7 +9420,7 @@
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>5</v>
@@ -9429,12 +9429,12 @@
         <v>15</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>5</v>
@@ -9443,29 +9443,29 @@
         <v>27</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>64</v>
@@ -9476,10 +9476,10 @@
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>64</v>
@@ -9490,10 +9490,10 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>64</v>
@@ -9504,10 +9504,10 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>64</v>
@@ -9518,10 +9518,10 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" s="62" t="s">
         <v>64</v>
@@ -9532,10 +9532,10 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>64</v>
@@ -9546,147 +9546,147 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
+        <v>835</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="D40" s="62" t="s">
         <v>837</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>838</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
+        <v>842</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>843</v>
+      </c>
+      <c r="D43" s="62" t="s">
         <v>844</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>845</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
+        <v>846</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>847</v>
+      </c>
+      <c r="D45" s="62" t="s">
         <v>848</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>849</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
+        <v>851</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>852</v>
+      </c>
+      <c r="D47" s="62" t="s">
         <v>853</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>854</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
+        <v>854</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>855</v>
+      </c>
+      <c r="D48" s="62" t="s">
         <v>856</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>857</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
@@ -9695,26 +9695,26 @@
         <v>64</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>5</v>
@@ -9723,12 +9723,12 @@
         <v>15</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>122</v>
@@ -9737,29 +9737,29 @@
         <v>64</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
+        <v>865</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>866</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="62" t="s">
         <v>867</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>868</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="62" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54" s="62" t="s">
         <v>64</v>
@@ -9770,21 +9770,21 @@
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
+        <v>869</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>870</v>
+      </c>
+      <c r="D55" s="62" t="s">
         <v>871</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>872</v>
-      </c>
-      <c r="D55" s="62" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>59</v>
@@ -9793,12 +9793,12 @@
         <v>60</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>5</v>
@@ -9807,15 +9807,15 @@
         <v>15</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C58" s="62" t="s">
         <v>64</v>
@@ -9826,10 +9826,10 @@
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>64</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>63</v>
@@ -9881,35 +9881,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -9918,57 +9918,57 @@
         <v>40</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>64</v>
@@ -9979,10 +9979,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -10002,26 +10002,26 @@
         <v>27</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10030,43 +10030,43 @@
         <v>27</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
+        <v>794</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>795</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>796</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>64</v>
@@ -10077,10 +10077,10 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C17" s="64" t="s">
         <v>64</v>
@@ -10091,10 +10091,10 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C18" s="64" t="s">
         <v>64</v>
@@ -10105,10 +10105,10 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>64</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>5</v>
@@ -10128,15 +10128,15 @@
         <v>15</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>64</v>
@@ -10147,10 +10147,10 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>64</v>
@@ -10161,10 +10161,10 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>64</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>59</v>
@@ -10184,15 +10184,15 @@
         <v>60</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>64</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>59</v>
@@ -10212,15 +10212,15 @@
         <v>60</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>64</v>
@@ -10231,10 +10231,10 @@
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C28" s="64" t="s">
         <v>64</v>
@@ -10245,10 +10245,10 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>64</v>
@@ -10259,10 +10259,10 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>64</v>
@@ -10273,147 +10273,147 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
+        <v>842</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>843</v>
+      </c>
+      <c r="D35" s="64" t="s">
         <v>844</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
+        <v>846</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>904</v>
+      </c>
+      <c r="D37" s="64" t="s">
         <v>848</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>906</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
+        <v>851</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="D39" s="64" t="s">
         <v>853</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>854</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
+        <v>854</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="D40" s="64" t="s">
         <v>856</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>908</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
@@ -10422,15 +10422,15 @@
         <v>15</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>64</v>
@@ -10441,10 +10441,10 @@
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>5</v>
@@ -10464,15 +10464,15 @@
         <v>27</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>64</v>
@@ -10510,72 +10510,72 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
+        <v>913</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>914</v>
+      </c>
+      <c r="D3" s="66" t="s">
         <v>915</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>916</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
+        <v>920</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>921</v>
+      </c>
+      <c r="D6" s="66" t="s">
         <v>922</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>923</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -10616,12 +10616,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10630,12 +10630,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -10644,12 +10644,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10658,35 +10658,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
+        <v>927</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>928</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>929</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>930</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
+        <v>930</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>931</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>932</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>933</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -10718,7 +10718,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -10727,12 +10727,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -10741,91 +10741,91 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>945</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>946</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
+        <v>946</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>947</v>
+      </c>
+      <c r="D8" s="70" t="s">
         <v>948</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>949</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>950</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>951</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>952</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -10857,10 +10857,10 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="72" t="s">
         <v>64</v>
@@ -10871,10 +10871,10 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" s="72" t="s">
         <v>64</v>
@@ -10885,16 +10885,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10926,7 +10926,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -10935,12 +10935,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>122</v>
@@ -10949,15 +10949,15 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>64</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11004,12 +11004,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11018,12 +11018,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11032,15 +11032,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>64</v>
@@ -11051,21 +11051,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
+        <v>967</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>968</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>969</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>970</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11074,12 +11074,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11088,15 +11088,15 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="76" t="s">
         <v>64</v>
@@ -11107,24 +11107,24 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>64</v>
@@ -11135,21 +11135,21 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11158,29 +11158,29 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
+        <v>981</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>982</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>983</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>984</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" s="76" t="s">
         <v>64</v>
@@ -11191,10 +11191,10 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="76" t="s">
         <v>64</v>
@@ -11205,16 +11205,16 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
+        <v>985</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>986</v>
+      </c>
+      <c r="D17" s="76" t="s">
         <v>987</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>988</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -11224,7 +11224,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11246,7 +11246,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11255,12 +11255,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11269,12 +11269,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11283,15 +11283,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>64</v>
@@ -11302,21 +11302,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
+        <v>967</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>968</v>
+      </c>
+      <c r="D6" s="78" t="s">
         <v>969</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>970</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11325,12 +11325,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11339,15 +11339,15 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="78" t="s">
         <v>64</v>
@@ -11358,24 +11358,24 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>64</v>
@@ -11386,10 +11386,10 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="78" t="s">
         <v>64</v>
@@ -11400,66 +11400,66 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
+        <v>990</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>991</v>
+      </c>
+      <c r="D13" s="78" t="s">
         <v>992</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>993</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
+        <v>993</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>994</v>
+      </c>
+      <c r="D14" s="78" t="s">
         <v>995</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>996</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>64</v>
@@ -11470,71 +11470,85 @@
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>583</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="78" t="s">
         <v>1011</v>
       </c>
-      <c r="B22" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>584</v>
-      </c>
-      <c r="D22" s="78" t="s">
+      <c r="B23" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="78" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -11567,7 +11581,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -11576,68 +11590,68 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -11646,12 +11660,12 @@
         <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -11660,40 +11674,40 @@
         <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -11702,21 +11716,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -11751,7 +11765,7 @@
         <v>1013</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>64</v>
@@ -11762,7 +11776,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -11771,26 +11785,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -11799,32 +11813,32 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>1014</v>
@@ -11838,7 +11852,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D8" s="80" t="s">
         <v>1016</v>
@@ -11888,13 +11902,13 @@
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>1024</v>
@@ -11902,7 +11916,7 @@
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -11911,12 +11925,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -11925,15 +11939,15 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" s="80" t="s">
         <v>64</v>
@@ -11944,21 +11958,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
+        <v>967</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>968</v>
+      </c>
+      <c r="D16" s="80" t="s">
         <v>969</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>970</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -11967,12 +11981,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -11981,12 +11995,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -11995,15 +12009,15 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>64</v>
@@ -12014,21 +12028,21 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
@@ -12045,7 +12059,7 @@
         <v>1027</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>64</v>
@@ -12100,7 +12114,7 @@
         <v>1030</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>64</v>
@@ -12114,7 +12128,7 @@
         <v>1031</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="82" t="s">
         <v>64</v>
@@ -12194,10 +12208,10 @@
     </row>
     <row r="2">
       <c r="A2" s="84" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>64</v>
@@ -12249,10 +12263,10 @@
     </row>
     <row r="2">
       <c r="A2" s="86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>64</v>
@@ -12346,7 +12360,7 @@
     </row>
     <row r="4">
       <c r="A4" s="88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" s="88" t="s">
         <v>5</v>
@@ -12376,10 +12390,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12390,10 +12404,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -12418,72 +12432,72 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -12525,15 +12539,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -12542,35 +12556,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -12591,7 +12605,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12616,35 +12630,35 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -12653,26 +12667,26 @@
         <v>64</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -12681,26 +12695,26 @@
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -12709,12 +12723,12 @@
         <v>96</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -12723,26 +12737,26 @@
         <v>64</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
@@ -12751,12 +12765,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -12765,15 +12779,15 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>64</v>
@@ -12784,10 +12798,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>64</v>
@@ -12798,7 +12812,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -12807,7 +12821,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -12831,7 +12845,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12856,55 +12870,55 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>407</v>
+        <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>408</v>
@@ -13068,7 +13082,7 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>5</v>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1064">
   <si>
     <t>Campo</t>
   </si>
@@ -390,7 +390,7 @@
     <t>datiRiconoscimento</t>
   </si>
   <si>
-    <t>-- DEPRECATO -- usare datiProdotti</t>
+    <t>-- DEPRECATO -- usare datiProdotti (Deprecato)</t>
   </si>
   <si>
     <t>sentenzaFiglioIncestuoso</t>
@@ -447,7 +447,7 @@
     <t>ufficialeStatoCivile</t>
   </si>
   <si>
-    <t>-- DEPRECATO -- usare i campi relativi all operatore</t>
+    <t>-- DEPRECATO -- usare i campi relativi all operatore (Deprecato)</t>
   </si>
   <si>
     <t>madre</t>
@@ -877,7 +877,7 @@
     <t>ITALIA</t>
   </si>
   <si>
-    <t>Nome dello Stato di Nascita</t>
+    <t>Nome dello Stato di Nascita ( Arbitrario se ID='200' altrimenti DENOMINAZIONE della tabella ANPR 02)</t>
   </si>
   <si>
     <t>idComuneResidenza</t>
@@ -973,7 +973,7 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>freemarker.template.FalseTemplateBooleanModel@434896b0</t>
+    <t>false</t>
   </si>
   <si>
     <t>Indica se il soggetto è il dichiarante</t>
@@ -1372,7 +1372,7 @@
     <t>ruolo</t>
   </si>
   <si>
-    <t>Ruolo del dichiarante (decodifica ANSC_4)</t>
+    <t>Ruolo del dichiarante (decodifica ANSC_4) (Deprecato)</t>
   </si>
   <si>
     <t>tipoProcura</t>
@@ -1651,7 +1651,7 @@
     <t>Ufficiale di polizia</t>
   </si>
   <si>
-    <t>Indica a chi è stato reso il consenso -- DEPRECATO -- Usare assensoAtto</t>
+    <t>Indica a chi è stato reso il consenso -- DEPRECATO -- Usare assensoAtto (Deprecato)</t>
   </si>
   <si>
     <t>assensoAtto</t>
@@ -2695,6 +2695,39 @@
     <t>impedimentoSposa</t>
   </si>
   <si>
+    <t>tipoAssistenteSposo</t>
+  </si>
+  <si>
+    <t>Tipo assistenza minori (decodifica ANSC_51)</t>
+  </si>
+  <si>
+    <t>tipoAssistenteSposa</t>
+  </si>
+  <si>
+    <t>padreSposo</t>
+  </si>
+  <si>
+    <t>padreSposa</t>
+  </si>
+  <si>
+    <t>madreSposo</t>
+  </si>
+  <si>
+    <t>madreSposa</t>
+  </si>
+  <si>
+    <t>assistenteLegaleSposo</t>
+  </si>
+  <si>
+    <t>assistenteLegaleSposa</t>
+  </si>
+  <si>
+    <t>nominaAssistenteLegaleSposo</t>
+  </si>
+  <si>
+    <t>nominaAssistenteLegaleSposa</t>
+  </si>
+  <si>
     <t>Data celebrazione unione civile</t>
   </si>
   <si>
@@ -2911,7 +2944,7 @@
     <t>array[#/components/schemas/ModelAssistenzaMinori]</t>
   </si>
   <si>
-    <t>lista contenente i dati degli assistenti dei minori (0=Sposo,1=Sposa)</t>
+    <t>lista contenente i dati degli assistenti dei minori (0=Sposo,1=Sposa) (Deprecato)</t>
   </si>
   <si>
     <t>provvedimentoSeparazione</t>
@@ -2924,9 +2957,6 @@
   </si>
   <si>
     <t>tipoAssistente</t>
-  </si>
-  <si>
-    <t>Tipo assistenza minori (decodifica ANSC_51)</t>
   </si>
   <si>
     <t>assistente</t>
@@ -9006,7 +9036,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9835,6 +9865,146 @@
         <v>64</v>
       </c>
       <c r="D59" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="62" t="s">
+        <v>879</v>
+      </c>
+      <c r="B60" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="62" t="s">
+        <v>881</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="62" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="62" t="s">
+        <v>882</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="62" t="s">
+        <v>883</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="62" t="s">
+        <v>884</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="62" t="s">
+        <v>885</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="62" t="s">
+        <v>886</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="62" t="s">
+        <v>887</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="62" t="s">
+        <v>888</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="62" t="s">
+        <v>889</v>
+      </c>
+      <c r="B69" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -9890,7 +10060,7 @@
         <v>647</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4">
@@ -9965,10 +10135,10 @@
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>64</v>
@@ -9979,10 +10149,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -9993,7 +10163,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -10002,12 +10172,12 @@
         <v>27</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
@@ -10016,12 +10186,12 @@
         <v>788</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10030,12 +10200,12 @@
         <v>27</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
@@ -10044,7 +10214,7 @@
         <v>788</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15">
@@ -10147,7 +10317,7 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>158</v>
@@ -10161,7 +10331,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>158</v>
@@ -10184,7 +10354,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25">
@@ -10212,7 +10382,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="27">
@@ -10273,7 +10443,7 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>59</v>
@@ -10282,12 +10452,12 @@
         <v>305</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>5</v>
@@ -10296,12 +10466,12 @@
         <v>836</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>59</v>
@@ -10310,12 +10480,12 @@
         <v>305</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>5</v>
@@ -10324,7 +10494,7 @@
         <v>836</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35">
@@ -10349,7 +10519,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="D36" s="64" t="s">
         <v>844</v>
@@ -10363,7 +10533,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="D37" s="64" t="s">
         <v>848</v>
@@ -10377,10 +10547,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
     </row>
     <row r="39">
@@ -10405,7 +10575,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="D40" s="64" t="s">
         <v>856</v>
@@ -10413,7 +10583,7 @@
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
@@ -10455,7 +10625,7 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>5</v>
@@ -10464,12 +10634,12 @@
         <v>27</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>877</v>
@@ -10510,35 +10680,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -10547,35 +10717,35 @@
         <v>668</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -10616,12 +10786,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10630,7 +10800,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4">
@@ -10644,12 +10814,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10658,35 +10828,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -10718,7 +10888,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -10727,12 +10897,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -10741,12 +10911,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
@@ -10755,12 +10925,12 @@
         <v>618</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
@@ -10769,12 +10939,12 @@
         <v>506</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
@@ -10783,49 +10953,49 @@
         <v>261</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -10871,7 +11041,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>163</v>
@@ -10885,7 +11055,7 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
@@ -10894,7 +11064,7 @@
         <v>852</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -10926,7 +11096,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -10935,12 +11105,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>956</v>
+        <v>880</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>122</v>
@@ -10949,12 +11119,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>163</v>
@@ -10995,7 +11165,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11004,12 +11174,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11018,12 +11188,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11032,12 +11202,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>132</v>
@@ -11051,21 +11221,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11074,12 +11244,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11088,12 +11258,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>132</v>
@@ -11107,16 +11277,16 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
     </row>
     <row r="11">
@@ -11135,7 +11305,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
@@ -11144,12 +11314,12 @@
         <v>305</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11158,26 +11328,26 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>158</v>
@@ -11191,7 +11361,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>163</v>
@@ -11205,16 +11375,16 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -11246,7 +11416,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11255,12 +11425,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11269,12 +11439,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11283,12 +11453,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>132</v>
@@ -11302,21 +11472,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11325,12 +11495,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11339,12 +11509,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>132</v>
@@ -11358,16 +11528,16 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
     </row>
     <row r="11">
@@ -11386,7 +11556,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>163</v>
@@ -11400,63 +11570,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>163</v>
@@ -11470,63 +11640,63 @@
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="78" t="s">
         <v>1001</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>991</v>
-      </c>
       <c r="D18" s="78" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
@@ -11535,12 +11705,12 @@
         <v>583</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
@@ -11549,7 +11719,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -11762,7 +11932,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>158</v>
@@ -11776,7 +11946,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -11785,12 +11955,12 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
@@ -11799,12 +11969,12 @@
         <v>788</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -11813,12 +11983,12 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
@@ -11827,7 +11997,7 @@
         <v>788</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7">
@@ -11838,29 +12008,29 @@
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -11869,26 +12039,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -11897,12 +12067,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
@@ -11911,12 +12081,12 @@
         <v>305</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -11925,12 +12095,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -11939,12 +12109,12 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>132</v>
@@ -11958,21 +12128,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -11981,12 +12151,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -11995,12 +12165,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -12009,12 +12179,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>132</v>
@@ -12028,35 +12198,35 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>158</v>
@@ -12097,7 +12267,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12106,12 +12276,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>132</v>
@@ -12125,7 +12295,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>132</v>
@@ -12139,7 +12309,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12148,35 +12318,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -12222,16 +12392,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -12277,21 +12447,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12300,7 +12470,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -12321,7 +12491,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12346,16 +12516,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4">
@@ -12366,10 +12536,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1070">
   <si>
     <t>Campo</t>
   </si>
@@ -345,16 +345,19 @@
     <t>ausilioInterprete</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Indica se e' stato necessario l'ausilio di un interprete (comportamento Boolean 'true'/'false').</t>
+  </si>
+  <si>
+    <t>conTestimoni</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>Indica se e' stato necessario l'ausilio di un interprete.</t>
-  </si>
-  <si>
-    <t>conTestimoni</t>
-  </si>
-  <si>
-    <t>Indica se la dichiarazione e' stata resa con testimoni.</t>
+    <t>-- DEPRECATO -- Indica se la dichiarazione e' stata resa con testimoni. (Deprecato)</t>
   </si>
   <si>
     <t>noteRitardo</t>
@@ -435,7 +438,7 @@
     <t>array[#/components/schemas/ModelVariazioni]</t>
   </si>
   <si>
-    <t>lista delle variazioni effettuate sull'atto.</t>
+    <t>-- DEPRECATO -- lista delle variazioni effettuate sull'atto. (Deprecato)</t>
   </si>
   <si>
     <t>enteDichiarante</t>
@@ -664,6 +667,12 @@
     <t>Composizione completa dell'atto</t>
   </si>
   <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Indica se l'annotazione è certificabile o meno (true=NON CERTIFICABILE, false=CERTIFICABILE)</t>
+  </si>
+  <si>
     <t>idRiconoscimentoSentenza</t>
   </si>
   <si>
@@ -973,9 +982,6 @@
     <t>flagDichiarante</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Indica se il soggetto è il dichiarante</t>
   </si>
   <si>
@@ -1267,10 +1273,7 @@
     <t>tipologiaDocumento</t>
   </si>
   <si>
-    <t>Carta d'identità</t>
-  </si>
-  <si>
-    <t>Tipologia di documento utilizzato per il riconoscimento.</t>
+    <t>Tipologia di documento utilizzato per il riconoscimento (decodifica ANSC_25).</t>
   </si>
   <si>
     <t>dataScadenza</t>
@@ -1876,7 +1879,7 @@
     <t>provvedimentoCambioCognome</t>
   </si>
   <si>
-    <t>Ente che ha ordinato il cambio cognome (1 = Ministero dell'Interno, 2 = Prefettura)</t>
+    <t>Ente che ha ordinato il cambio cognome (decodifica ANSC_85)</t>
   </si>
   <si>
     <t>prefettura</t>
@@ -2062,27 +2065,27 @@
     <t>Tipo di residenza in Italia per richiesta di cittadinanza (decodifica ANSC_57)</t>
   </si>
   <si>
+    <t>Identificativo della provincia del comune in cui si intende prendere la residenza</t>
+  </si>
+  <si>
+    <t>provinciaResidenza</t>
+  </si>
+  <si>
+    <t>Sigla Provincia del comune in cui si intende prendere la residenza</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>ID Comune in cui si è presa, o si intende prendere, la residenza</t>
+  </si>
+  <si>
+    <t>comuneResidenza</t>
+  </si>
+  <si>
     <t>Forlì</t>
   </si>
   <si>
-    <t>Provincia del comune in cui si intende prendere la residenza</t>
-  </si>
-  <si>
-    <t>provinciaResidenza</t>
-  </si>
-  <si>
-    <t>Sigla Provincia del comune in cui si intende prendere la residenza</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>ID Comune in cui si è presa, o si intende prendere, la residenza</t>
-  </si>
-  <si>
-    <t>comuneResidenza</t>
-  </si>
-  <si>
     <t>Comune in cui si è presa, o si intende prendere, la residenza</t>
   </si>
   <si>
@@ -2404,333 +2407,342 @@
     <t>cognomeOfficiante</t>
   </si>
   <si>
+    <t>Cognome officiante quando questo non sia l'USC (Deprecato)</t>
+  </si>
+  <si>
+    <t>nomeOfficiante</t>
+  </si>
+  <si>
+    <t>Nome officiante quando questo non sia l'USC (Deprecato)</t>
+  </si>
+  <si>
+    <t>officianteEvento</t>
+  </si>
+  <si>
+    <t>comprensioneSposo</t>
+  </si>
+  <si>
+    <t>Abilità di comprensione dello sposo (decodifica ANSC_32)</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScritturaSposo</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>Motivo impedimento alla scrittura dello sposo</t>
+  </si>
+  <si>
+    <t>comprensioneSposa</t>
+  </si>
+  <si>
+    <t>Abilità di comprensione della sposa (decodifica ANSC_32)</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScritturaSposa</t>
+  </si>
+  <si>
+    <t>Motivo impedimento alla scrittura della sposa</t>
+  </si>
+  <si>
+    <t>numeroTestimoni</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Numero dei testimoni (massimo 4)</t>
+  </si>
+  <si>
+    <t>testimone1</t>
+  </si>
+  <si>
+    <t>testimone2</t>
+  </si>
+  <si>
+    <t>testimone3</t>
+  </si>
+  <si>
+    <t>testimone4</t>
+  </si>
+  <si>
+    <t>ruoloSegretario</t>
+  </si>
+  <si>
+    <t>Segretario (decodifica ANSC_91)</t>
+  </si>
+  <si>
+    <t>segretarioComunale</t>
+  </si>
+  <si>
+    <t>pubblicazioneInPiuComuni</t>
+  </si>
+  <si>
+    <t>Se il matrimonio ha avuto pubblicazioni in più comuni</t>
+  </si>
+  <si>
+    <t>pubblicazione1</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelPubblicazione</t>
+  </si>
+  <si>
+    <t>pubblicazione2</t>
+  </si>
+  <si>
+    <t>riduzioneTerminiPubblicazione</t>
+  </si>
+  <si>
+    <t>Se il matrimonio prevede termini di riduzione della pubblicazione</t>
+  </si>
+  <si>
+    <t>omissionePubblicazione</t>
+  </si>
+  <si>
+    <t>Se il matrimonio prevede omissione della pubblicazione</t>
+  </si>
+  <si>
+    <t>sentenzaOmissionePubblicazione</t>
+  </si>
+  <si>
+    <t>rigettoOpposizione</t>
+  </si>
+  <si>
+    <t>Se il matrimonio ha un provvedimento di rigetto dell'oppozione</t>
+  </si>
+  <si>
+    <t>provvedimentoRigettoOpposizione</t>
+  </si>
+  <si>
+    <t>estintaOpposizione</t>
+  </si>
+  <si>
+    <t>Se il matrimonio ha un provvedimento di estinzione del giudizio d'oppozione</t>
+  </si>
+  <si>
+    <t>provvedimentoEstinzioneOpposizione</t>
+  </si>
+  <si>
+    <t>difettoEta</t>
+  </si>
+  <si>
+    <t>Se uno degli sposi, o entrambi, hanno un impedimento dovuto all'eta (decodifica ANSC_47)</t>
+  </si>
+  <si>
+    <t>impedimentoParentela</t>
+  </si>
+  <si>
+    <t>Tipo di impedimento (decodifica ANSC_48)</t>
+  </si>
+  <si>
+    <t>divietoTemporaneo</t>
+  </si>
+  <si>
+    <t>Divieto temporaneo di nuove nozze</t>
+  </si>
+  <si>
+    <t>autorizzazioneDifettoEta</t>
+  </si>
+  <si>
+    <t>autorizzazioneParentela</t>
+  </si>
+  <si>
+    <t>autorizzazioneDivietoTemporaneo</t>
+  </si>
+  <si>
+    <t>regimePatrimoniale</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelRegimePatrimoniale</t>
+  </si>
+  <si>
+    <t>attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>attoNascitaSposa</t>
+  </si>
+  <si>
+    <t>sposoInPericoloVita</t>
+  </si>
+  <si>
+    <t>Indica se lo sposo è in pericolo imminente di vita</t>
+  </si>
+  <si>
+    <t>accertamentoVolontaSposo</t>
+  </si>
+  <si>
+    <t>Accertamento</t>
+  </si>
+  <si>
+    <t>Descrizione di come l'USC ha accertato la volontà dello sposo in pericolo di vita</t>
+  </si>
+  <si>
+    <t>sposaInPericoloVita</t>
+  </si>
+  <si>
+    <t>Indica se la sposa è in pericolo imminente di vita</t>
+  </si>
+  <si>
+    <t>accertamentoVolontaSposa</t>
+  </si>
+  <si>
+    <t>Descrizione di come l'USC ha accertato la volontà della sposa in pericolo di vita</t>
+  </si>
+  <si>
+    <t>comuneDelegante</t>
+  </si>
+  <si>
+    <t>2888</t>
+  </si>
+  <si>
+    <t>Comune che richiede la celebrazione per delega</t>
+  </si>
+  <si>
+    <t>nomeComuneDelegante</t>
+  </si>
+  <si>
+    <t>idProvinciaComuneDelegante</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>ID Provincia del comune delegante</t>
+  </si>
+  <si>
+    <t>siglaProvinciaComuneDelegante</t>
+  </si>
+  <si>
+    <t>Sigla della provincia del comune delegante</t>
+  </si>
+  <si>
+    <t>dataDelega</t>
+  </si>
+  <si>
+    <t>2022-07-02</t>
+  </si>
+  <si>
+    <t>Data richiesta delega</t>
+  </si>
+  <si>
+    <t>testoDelega</t>
+  </si>
+  <si>
+    <t>Delega celebrazione matrimonio</t>
+  </si>
+  <si>
+    <t>Testo della richiesta di delega</t>
+  </si>
+  <si>
+    <t>dichiaranteMatrimonioReligioso</t>
+  </si>
+  <si>
+    <t>Chi dichiara l'avvenuto matrimonio con rito religioso (decodifica ANSC_52)</t>
+  </si>
+  <si>
+    <t>riconoscimentoProle</t>
+  </si>
+  <si>
+    <t>Contestualmente al matrimonio c'è il riconoscimento della prole?</t>
+  </si>
+  <si>
+    <t>numeroFigli</t>
+  </si>
+  <si>
+    <t>Numero di figli da riconoscere</t>
+  </si>
+  <si>
+    <t>figli</t>
+  </si>
+  <si>
+    <t>Generalità dei figli in caso di riconoscimento contestuale al matrimonio</t>
+  </si>
+  <si>
+    <t>datiRiconoscimentoFigli</t>
+  </si>
+  <si>
+    <t>array[#/components/schemas/ModelDatiEventoRiconoscimento]</t>
+  </si>
+  <si>
+    <t>Informazioni sul riconoscimento di ogni figlio</t>
+  </si>
+  <si>
+    <t>consensoRiconoscimento</t>
+  </si>
+  <si>
+    <t>descrizioneRitoReligioso</t>
+  </si>
+  <si>
+    <t>cattolico</t>
+  </si>
+  <si>
+    <t>Descrizione Rito Religioso</t>
+  </si>
+  <si>
+    <t>ritoRiconosciuto</t>
+  </si>
+  <si>
+    <t>Altri Riti previsti dalle leggi</t>
+  </si>
+  <si>
+    <t>soggettoImpedimento</t>
+  </si>
+  <si>
+    <t>soggetto con impedimento</t>
+  </si>
+  <si>
+    <t>impedimentoSposo</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelImpedimento</t>
+  </si>
+  <si>
+    <t>impedimentoSposa</t>
+  </si>
+  <si>
+    <t>tipoAssistenteSposo</t>
+  </si>
+  <si>
+    <t>Tipo assistenza minori (decodifica ANSC_51)</t>
+  </si>
+  <si>
+    <t>tipoAssistenteSposa</t>
+  </si>
+  <si>
+    <t>padreSposo</t>
+  </si>
+  <si>
+    <t>padreSposa</t>
+  </si>
+  <si>
+    <t>madreSposo</t>
+  </si>
+  <si>
+    <t>madreSposa</t>
+  </si>
+  <si>
+    <t>assistenteLegaleSposo</t>
+  </si>
+  <si>
+    <t>assistenteLegaleSposa</t>
+  </si>
+  <si>
+    <t>nominaAssistenteLegaleSposo</t>
+  </si>
+  <si>
+    <t>nominaAssistenteLegaleSposa</t>
+  </si>
+  <si>
+    <t>Data celebrazione unione civile</t>
+  </si>
+  <si>
     <t>Cognome officiante quando questo non sia l'USC</t>
   </si>
   <si>
-    <t>nomeOfficiante</t>
-  </si>
-  <si>
     <t>Nome officiante quando questo non sia l'USC</t>
   </si>
   <si>
-    <t>comprensioneSposo</t>
-  </si>
-  <si>
-    <t>Abilità di comprensione dello sposo (decodifica ANSC_32)</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaSposo</t>
-  </si>
-  <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>Motivo impedimento alla scrittura dello sposo</t>
-  </si>
-  <si>
-    <t>comprensioneSposa</t>
-  </si>
-  <si>
-    <t>Abilità di comprensione della sposa (decodifica ANSC_32)</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaSposa</t>
-  </si>
-  <si>
-    <t>Motivo impedimento alla scrittura della sposa</t>
-  </si>
-  <si>
-    <t>numeroTestimoni</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Numero dei testimoni (massimo 4)</t>
-  </si>
-  <si>
-    <t>testimone1</t>
-  </si>
-  <si>
-    <t>testimone2</t>
-  </si>
-  <si>
-    <t>testimone3</t>
-  </si>
-  <si>
-    <t>testimone4</t>
-  </si>
-  <si>
-    <t>ruoloSegretario</t>
-  </si>
-  <si>
-    <t>Segretario (decodifica ANSC_91)</t>
-  </si>
-  <si>
-    <t>segretarioComunale</t>
-  </si>
-  <si>
-    <t>pubblicazioneInPiuComuni</t>
-  </si>
-  <si>
-    <t>Se il matrimonio ha avuto pubblicazioni in più comuni</t>
-  </si>
-  <si>
-    <t>pubblicazione1</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelPubblicazione</t>
-  </si>
-  <si>
-    <t>pubblicazione2</t>
-  </si>
-  <si>
-    <t>riduzioneTerminiPubblicazione</t>
-  </si>
-  <si>
-    <t>Se il matrimonio prevede termini di riduzione della pubblicazione</t>
-  </si>
-  <si>
-    <t>omissionePubblicazione</t>
-  </si>
-  <si>
-    <t>Se il matrimonio prevede omissione della pubblicazione</t>
-  </si>
-  <si>
-    <t>sentenzaOmissionePubblicazione</t>
-  </si>
-  <si>
-    <t>rigettoOpposizione</t>
-  </si>
-  <si>
-    <t>Se il matrimonio ha un provvedimento di rigetto dell'oppozione</t>
-  </si>
-  <si>
-    <t>provvedimentoRigettoOpposizione</t>
-  </si>
-  <si>
-    <t>estintaOpposizione</t>
-  </si>
-  <si>
-    <t>Se il matrimonio ha un provvedimento di estinzione del giudizio d'oppozione</t>
-  </si>
-  <si>
-    <t>provvedimentoEstinzioneOpposizione</t>
-  </si>
-  <si>
-    <t>difettoEta</t>
-  </si>
-  <si>
-    <t>Se uno degli sposi, o entrambi, hanno un impedimento dovuto all'eta (decodifica ANSC_47)</t>
-  </si>
-  <si>
-    <t>impedimentoParentela</t>
-  </si>
-  <si>
-    <t>Tipo di impedimento (decodifica ANSC_48)</t>
-  </si>
-  <si>
-    <t>divietoTemporaneo</t>
-  </si>
-  <si>
-    <t>Divieto temporaneo di nuove nozze</t>
-  </si>
-  <si>
-    <t>autorizzazioneDifettoEta</t>
-  </si>
-  <si>
-    <t>autorizzazioneParentela</t>
-  </si>
-  <si>
-    <t>autorizzazioneDivietoTemporaneo</t>
-  </si>
-  <si>
-    <t>regimePatrimoniale</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelRegimePatrimoniale</t>
-  </si>
-  <si>
-    <t>attoNascitaSposo</t>
-  </si>
-  <si>
-    <t>attoNascitaSposa</t>
-  </si>
-  <si>
-    <t>sposoInPericoloVita</t>
-  </si>
-  <si>
-    <t>Indica se lo sposo è in pericolo imminente di vita</t>
-  </si>
-  <si>
-    <t>accertamentoVolontaSposo</t>
-  </si>
-  <si>
-    <t>Accertamento</t>
-  </si>
-  <si>
-    <t>Descrizione di come l'USC ha accertato la volontà dello sposo in pericolo di vita</t>
-  </si>
-  <si>
-    <t>sposaInPericoloVita</t>
-  </si>
-  <si>
-    <t>Indica se la sposa è in pericolo imminente di vita</t>
-  </si>
-  <si>
-    <t>accertamentoVolontaSposa</t>
-  </si>
-  <si>
-    <t>Descrizione di come l'USC ha accertato la volontà della sposa in pericolo di vita</t>
-  </si>
-  <si>
-    <t>comuneDelegante</t>
-  </si>
-  <si>
-    <t>2888</t>
-  </si>
-  <si>
-    <t>Comune che richiede la celebrazione per delega</t>
-  </si>
-  <si>
-    <t>nomeComuneDelegante</t>
-  </si>
-  <si>
-    <t>idProvinciaComuneDelegante</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>ID Provincia del comune delegante</t>
-  </si>
-  <si>
-    <t>siglaProvinciaComuneDelegante</t>
-  </si>
-  <si>
-    <t>Sigla della provincia del comune delegante</t>
-  </si>
-  <si>
-    <t>dataDelega</t>
-  </si>
-  <si>
-    <t>2022-07-02</t>
-  </si>
-  <si>
-    <t>Data richiesta delega</t>
-  </si>
-  <si>
-    <t>testoDelega</t>
-  </si>
-  <si>
-    <t>Delega celebrazione matrimonio</t>
-  </si>
-  <si>
-    <t>Testo della richiesta di delega</t>
-  </si>
-  <si>
-    <t>dichiaranteMatrimonioReligioso</t>
-  </si>
-  <si>
-    <t>Chi dichiara l'avvenuto matrimonio con rito religioso (decodifica ANSC_52)</t>
-  </si>
-  <si>
-    <t>riconoscimentoProle</t>
-  </si>
-  <si>
-    <t>Contestualmente al matrimonio c'è il riconoscimento della prole?</t>
-  </si>
-  <si>
-    <t>numeroFigli</t>
-  </si>
-  <si>
-    <t>Numero di figli da riconoscere</t>
-  </si>
-  <si>
-    <t>figli</t>
-  </si>
-  <si>
-    <t>Generalità dei figli in caso di riconoscimento contestuale al matrimonio</t>
-  </si>
-  <si>
-    <t>datiRiconoscimentoFigli</t>
-  </si>
-  <si>
-    <t>array[#/components/schemas/ModelDatiEventoRiconoscimento]</t>
-  </si>
-  <si>
-    <t>Informazioni sul riconoscimento di ogni figlio</t>
-  </si>
-  <si>
-    <t>consensoRiconoscimento</t>
-  </si>
-  <si>
-    <t>descrizioneRitoReligioso</t>
-  </si>
-  <si>
-    <t>cattolico</t>
-  </si>
-  <si>
-    <t>Descrizione Rito Religioso</t>
-  </si>
-  <si>
-    <t>ritoRiconosciuto</t>
-  </si>
-  <si>
-    <t>Altri Riti previsti dalle leggi</t>
-  </si>
-  <si>
-    <t>soggettoImpedimento</t>
-  </si>
-  <si>
-    <t>soggetto con impedimento</t>
-  </si>
-  <si>
-    <t>impedimentoSposo</t>
-  </si>
-  <si>
-    <t>#/components/schemas/ModelImpedimento</t>
-  </si>
-  <si>
-    <t>impedimentoSposa</t>
-  </si>
-  <si>
-    <t>tipoAssistenteSposo</t>
-  </si>
-  <si>
-    <t>Tipo assistenza minori (decodifica ANSC_51)</t>
-  </si>
-  <si>
-    <t>tipoAssistenteSposa</t>
-  </si>
-  <si>
-    <t>padreSposo</t>
-  </si>
-  <si>
-    <t>padreSposa</t>
-  </si>
-  <si>
-    <t>madreSposo</t>
-  </si>
-  <si>
-    <t>madreSposa</t>
-  </si>
-  <si>
-    <t>assistenteLegaleSposo</t>
-  </si>
-  <si>
-    <t>assistenteLegaleSposa</t>
-  </si>
-  <si>
-    <t>nominaAssistenteLegaleSposo</t>
-  </si>
-  <si>
-    <t>nominaAssistenteLegaleSposa</t>
-  </si>
-  <si>
-    <t>Data celebrazione unione civile</t>
-  </si>
-  <si>
     <t>certificatoCostituzione1</t>
   </si>
   <si>
@@ -2815,6 +2827,9 @@
     <t>soggettoImpedimentoCivile</t>
   </si>
   <si>
+    <t>soggetto con impedimento (decodifica ANSC_95) (1 = Coniuge 1, 2 = Coniuge 2, 3 = Entrambi Coniugi)</t>
+  </si>
+  <si>
     <t>impedimentoGenerico</t>
   </si>
   <si>
@@ -2842,13 +2857,16 @@
     <t>comuneCertificatoCostituzione</t>
   </si>
   <si>
+    <t>Identificativo del comune del certificato di richiesta di costituzione di Unione Civile</t>
+  </si>
+  <si>
+    <t>nomeComuneCertificatoCostituzione</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
     <t>Comune del certificato di richiesta di costituzione di Unione Civile</t>
-  </si>
-  <si>
-    <t>nomeComuneCertificatoCostituzione</t>
-  </si>
-  <si>
-    <t>Milano</t>
   </si>
   <si>
     <t>dataCertificatoCostituzione</t>
@@ -3800,7 +3818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4290,43 +4308,43 @@
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -4335,12 +4353,12 @@
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -4349,12 +4367,12 @@
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
@@ -4363,12 +4381,12 @@
         <v>64</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>59</v>
@@ -4377,12 +4395,12 @@
         <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>59</v>
@@ -4391,12 +4409,12 @@
         <v>60</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -4405,57 +4423,57 @@
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>64</v>
@@ -4466,7 +4484,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>64</v>
@@ -4475,15 +4493,15 @@
         <v>64</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>64</v>
@@ -4494,10 +4512,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>64</v>
@@ -4508,10 +4526,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>64</v>
@@ -4522,10 +4540,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>64</v>
@@ -4536,10 +4554,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>64</v>
@@ -4550,10 +4568,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>64</v>
@@ -4564,10 +4582,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>64</v>
@@ -4578,10 +4596,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>64</v>
@@ -4592,10 +4610,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>64</v>
@@ -4606,10 +4624,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>64</v>
@@ -4620,10 +4638,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>64</v>
@@ -4634,10 +4652,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>64</v>
@@ -4648,10 +4666,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>64</v>
@@ -4662,10 +4680,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>64</v>
@@ -4676,10 +4694,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>64</v>
@@ -4690,10 +4708,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>64</v>
@@ -4704,10 +4722,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
@@ -4718,10 +4736,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>64</v>
@@ -4732,10 +4750,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>64</v>
@@ -4746,10 +4764,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>64</v>
@@ -4760,10 +4778,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>64</v>
@@ -4774,10 +4792,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>64</v>
@@ -4788,10 +4806,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>64</v>
@@ -4802,10 +4820,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>64</v>
@@ -4816,10 +4834,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>64</v>
@@ -4830,10 +4848,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>64</v>
@@ -4844,10 +4862,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>64</v>
@@ -4858,10 +4876,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>64</v>
@@ -4872,10 +4890,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>64</v>
@@ -4886,10 +4904,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>64</v>
@@ -4900,10 +4918,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>64</v>
@@ -4914,10 +4932,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>64</v>
@@ -4928,10 +4946,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>64</v>
@@ -4942,24 +4960,24 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>64</v>
@@ -4970,10 +4988,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>64</v>
@@ -4984,10 +5002,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>64</v>
@@ -4998,44 +5016,58 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5067,63 +5099,63 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>5</v>
@@ -5132,12 +5164,12 @@
         <v>64</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>5</v>
@@ -5146,21 +5178,21 @@
         <v>15</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5192,21 +5224,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5215,12 +5247,12 @@
         <v>66</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5229,12 +5261,12 @@
         <v>69</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5243,12 +5275,12 @@
         <v>72</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5257,152 +5289,152 @@
         <v>72</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5411,40 +5443,40 @@
         <v>35</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5453,21 +5485,21 @@
         <v>45</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -5499,49 +5531,49 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5550,7 +5582,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5582,7 +5614,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5591,21 +5623,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5669,7 @@
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>5</v>
@@ -5646,26 +5678,26 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>5</v>
@@ -5674,15 +5706,15 @@
         <v>15</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>64</v>
@@ -5693,10 +5725,10 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>64</v>
@@ -5707,10 +5739,10 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>64</v>
@@ -5748,7 +5780,7 @@
     </row>
     <row r="2">
       <c r="A2" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>5</v>
@@ -5757,12 +5789,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5771,12 +5803,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5785,43 +5817,43 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>64</v>
@@ -5832,21 +5864,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -5855,68 +5887,68 @@
         <v>78</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>59</v>
@@ -5925,29 +5957,29 @@
         <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>64</v>
@@ -5958,10 +5990,10 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>64</v>
@@ -5999,30 +6031,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -6054,24 +6086,24 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>64</v>
@@ -6082,10 +6114,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>64</v>
@@ -6096,10 +6128,10 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>64</v>
@@ -6126,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6151,30 +6183,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -6187,7 +6219,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6198,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6223,21 +6255,21 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>5</v>
@@ -6246,7 +6278,21 @@
         <v>15</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>576</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6304,7 +6350,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -6318,7 +6364,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
@@ -6332,7 +6378,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
@@ -6346,7 +6392,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -6357,24 +6403,24 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9">
@@ -6388,7 +6434,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10">
@@ -6430,7 +6476,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13">
@@ -6441,10 +6487,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
@@ -6458,7 +6504,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15">
@@ -6491,7 +6537,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -6505,7 +6551,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -6519,21 +6565,21 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -6542,49 +6588,49 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
@@ -6626,7 +6672,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +6693,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6672,7 +6718,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -6681,43 +6727,43 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>64</v>
@@ -6728,10 +6774,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>64</v>
@@ -6742,10 +6788,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>587</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>586</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>64</v>
@@ -6786,10 +6832,10 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>64</v>
@@ -6813,10 +6859,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6827,10 +6873,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6855,7 +6901,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -6864,12 +6910,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -6878,40 +6924,40 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>5</v>
@@ -6920,40 +6966,40 @@
         <v>64</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -6962,15 +7008,15 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>64</v>
@@ -6981,21 +7027,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -7004,26 +7050,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7032,85 +7078,85 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>64</v>
@@ -7121,10 +7167,10 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>64</v>
@@ -7135,7 +7181,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>59</v>
@@ -7144,7 +7190,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -7169,7 +7215,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7180,10 +7226,10 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7194,10 +7240,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -7222,7 +7268,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -7231,21 +7277,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -7282,7 +7328,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>59</v>
@@ -7291,15 +7337,15 @@
         <v>60</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>64</v>
@@ -7310,77 +7356,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
+        <v>653</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>654</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>652</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>653</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>59</v>
@@ -7389,12 +7435,12 @@
         <v>60</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -7403,26 +7449,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -7431,26 +7477,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -7459,12 +7505,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -7473,18 +7519,18 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>668</v>
+        <v>72</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>669</v>
@@ -7506,7 +7552,7 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>5</v>
@@ -7526,29 +7572,29 @@
         <v>5</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -7557,15 +7603,15 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>64</v>
@@ -7576,21 +7622,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -7599,15 +7645,15 @@
         <v>60</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" s="48" t="s">
         <v>64</v>
@@ -7618,105 +7664,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>59</v>
@@ -7725,26 +7771,26 @@
         <v>60</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -7753,7 +7799,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -7771,10 +7817,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7785,10 +7831,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7813,35 +7859,35 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -7850,26 +7896,26 @@
         <v>64</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -7878,85 +7924,85 @@
         <v>78</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>64</v>
@@ -7967,7 +8013,7 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>5</v>
@@ -7976,7 +8022,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -7998,10 +8044,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8012,10 +8058,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8040,21 +8086,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8063,12 +8109,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>63</v>
@@ -8082,10 +8128,10 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>64</v>
@@ -8113,10 +8159,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8127,10 +8173,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8155,24 +8201,24 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="54" t="s">
         <v>64</v>
@@ -8200,10 +8246,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8214,10 +8260,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8242,7 +8288,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>59</v>
@@ -8251,15 +8297,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>64</v>
@@ -8270,10 +8316,10 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>64</v>
@@ -8284,7 +8330,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8293,7 +8339,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -8315,10 +8361,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8329,10 +8375,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8357,7 +8403,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8366,29 +8412,29 @@
         <v>64</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>64</v>
@@ -8436,141 +8482,141 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -8579,82 +8625,82 @@
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -8663,68 +8709,68 @@
         <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -8733,26 +8779,26 @@
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -8761,12 +8807,12 @@
         <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
@@ -8775,26 +8821,26 @@
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -8803,57 +8849,57 @@
         <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>64</v>
@@ -8864,10 +8910,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>64</v>
@@ -8905,7 +8951,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -8914,12 +8960,12 @@
         <v>66</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -8928,12 +8974,12 @@
         <v>69</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -8942,12 +8988,12 @@
         <v>72</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -8956,77 +9002,77 @@
         <v>72</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -9036,7 +9082,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9058,7 +9104,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>63</v>
@@ -9072,35 +9118,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9109,12 +9155,12 @@
         <v>40</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
@@ -9123,49 +9169,49 @@
         <v>15</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>786</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -9176,21 +9222,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>788</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
+        <v>789</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>790</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="62" t="s">
         <v>791</v>
@@ -9204,7 +9250,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>788</v>
+        <v>27</v>
       </c>
       <c r="D12" s="62" t="s">
         <v>793</v>
@@ -9218,32 +9264,32 @@
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
+        <v>790</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>795</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
+        <v>796</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="62" t="s">
         <v>797</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>64</v>
-      </c>
       <c r="D14" s="62" t="s">
-        <v>64</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>64</v>
@@ -9254,10 +9300,10 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>64</v>
@@ -9268,10 +9314,10 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>64</v>
@@ -9282,16 +9328,16 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>802</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -9299,27 +9345,27 @@
         <v>803</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>64</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>805</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -9327,13 +9373,13 @@
         <v>806</v>
       </c>
       <c r="B21" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>807</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -9341,7 +9387,7 @@
         <v>808</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>64</v>
@@ -9352,16 +9398,16 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
+        <v>810</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>809</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>59</v>
-      </c>
       <c r="C23" s="62" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>810</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -9383,27 +9429,27 @@
         <v>813</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>64</v>
+        <v>814</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>815</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -9411,27 +9457,27 @@
         <v>816</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>64</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>818</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -9439,27 +9485,27 @@
         <v>819</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>64</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>821</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -9470,7 +9516,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D31" s="62" t="s">
         <v>823</v>
@@ -9481,10 +9527,10 @@
         <v>824</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>825</v>
@@ -9495,21 +9541,21 @@
         <v>826</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>64</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>64</v>
@@ -9520,10 +9566,10 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>64</v>
@@ -9534,10 +9580,10 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>830</v>
+        <v>164</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>64</v>
@@ -9551,7 +9597,7 @@
         <v>831</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>158</v>
+        <v>832</v>
       </c>
       <c r="C37" s="62" t="s">
         <v>64</v>
@@ -9562,10 +9608,10 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>64</v>
@@ -9576,16 +9622,16 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>834</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -9593,24 +9639,24 @@
         <v>835</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C40" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="62" t="s">
         <v>836</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
+        <v>837</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="62" t="s">
         <v>838</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>305</v>
       </c>
       <c r="D41" s="62" t="s">
         <v>839</v>
@@ -9621,10 +9667,10 @@
         <v>840</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>836</v>
+        <v>96</v>
       </c>
       <c r="D42" s="62" t="s">
         <v>841</v>
@@ -9638,49 +9684,49 @@
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
+        <v>838</v>
+      </c>
+      <c r="D43" s="62" t="s">
         <v>843</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
+        <v>844</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="62" t="s">
         <v>845</v>
       </c>
-      <c r="B44" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>261</v>
-      </c>
       <c r="D44" s="62" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
+        <v>847</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="62" t="s">
         <v>846</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>847</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
+        <v>848</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="62" t="s">
         <v>849</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>266</v>
       </c>
       <c r="D46" s="62" t="s">
         <v>850</v>
@@ -9694,35 +9740,35 @@
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="62" t="s">
         <v>852</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
+        <v>853</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="62" t="s">
         <v>854</v>
       </c>
-      <c r="B48" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="62" t="s">
+      <c r="D48" s="62" t="s">
         <v>855</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
+        <v>856</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="62" t="s">
         <v>857</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>64</v>
       </c>
       <c r="D49" s="62" t="s">
         <v>858</v>
@@ -9733,10 +9779,10 @@
         <v>859</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="D50" s="62" t="s">
         <v>860</v>
@@ -9747,10 +9793,10 @@
         <v>861</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D51" s="62" t="s">
         <v>862</v>
@@ -9761,10 +9807,10 @@
         <v>863</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D52" s="62" t="s">
         <v>864</v>
@@ -9775,52 +9821,52 @@
         <v>865</v>
       </c>
       <c r="B53" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="62" t="s">
         <v>866</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="62" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
+        <v>867</v>
+      </c>
+      <c r="B54" s="62" t="s">
         <v>868</v>
       </c>
-      <c r="B54" s="62" t="s">
-        <v>160</v>
-      </c>
       <c r="C54" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>64</v>
+        <v>869</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>870</v>
+        <v>64</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>871</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
+        <v>871</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="62" t="s">
         <v>872</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>60</v>
       </c>
       <c r="D56" s="62" t="s">
         <v>873</v>
@@ -9831,10 +9877,10 @@
         <v>874</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D57" s="62" t="s">
         <v>875</v>
@@ -9845,13 +9891,13 @@
         <v>876</v>
       </c>
       <c r="B58" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="62" t="s">
         <v>877</v>
-      </c>
-      <c r="C58" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59">
@@ -9859,7 +9905,7 @@
         <v>878</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>64</v>
@@ -9870,16 +9916,16 @@
     </row>
     <row r="60">
       <c r="A60" s="62" t="s">
+        <v>880</v>
+      </c>
+      <c r="B60" s="62" t="s">
         <v>879</v>
       </c>
-      <c r="B60" s="62" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" s="62" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>880</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
@@ -9893,29 +9939,29 @@
         <v>27</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="62" t="s">
+        <v>883</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="62" t="s">
         <v>882</v>
-      </c>
-      <c r="B62" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="62" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="62" t="s">
         <v>64</v>
@@ -9926,10 +9972,10 @@
     </row>
     <row r="64">
       <c r="A64" s="62" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" s="62" t="s">
         <v>64</v>
@@ -9940,10 +9986,10 @@
     </row>
     <row r="65">
       <c r="A65" s="62" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" s="62" t="s">
         <v>64</v>
@@ -9954,10 +10000,10 @@
     </row>
     <row r="66">
       <c r="A66" s="62" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="62" t="s">
         <v>64</v>
@@ -9968,10 +10014,10 @@
     </row>
     <row r="67">
       <c r="A67" s="62" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="62" t="s">
         <v>64</v>
@@ -9982,10 +10028,10 @@
     </row>
     <row r="68">
       <c r="A68" s="62" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C68" s="62" t="s">
         <v>64</v>
@@ -9996,15 +10042,29 @@
     </row>
     <row r="69">
       <c r="A69" s="62" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D69" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="62" t="s">
+        <v>891</v>
+      </c>
+      <c r="B70" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10037,7 +10097,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>63</v>
@@ -10051,35 +10111,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10088,57 +10148,57 @@
         <v>40</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>782</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>784</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>64</v>
@@ -10149,10 +10209,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -10163,7 +10223,7 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>5</v>
@@ -10172,26 +10232,26 @@
         <v>27</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10200,43 +10260,43 @@
         <v>27</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>64</v>
@@ -10247,10 +10307,10 @@
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" s="64" t="s">
         <v>64</v>
@@ -10261,10 +10321,10 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" s="64" t="s">
         <v>64</v>
@@ -10275,10 +10335,10 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>64</v>
@@ -10289,7 +10349,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>5</v>
@@ -10298,15 +10358,15 @@
         <v>15</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>64</v>
@@ -10317,10 +10377,10 @@
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>64</v>
@@ -10331,10 +10391,10 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>64</v>
@@ -10345,7 +10405,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>59</v>
@@ -10354,15 +10414,15 @@
         <v>60</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>64</v>
@@ -10373,7 +10433,7 @@
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>59</v>
@@ -10382,15 +10442,15 @@
         <v>60</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>64</v>
@@ -10401,10 +10461,10 @@
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" s="64" t="s">
         <v>64</v>
@@ -10415,10 +10475,10 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>64</v>
@@ -10429,10 +10489,10 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>64</v>
@@ -10443,147 +10503,147 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
@@ -10592,15 +10652,15 @@
         <v>15</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>875</v>
+        <v>923</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>64</v>
@@ -10611,10 +10671,10 @@
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -10625,7 +10685,7 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>5</v>
@@ -10634,15 +10694,15 @@
         <v>27</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>64</v>
@@ -10680,72 +10740,72 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>668</v>
+        <v>15</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -10777,7 +10837,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -10786,12 +10846,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10800,12 +10860,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -10814,12 +10874,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10828,35 +10888,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -10888,7 +10948,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -10897,12 +10957,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -10911,91 +10971,91 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -11027,10 +11087,10 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="72" t="s">
         <v>64</v>
@@ -11041,10 +11101,10 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="72" t="s">
         <v>64</v>
@@ -11055,16 +11115,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -11096,7 +11156,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11105,29 +11165,29 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>64</v>
@@ -11165,7 +11225,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11174,12 +11234,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11188,12 +11248,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11202,15 +11262,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>64</v>
@@ -11221,21 +11281,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11244,12 +11304,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11258,15 +11318,15 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="76" t="s">
         <v>64</v>
@@ -11277,24 +11337,24 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>64</v>
@@ -11305,21 +11365,21 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11328,29 +11388,29 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" s="76" t="s">
         <v>64</v>
@@ -11361,10 +11421,10 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="76" t="s">
         <v>64</v>
@@ -11375,16 +11435,16 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -11416,7 +11476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11425,12 +11485,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11439,12 +11499,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11453,15 +11513,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>64</v>
@@ -11472,21 +11532,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11495,12 +11555,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11509,15 +11569,15 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="78" t="s">
         <v>64</v>
@@ -11528,24 +11588,24 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" s="78" t="s">
         <v>64</v>
@@ -11556,10 +11616,10 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="78" t="s">
         <v>64</v>
@@ -11570,66 +11630,66 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>64</v>
@@ -11640,77 +11700,77 @@
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
@@ -11719,7 +11779,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -11751,7 +11811,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -11760,68 +11820,68 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -11830,12 +11890,12 @@
         <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -11844,40 +11904,40 @@
         <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -11886,21 +11946,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -11932,10 +11992,10 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>64</v>
@@ -11946,7 +12006,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -11955,26 +12015,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -11983,54 +12043,54 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12039,26 +12099,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12067,26 +12127,26 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -12095,12 +12155,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -12109,15 +12169,15 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" s="80" t="s">
         <v>64</v>
@@ -12128,21 +12188,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -12151,12 +12211,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -12165,12 +12225,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -12179,15 +12239,15 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>64</v>
@@ -12198,38 +12258,38 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>64</v>
@@ -12267,7 +12327,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12276,15 +12336,15 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>64</v>
@@ -12295,10 +12355,10 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="82" t="s">
         <v>64</v>
@@ -12309,7 +12369,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12318,35 +12378,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -12378,10 +12438,10 @@
     </row>
     <row r="2">
       <c r="A2" s="84" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>64</v>
@@ -12392,16 +12452,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -12433,10 +12493,10 @@
     </row>
     <row r="2">
       <c r="A2" s="86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>64</v>
@@ -12447,21 +12507,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12470,7 +12530,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -12491,7 +12551,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12516,30 +12576,30 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B4" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -12560,10 +12620,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12574,10 +12634,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -12602,72 +12662,72 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -12709,15 +12769,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -12726,35 +12786,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -12775,7 +12835,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12800,35 +12860,35 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -12837,26 +12897,26 @@
         <v>64</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -12865,40 +12925,40 @@
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -12907,40 +12967,40 @@
         <v>64</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -12949,15 +13009,15 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>64</v>
@@ -12968,10 +13028,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>64</v>
@@ -12982,7 +13042,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -12991,7 +13051,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -13015,7 +13075,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -13040,49 +13100,49 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>403</v>
+        <v>15</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
@@ -13091,21 +13151,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -13140,119 +13200,119 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>5</v>
@@ -13261,7 +13321,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="1072">
   <si>
     <t>Campo</t>
   </si>
@@ -3070,6 +3070,12 @@
     <t>Testo libero per modifica accordo (formula 121-septies)</t>
   </si>
   <si>
+    <t>dataEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>Data alla quale viene effettuata il matrimonio</t>
+  </si>
+  <si>
     <t>Tipo di accordi di separazione in negaziazione assistita (decodifica ANSC_53)</t>
   </si>
   <si>
@@ -3262,8 +3268,9 @@
     <t>Il codice della lingua aggiuntiva</t>
   </si>
   <si>
-    <t>L'anno 2020 add 8 del mese di 1 alle ore 12 e minuti 1 nel(1) la Casa Comunale avanti a me CESENA ANSC Ufficiale dello Stato Civile del Comune di CESENA (2) Per delega avuta
-e' comparsa cognomeMadre nomeMadre nata in ROMA l 1977-11-12 (3) residente in ROCCA CANTERANO</t>
+    <t xml:space="preserve">L'anno 2020 add 8 del mese di 1 alle ore 12 e minuti 1 nel(1) la Casa Comunale avanti a me CESENA ANSC Ufficiale dello Stato Civile del Comune di CESENA (2) Per delega avuta
+e' comparsa cognomeMadre nomeMadre nata in ROMA l 1977-11-12 (3) residente in ROCCA CANTERANO
+</t>
   </si>
   <si>
     <t>La composizione completa nuova nuova lingua</t>
@@ -11203,7 +11210,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11445,6 +11452,20 @@
       </c>
       <c r="D17" s="76" t="s">
         <v>1003</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="76" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>998</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -11485,7 +11506,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3">
@@ -11616,7 +11637,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>164</v>
@@ -11630,63 +11651,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>164</v>
@@ -11700,63 +11721,63 @@
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
@@ -11765,12 +11786,12 @@
         <v>584</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
@@ -11779,7 +11800,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -11992,7 +12013,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>159</v>
@@ -12071,12 +12092,12 @@
         <v>938</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
@@ -12085,12 +12106,12 @@
         <v>938</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12099,26 +12120,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12127,7 +12148,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="12">
@@ -12141,7 +12162,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13">
@@ -12278,15 +12299,15 @@
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>159</v>
@@ -12327,7 +12348,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12336,12 +12357,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>133</v>
@@ -12355,7 +12376,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>133</v>
@@ -12369,7 +12390,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12378,35 +12399,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -12452,16 +12473,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -12507,21 +12528,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12530,7 +12551,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -12551,7 +12572,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12576,16 +12597,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4">
@@ -12596,10 +12617,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="1070">
   <si>
     <t>Campo</t>
   </si>
@@ -2737,12 +2737,6 @@
     <t>Data celebrazione unione civile</t>
   </si>
   <si>
-    <t>Cognome officiante quando questo non sia l'USC</t>
-  </si>
-  <si>
-    <t>Nome officiante quando questo non sia l'USC</t>
-  </si>
-  <si>
     <t>certificatoCostituzione1</t>
   </si>
   <si>
@@ -3268,9 +3262,8 @@
     <t>Il codice della lingua aggiuntiva</t>
   </si>
   <si>
-    <t xml:space="preserve">L'anno 2020 add 8 del mese di 1 alle ore 12 e minuti 1 nel(1) la Casa Comunale avanti a me CESENA ANSC Ufficiale dello Stato Civile del Comune di CESENA (2) Per delega avuta
-e' comparsa cognomeMadre nomeMadre nata in ROMA l 1977-11-12 (3) residente in ROCCA CANTERANO
-</t>
+    <t>L'anno 2020 add 8 del mese di 1 alle ore 12 e minuti 1 nel(1) la Casa Comunale avanti a me CESENA ANSC Ufficiale dello Stato Civile del Comune di CESENA (2) Per delega avuta
+e' comparsa cognomeMadre nomeMadre nata in ROMA l 1977-11-12 (3) residente in ROCCA CANTERANO</t>
   </si>
   <si>
     <t>La composizione completa nuova nuova lingua</t>
@@ -10082,7 +10075,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10174,52 +10167,52 @@
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>507</v>
+        <v>64</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>893</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>619</v>
+        <v>507</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>894</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>895</v>
+        <v>784</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>896</v>
+        <v>5</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>64</v>
+        <v>619</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>64</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -10230,91 +10223,91 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>5</v>
+        <v>894</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>899</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>790</v>
+        <v>27</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>27</v>
+        <v>790</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>790</v>
+        <v>27</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>796</v>
+        <v>902</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>798</v>
+        <v>903</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>64</v>
+        <v>797</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>64</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>133</v>
@@ -10328,7 +10321,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>133</v>
@@ -10342,7 +10335,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>133</v>
@@ -10356,38 +10349,38 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>804</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>64</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>906</v>
+        <v>805</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>64</v>
@@ -10398,7 +10391,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>159</v>
@@ -10412,63 +10405,63 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>908</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>64</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>909</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>64</v>
+        <v>907</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>164</v>
@@ -10482,7 +10475,7 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>164</v>
@@ -10496,10 +10489,10 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>832</v>
+        <v>164</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>64</v>
@@ -10510,83 +10503,83 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>910</v>
+        <v>831</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>59</v>
+        <v>832</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>911</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>838</v>
+        <v>96</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>96</v>
+        <v>838</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>838</v>
+        <v>96</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>844</v>
+        <v>914</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>846</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>918</v>
+        <v>845</v>
       </c>
       <c r="D36" s="64" t="s">
         <v>846</v>
@@ -10594,91 +10587,91 @@
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>920</v>
+        <v>850</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>854</v>
+        <v>917</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>855</v>
+        <v>918</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>921</v>
+        <v>854</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>922</v>
+        <v>856</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>15</v>
+        <v>919</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>923</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>879</v>
+        <v>5</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>64</v>
+        <v>921</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B43" s="64" t="s">
         <v>879</v>
@@ -10692,29 +10685,43 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>924</v>
+        <v>880</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>5</v>
+        <v>879</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>925</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B45" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="64" t="s">
+        <v>924</v>
+      </c>
+      <c r="B46" s="64" t="s">
         <v>879</v>
       </c>
-      <c r="C45" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="64" t="s">
+      <c r="C46" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="64" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10747,35 +10754,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
+        <v>927</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>928</v>
+      </c>
+      <c r="D3" s="66" t="s">
         <v>929</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>930</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -10784,35 +10791,35 @@
         <v>15</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
+        <v>932</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>933</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>934</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>935</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
+        <v>935</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>936</v>
+      </c>
+      <c r="D6" s="66" t="s">
         <v>937</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>938</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -10853,12 +10860,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10867,7 +10874,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4">
@@ -10881,12 +10888,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10895,35 +10902,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
+        <v>942</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>943</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>944</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>945</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
+        <v>945</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>946</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>947</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>948</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -10955,7 +10962,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -10964,12 +10971,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -10978,12 +10985,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
@@ -10992,12 +10999,12 @@
         <v>619</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
@@ -11006,12 +11013,12 @@
         <v>507</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
@@ -11020,49 +11027,49 @@
         <v>264</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
+        <v>958</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>959</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>960</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>961</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
+        <v>961</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="D8" s="70" t="s">
         <v>963</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>964</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
+        <v>964</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>965</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>966</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>967</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -11108,7 +11115,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>164</v>
@@ -11122,7 +11129,7 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
@@ -11131,7 +11138,7 @@
         <v>854</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -11163,7 +11170,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11177,7 +11184,7 @@
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>123</v>
@@ -11186,12 +11193,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>164</v>
@@ -11232,7 +11239,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11241,12 +11248,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11255,12 +11262,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11269,12 +11276,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>133</v>
@@ -11288,21 +11295,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
+        <v>981</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>982</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>983</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>984</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11311,12 +11318,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11325,12 +11332,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>133</v>
@@ -11344,16 +11351,16 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11">
@@ -11372,7 +11379,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
@@ -11381,12 +11388,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11395,26 +11402,26 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
+        <v>995</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>996</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>997</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>998</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>159</v>
@@ -11428,7 +11435,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>164</v>
@@ -11442,30 +11449,30 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
+        <v>999</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="76" t="s">
         <v>1001</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -11497,7 +11504,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11506,12 +11513,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11520,12 +11527,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11534,12 +11541,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>133</v>
@@ -11553,21 +11560,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
+        <v>981</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>982</v>
+      </c>
+      <c r="D6" s="78" t="s">
         <v>983</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>984</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11576,12 +11583,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11590,12 +11597,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>133</v>
@@ -11609,16 +11616,16 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11">
@@ -11637,7 +11644,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>164</v>
@@ -11651,63 +11658,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="78" t="s">
         <v>1008</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D14" s="78" t="s">
         <v>1011</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>164</v>
@@ -11721,63 +11728,63 @@
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
@@ -11786,12 +11793,12 @@
         <v>584</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
@@ -11800,7 +11807,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -12013,7 +12020,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>159</v>
@@ -12027,7 +12034,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -12036,12 +12043,12 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
@@ -12050,12 +12057,12 @@
         <v>790</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12064,12 +12071,12 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
@@ -12078,7 +12085,7 @@
         <v>790</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7">
@@ -12089,29 +12096,29 @@
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12120,26 +12127,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D10" s="80" t="s">
         <v>1037</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12148,12 +12155,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
@@ -12162,12 +12169,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -12176,12 +12183,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -12190,12 +12197,12 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>133</v>
@@ -12209,21 +12216,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
+        <v>981</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>982</v>
+      </c>
+      <c r="D16" s="80" t="s">
         <v>983</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>984</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -12232,12 +12239,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -12246,12 +12253,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -12260,12 +12267,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>133</v>
@@ -12279,35 +12286,35 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>159</v>
@@ -12348,7 +12355,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12357,12 +12364,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>133</v>
@@ -12376,7 +12383,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>133</v>
@@ -12390,7 +12397,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12399,35 +12406,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>1052</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D7" s="82" t="s">
         <v>1055</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -12473,16 +12480,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D3" s="84" t="s">
         <v>1058</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -12528,21 +12535,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D3" s="86" t="s">
         <v>1061</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12551,7 +12558,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -12572,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12597,16 +12604,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>1067</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="4">
@@ -12617,10 +12624,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1074">
   <si>
     <t>Campo</t>
   </si>
@@ -3070,6 +3070,12 @@
     <t>Data alla quale viene effettuata il matrimonio</t>
   </si>
   <si>
+    <t>tipoProvvedimentoSeparazione</t>
+  </si>
+  <si>
+    <t>Provvedimento di separazione (decodifica ANSC_104)</t>
+  </si>
+  <si>
     <t>Tipo di accordi di separazione in negaziazione assistita (decodifica ANSC_53)</t>
   </si>
   <si>
@@ -3104,6 +3110,12 @@
   </si>
   <si>
     <t>Protocollo dell'atto relativo al coniuge 2</t>
+  </si>
+  <si>
+    <t>ricezioneAtto</t>
+  </si>
+  <si>
+    <t>Chi ha inviato l'accordo di negoziazione' (decodifica ANSC_103)</t>
   </si>
   <si>
     <t>provvedimentoAutoritaGiudiziaria</t>
@@ -11217,7 +11229,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11475,6 +11487,20 @@
         <v>1003</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="76" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>1005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11482,7 +11508,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11513,7 +11539,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3">
@@ -11644,7 +11670,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>164</v>
@@ -11658,156 +11684,170 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>64</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>1007</v>
+        <v>64</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>1018</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>584</v>
+        <v>1009</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="78" t="s">
+        <v>584</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="78" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="78" t="s">
-        <v>1028</v>
+      <c r="D24" s="78" t="s">
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -12020,7 +12060,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>159</v>
@@ -12099,12 +12139,12 @@
         <v>936</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
@@ -12113,12 +12153,12 @@
         <v>936</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12127,26 +12167,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12155,7 +12195,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="12">
@@ -12169,7 +12209,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="13">
@@ -12306,15 +12346,15 @@
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>159</v>
@@ -12355,7 +12395,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12364,12 +12404,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>133</v>
@@ -12383,7 +12423,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>133</v>
@@ -12397,7 +12437,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12406,35 +12446,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -12480,16 +12520,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -12535,21 +12575,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12558,7 +12598,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -12579,7 +12619,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12604,16 +12644,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4">
@@ -12624,10 +12664,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1080">
   <si>
     <t>Campo</t>
   </si>
@@ -2380,6 +2380,12 @@
     <t>Numero civico</t>
   </si>
   <si>
+    <t>Londra</t>
+  </si>
+  <si>
+    <t>Comune Estero</t>
+  </si>
+  <si>
     <t>luogoCelebrazione</t>
   </si>
   <si>
@@ -3067,13 +3073,25 @@
     <t>dataEventoMatrimonio</t>
   </si>
   <si>
-    <t>Data alla quale viene effettuata il matrimonio</t>
+    <t>Data nella quale viene effettuato il matrimonio</t>
   </si>
   <si>
     <t>tipoProvvedimentoSeparazione</t>
   </si>
   <si>
     <t>Provvedimento di separazione (decodifica ANSC_104)</t>
+  </si>
+  <si>
+    <t>luogoEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>officianteEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>Gianni Rossi Parroco</t>
+  </si>
+  <si>
+    <t>Officiante che ha effettuato il matrimonio</t>
   </si>
   <si>
     <t>Tipo di accordi di separazione in negaziazione assistita (decodifica ANSC_53)</t>
@@ -8941,7 +8959,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9085,6 +9103,20 @@
       </c>
       <c r="D10" s="60" t="s">
         <v>773</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>774</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -9116,7 +9148,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>63</v>
@@ -9130,7 +9162,7 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -9139,12 +9171,12 @@
         <v>648</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
@@ -9153,12 +9185,12 @@
         <v>378</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9167,7 +9199,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6">
@@ -9181,12 +9213,12 @@
         <v>15</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
@@ -9195,12 +9227,12 @@
         <v>507</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
@@ -9209,12 +9241,12 @@
         <v>619</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>133</v>
@@ -9228,7 +9260,7 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
@@ -9237,26 +9269,26 @@
         <v>27</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
@@ -9265,40 +9297,40 @@
         <v>27</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>133</v>
@@ -9312,7 +9344,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>133</v>
@@ -9326,7 +9358,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>133</v>
@@ -9340,7 +9372,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>133</v>
@@ -9354,7 +9386,7 @@
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>5</v>
@@ -9363,12 +9395,12 @@
         <v>15</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>133</v>
@@ -9382,7 +9414,7 @@
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>59</v>
@@ -9391,15 +9423,15 @@
         <v>60</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>64</v>
@@ -9410,10 +9442,10 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>64</v>
@@ -9424,7 +9456,7 @@
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>59</v>
@@ -9433,12 +9465,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>59</v>
@@ -9447,12 +9479,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>164</v>
@@ -9466,7 +9498,7 @@
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>59</v>
@@ -9475,12 +9507,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>164</v>
@@ -9494,7 +9526,7 @@
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>59</v>
@@ -9503,12 +9535,12 @@
         <v>60</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>164</v>
@@ -9522,7 +9554,7 @@
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>5</v>
@@ -9531,12 +9563,12 @@
         <v>15</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>5</v>
@@ -9545,12 +9577,12 @@
         <v>27</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>59</v>
@@ -9559,12 +9591,12 @@
         <v>96</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>164</v>
@@ -9578,7 +9610,7 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>164</v>
@@ -9592,7 +9624,7 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>164</v>
@@ -9606,10 +9638,10 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C37" s="62" t="s">
         <v>64</v>
@@ -9620,7 +9652,7 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>159</v>
@@ -9634,7 +9666,7 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>159</v>
@@ -9648,7 +9680,7 @@
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>59</v>
@@ -9657,26 +9689,26 @@
         <v>96</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>59</v>
@@ -9685,40 +9717,40 @@
         <v>96</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
@@ -9727,26 +9759,26 @@
         <v>264</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
@@ -9755,40 +9787,40 @@
         <v>269</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>5</v>
@@ -9797,12 +9829,12 @@
         <v>64</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>59</v>
@@ -9811,12 +9843,12 @@
         <v>96</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>5</v>
@@ -9825,12 +9857,12 @@
         <v>15</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>123</v>
@@ -9839,26 +9871,26 @@
         <v>64</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C54" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>161</v>
@@ -9872,21 +9904,21 @@
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>59</v>
@@ -9895,12 +9927,12 @@
         <v>60</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>5</v>
@@ -9909,15 +9941,15 @@
         <v>15</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>64</v>
@@ -9928,10 +9960,10 @@
     </row>
     <row r="60">
       <c r="A60" s="62" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C60" s="62" t="s">
         <v>64</v>
@@ -9942,7 +9974,7 @@
     </row>
     <row r="61">
       <c r="A61" s="62" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>5</v>
@@ -9951,12 +9983,12 @@
         <v>27</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="62" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>5</v>
@@ -9965,12 +9997,12 @@
         <v>27</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="62" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>133</v>
@@ -9984,7 +10016,7 @@
     </row>
     <row r="64">
       <c r="A64" s="62" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>133</v>
@@ -9998,7 +10030,7 @@
     </row>
     <row r="65">
       <c r="A65" s="62" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>133</v>
@@ -10012,7 +10044,7 @@
     </row>
     <row r="66">
       <c r="A66" s="62" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>133</v>
@@ -10026,7 +10058,7 @@
     </row>
     <row r="67">
       <c r="A67" s="62" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>133</v>
@@ -10040,7 +10072,7 @@
     </row>
     <row r="68">
       <c r="A68" s="62" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>133</v>
@@ -10054,7 +10086,7 @@
     </row>
     <row r="69">
       <c r="A69" s="62" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>164</v>
@@ -10068,7 +10100,7 @@
     </row>
     <row r="70">
       <c r="A70" s="62" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>164</v>
@@ -10109,7 +10141,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>63</v>
@@ -10123,7 +10155,7 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
@@ -10132,12 +10164,12 @@
         <v>648</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
@@ -10146,12 +10178,12 @@
         <v>378</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10160,7 +10192,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6">
@@ -10174,12 +10206,12 @@
         <v>494</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>133</v>
@@ -10193,7 +10225,7 @@
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
@@ -10202,12 +10234,12 @@
         <v>507</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>5</v>
@@ -10216,15 +10248,15 @@
         <v>619</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -10235,10 +10267,10 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>64</v>
@@ -10249,7 +10281,7 @@
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
@@ -10258,26 +10290,26 @@
         <v>27</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
@@ -10286,40 +10318,40 @@
         <v>27</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>133</v>
@@ -10333,7 +10365,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>133</v>
@@ -10347,7 +10379,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>133</v>
@@ -10361,7 +10393,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>133</v>
@@ -10375,7 +10407,7 @@
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>5</v>
@@ -10384,12 +10416,12 @@
         <v>15</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>133</v>
@@ -10403,7 +10435,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>159</v>
@@ -10417,7 +10449,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>159</v>
@@ -10431,7 +10463,7 @@
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>59</v>
@@ -10440,12 +10472,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>164</v>
@@ -10459,7 +10491,7 @@
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>59</v>
@@ -10468,12 +10500,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>164</v>
@@ -10487,7 +10519,7 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>164</v>
@@ -10501,7 +10533,7 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>164</v>
@@ -10515,10 +10547,10 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>64</v>
@@ -10529,7 +10561,7 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>59</v>
@@ -10538,26 +10570,26 @@
         <v>96</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>59</v>
@@ -10566,110 +10598,110 @@
         <v>96</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
@@ -10678,15 +10710,15 @@
         <v>15</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -10697,10 +10729,10 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>64</v>
@@ -10711,7 +10743,7 @@
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>5</v>
@@ -10720,15 +10752,15 @@
         <v>27</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="64" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C46" s="64" t="s">
         <v>64</v>
@@ -10766,35 +10798,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -10803,35 +10835,35 @@
         <v>15</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -10872,12 +10904,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10886,7 +10918,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4">
@@ -10900,12 +10932,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10914,35 +10946,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -10974,7 +11006,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -10983,12 +11015,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -10997,12 +11029,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
@@ -11011,12 +11043,12 @@
         <v>619</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
@@ -11025,12 +11057,12 @@
         <v>507</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
@@ -11039,49 +11071,49 @@
         <v>264</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -11127,7 +11159,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>164</v>
@@ -11141,16 +11173,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -11182,7 +11214,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11191,12 +11223,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>123</v>
@@ -11205,12 +11237,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>164</v>
@@ -11229,7 +11261,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11251,7 +11283,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11260,12 +11292,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11274,12 +11306,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11288,12 +11320,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>133</v>
@@ -11307,21 +11339,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11330,12 +11362,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11344,12 +11376,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>133</v>
@@ -11363,16 +11395,16 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11">
@@ -11391,7 +11423,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
@@ -11400,12 +11432,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11414,26 +11446,26 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>159</v>
@@ -11447,7 +11479,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>164</v>
@@ -11461,35 +11493,35 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
@@ -11498,7 +11530,35 @@
         <v>15</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>1005</v>
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="76" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="76" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -11530,7 +11590,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11539,12 +11599,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11553,12 +11613,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11567,12 +11627,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>133</v>
@@ -11586,21 +11646,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11609,12 +11669,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11623,12 +11683,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>133</v>
@@ -11642,16 +11702,16 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11">
@@ -11670,7 +11730,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>164</v>
@@ -11684,63 +11744,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>5</v>
@@ -11749,12 +11809,12 @@
         <v>64</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>164</v>
@@ -11768,63 +11828,63 @@
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
@@ -11833,12 +11893,12 @@
         <v>584</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="78" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="B24" s="78" t="s">
         <v>5</v>
@@ -11847,7 +11907,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -12060,7 +12120,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>159</v>
@@ -12074,7 +12134,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -12083,26 +12143,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12111,21 +12171,21 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="7">
@@ -12136,29 +12196,29 @@
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12167,26 +12227,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12195,12 +12255,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
@@ -12209,12 +12269,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -12223,12 +12283,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -12237,12 +12297,12 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>133</v>
@@ -12256,21 +12316,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -12279,12 +12339,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -12293,12 +12353,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -12307,12 +12367,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>133</v>
@@ -12326,35 +12386,35 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>159</v>
@@ -12395,7 +12455,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12404,12 +12464,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>133</v>
@@ -12423,7 +12483,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>133</v>
@@ -12437,7 +12497,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12446,35 +12506,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -12520,16 +12580,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -12575,21 +12635,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12598,7 +12658,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -12619,7 +12679,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12644,16 +12704,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4">
@@ -12664,10 +12724,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -50,12 +50,13 @@
     <sheet name="ModelImpedimento" r:id="rId44" sheetId="42"/>
     <sheet name="ModelRettifica" r:id="rId45" sheetId="43"/>
     <sheet name="ModelDatiLingua" r:id="rId46" sheetId="44"/>
+    <sheet name="ModelAnnotazioneModificativa" r:id="rId47" sheetId="45"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="1099">
   <si>
     <t>Campo</t>
   </si>
@@ -333,7 +334,7 @@
     <t>9423</t>
   </si>
   <si>
-    <t>Numero dell'atto assegnato dal comune.</t>
+    <t>Numero dell'atto assegnato dal comune., Lunghezza massima:5</t>
   </si>
   <si>
     <t>tipoDichiarante</t>
@@ -679,6 +680,12 @@
     <t>Identificativo ricoscimento. (decodifica ANSC_98)</t>
   </si>
   <si>
+    <t>datiAnnotazioneModificativa</t>
+  </si>
+  <si>
+    <t>#/components/schemas/ModelAnnotazioneModificativa</t>
+  </si>
+  <si>
     <t>Identificativo dell'atto collegato.</t>
   </si>
   <si>
@@ -3297,6 +3304,57 @@
   </si>
   <si>
     <t>La composizione completa nuova nuova lingua</t>
+  </si>
+  <si>
+    <t>Model annotazione prefettizio rettifica per figlio a seguito cambio generalita genitori</t>
+  </si>
+  <si>
+    <t>attoIntestatario</t>
+  </si>
+  <si>
+    <t>attoGenitore</t>
+  </si>
+  <si>
+    <t>tipoModifica</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Descrive la modifica anagrafica oggetto del decreto prefettizio (ANSC_39 interno 65)</t>
+  </si>
+  <si>
+    <t>genitore</t>
+  </si>
+  <si>
+    <t>Il decreto si riferisce al padre o alla madre 2-padre|1-madre (ANSC_40)</t>
+  </si>
+  <si>
+    <t>nuovoCognomeGenitore</t>
+  </si>
+  <si>
+    <t>Nuovo cognome dal genitore</t>
+  </si>
+  <si>
+    <t>nuovoNomeGenitore</t>
+  </si>
+  <si>
+    <t>Nuovo nome dal genitore</t>
+  </si>
+  <si>
+    <t>Vecchio cognome del genitore</t>
+  </si>
+  <si>
+    <t>vecchioNomeGenitore</t>
+  </si>
+  <si>
+    <t>Vecchio nome del genitore</t>
+  </si>
+  <si>
+    <t>nuovoCognomeIntestatario</t>
+  </si>
+  <si>
+    <t>Nuovo cognome Intestatario - se valorizzato cambia l'anagrafe del intestatario</t>
   </si>
 </sst>
 </file>
@@ -3304,13 +3362,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="89">
+  <fonts count="91">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3752,7 +3819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
@@ -3842,13 +3909,15 @@
     <xf numFmtId="0" fontId="86" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5098,6 +5167,20 @@
       </c>
       <c r="D89" s="2" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -5129,63 +5212,63 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>5</v>
@@ -5194,12 +5277,12 @@
         <v>64</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>5</v>
@@ -5208,21 +5291,21 @@
         <v>15</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5254,21 +5337,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5277,12 +5360,12 @@
         <v>66</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5291,12 +5374,12 @@
         <v>69</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5305,12 +5388,12 @@
         <v>72</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5319,152 +5402,152 @@
         <v>72</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5473,40 +5556,40 @@
         <v>35</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5515,21 +5598,21 @@
         <v>45</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5561,49 +5644,49 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5612,7 +5695,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5644,7 +5727,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5653,12 +5736,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -5667,7 +5750,7 @@
         <v>132</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -5708,21 +5791,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4">
@@ -5741,7 +5824,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>159</v>
@@ -5755,7 +5838,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>164</v>
@@ -5769,7 +5852,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>164</v>
@@ -5824,7 +5907,7 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5833,12 +5916,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5847,40 +5930,40 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>159</v>
@@ -5894,21 +5977,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -5917,12 +6000,12 @@
         <v>78</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>59</v>
@@ -5931,12 +6014,12 @@
         <v>96</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>59</v>
@@ -5945,12 +6028,12 @@
         <v>96</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>59</v>
@@ -5959,12 +6042,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>59</v>
@@ -5973,12 +6056,12 @@
         <v>96</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>59</v>
@@ -5987,26 +6070,26 @@
         <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>123</v>
@@ -6020,7 +6103,7 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>159</v>
@@ -6061,30 +6144,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -6116,7 +6199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>59</v>
@@ -6125,12 +6208,12 @@
         <v>96</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>164</v>
@@ -6144,10 +6227,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>64</v>
@@ -6158,7 +6241,7 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>159</v>
@@ -6188,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6213,30 +6296,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -6260,7 +6343,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6285,21 +6368,21 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>5</v>
@@ -6308,7 +6391,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5">
@@ -6380,7 +6463,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -6394,7 +6477,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
@@ -6408,7 +6491,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
@@ -6422,7 +6505,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7">
@@ -6433,15 +6516,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -6450,7 +6533,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
@@ -6464,7 +6547,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
@@ -6506,7 +6589,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13">
@@ -6517,10 +6600,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
@@ -6534,7 +6617,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15">
@@ -6567,7 +6650,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -6581,7 +6664,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -6595,21 +6678,21 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -6618,49 +6701,49 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
@@ -6702,7 +6785,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6723,7 +6806,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6748,7 +6831,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -6757,40 +6840,40 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>164</v>
@@ -6804,10 +6887,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>64</v>
@@ -6818,10 +6901,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>64</v>
@@ -6862,7 +6945,7 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>129</v>
@@ -6889,10 +6972,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6903,10 +6986,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -6931,7 +7014,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -6940,12 +7023,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -6954,26 +7037,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
@@ -6982,12 +7065,12 @@
         <v>134</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>5</v>
@@ -6996,12 +7079,12 @@
         <v>64</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>59</v>
@@ -7010,26 +7093,26 @@
         <v>96</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -7038,12 +7121,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>164</v>
@@ -7057,21 +7140,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -7080,26 +7163,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7108,82 +7191,82 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>164</v>
@@ -7197,7 +7280,7 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>159</v>
@@ -7211,7 +7294,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>59</v>
@@ -7220,7 +7303,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -7245,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7256,7 +7339,7 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>133</v>
@@ -7270,10 +7353,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -7298,7 +7381,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -7307,21 +7390,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -7358,7 +7441,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>59</v>
@@ -7367,15 +7450,15 @@
         <v>60</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>64</v>
@@ -7386,77 +7469,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="48" t="s">
+        <v>656</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>654</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>59</v>
@@ -7465,12 +7548,12 @@
         <v>60</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -7479,26 +7562,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -7507,26 +7590,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -7535,12 +7618,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -7549,12 +7632,12 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>5</v>
@@ -7563,12 +7646,12 @@
         <v>72</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>5</v>
@@ -7577,54 +7660,54 @@
         <v>75</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -7633,7 +7716,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22">
@@ -7652,21 +7735,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -7675,12 +7758,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>133</v>
@@ -7694,105 +7777,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>59</v>
@@ -7801,26 +7884,26 @@
         <v>60</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -7829,7 +7912,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -7847,10 +7930,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7861,10 +7944,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7889,35 +7972,35 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -7926,26 +8009,26 @@
         <v>64</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -7954,82 +8037,82 @@
         <v>78</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>164</v>
@@ -8043,7 +8126,7 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>5</v>
@@ -8052,7 +8135,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -8074,10 +8157,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8088,10 +8171,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8116,21 +8199,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8139,12 +8222,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>63</v>
@@ -8158,7 +8241,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>159</v>
@@ -8189,10 +8272,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8203,10 +8286,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8231,21 +8314,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>133</v>
@@ -8276,10 +8359,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8290,10 +8373,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8318,7 +8401,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>59</v>
@@ -8327,12 +8410,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>159</v>
@@ -8346,7 +8429,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>164</v>
@@ -8360,7 +8443,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8369,7 +8452,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -8391,10 +8474,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8405,10 +8488,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8433,7 +8516,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8442,26 +8525,26 @@
         <v>64</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>133</v>
@@ -8512,141 +8595,141 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -8655,82 +8738,82 @@
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -8739,68 +8822,68 @@
         <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -8809,26 +8892,26 @@
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -8837,12 +8920,12 @@
         <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
@@ -8851,26 +8934,26 @@
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -8879,12 +8962,12 @@
         <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>59</v>
@@ -8893,12 +8976,12 @@
         <v>96</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -8907,12 +8990,12 @@
         <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>59</v>
@@ -8921,15 +9004,15 @@
         <v>96</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>64</v>
@@ -8940,10 +9023,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>64</v>
@@ -8981,7 +9064,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -8990,12 +9073,12 @@
         <v>66</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -9004,12 +9087,12 @@
         <v>69</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -9018,12 +9101,12 @@
         <v>72</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -9032,91 +9115,91 @@
         <v>72</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="60" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B11" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -9148,7 +9231,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>63</v>
@@ -9162,35 +9245,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9199,12 +9282,12 @@
         <v>40</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
@@ -9213,40 +9296,40 @@
         <v>15</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>133</v>
@@ -9260,7 +9343,7 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
@@ -9269,26 +9352,26 @@
         <v>27</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
@@ -9297,40 +9380,40 @@
         <v>27</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>133</v>
@@ -9344,7 +9427,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>133</v>
@@ -9358,7 +9441,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>133</v>
@@ -9372,7 +9455,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>133</v>
@@ -9386,7 +9469,7 @@
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>5</v>
@@ -9395,12 +9478,12 @@
         <v>15</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>133</v>
@@ -9414,7 +9497,7 @@
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>59</v>
@@ -9423,15 +9506,15 @@
         <v>60</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>64</v>
@@ -9442,10 +9525,10 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>64</v>
@@ -9456,7 +9539,7 @@
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>59</v>
@@ -9465,12 +9548,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>59</v>
@@ -9479,12 +9562,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>164</v>
@@ -9498,7 +9581,7 @@
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>59</v>
@@ -9507,12 +9590,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>164</v>
@@ -9526,7 +9609,7 @@
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>59</v>
@@ -9535,12 +9618,12 @@
         <v>60</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>164</v>
@@ -9554,7 +9637,7 @@
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>5</v>
@@ -9563,12 +9646,12 @@
         <v>15</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>5</v>
@@ -9577,12 +9660,12 @@
         <v>27</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>59</v>
@@ -9591,12 +9674,12 @@
         <v>96</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>164</v>
@@ -9610,7 +9693,7 @@
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>164</v>
@@ -9624,7 +9707,7 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>164</v>
@@ -9638,10 +9721,10 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C37" s="62" t="s">
         <v>64</v>
@@ -9652,7 +9735,7 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>159</v>
@@ -9666,7 +9749,7 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>159</v>
@@ -9680,7 +9763,7 @@
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>59</v>
@@ -9689,26 +9772,26 @@
         <v>96</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>59</v>
@@ -9717,110 +9800,110 @@
         <v>96</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>5</v>
@@ -9829,12 +9912,12 @@
         <v>64</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>59</v>
@@ -9843,12 +9926,12 @@
         <v>96</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>5</v>
@@ -9857,12 +9940,12 @@
         <v>15</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>123</v>
@@ -9871,26 +9954,26 @@
         <v>64</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C54" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>161</v>
@@ -9904,21 +9987,21 @@
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>59</v>
@@ -9927,12 +10010,12 @@
         <v>60</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>5</v>
@@ -9941,15 +10024,15 @@
         <v>15</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C59" s="62" t="s">
         <v>64</v>
@@ -9960,10 +10043,10 @@
     </row>
     <row r="60">
       <c r="A60" s="62" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C60" s="62" t="s">
         <v>64</v>
@@ -9974,7 +10057,7 @@
     </row>
     <row r="61">
       <c r="A61" s="62" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>5</v>
@@ -9983,12 +10066,12 @@
         <v>27</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="62" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>5</v>
@@ -9997,12 +10080,12 @@
         <v>27</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="62" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>133</v>
@@ -10016,7 +10099,7 @@
     </row>
     <row r="64">
       <c r="A64" s="62" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>133</v>
@@ -10030,7 +10113,7 @@
     </row>
     <row r="65">
       <c r="A65" s="62" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>133</v>
@@ -10044,7 +10127,7 @@
     </row>
     <row r="66">
       <c r="A66" s="62" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>133</v>
@@ -10058,7 +10141,7 @@
     </row>
     <row r="67">
       <c r="A67" s="62" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>133</v>
@@ -10072,7 +10155,7 @@
     </row>
     <row r="68">
       <c r="A68" s="62" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>133</v>
@@ -10086,7 +10169,7 @@
     </row>
     <row r="69">
       <c r="A69" s="62" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>164</v>
@@ -10100,7 +10183,7 @@
     </row>
     <row r="70">
       <c r="A70" s="62" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>164</v>
@@ -10141,7 +10224,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>63</v>
@@ -10155,35 +10238,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10192,26 +10275,26 @@
         <v>40</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>133</v>
@@ -10225,38 +10308,38 @@
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -10267,10 +10350,10 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>64</v>
@@ -10281,7 +10364,7 @@
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
@@ -10290,26 +10373,26 @@
         <v>27</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
@@ -10318,40 +10401,40 @@
         <v>27</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>133</v>
@@ -10365,7 +10448,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>133</v>
@@ -10379,7 +10462,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>133</v>
@@ -10393,7 +10476,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>133</v>
@@ -10407,7 +10490,7 @@
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>5</v>
@@ -10416,12 +10499,12 @@
         <v>15</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>133</v>
@@ -10435,7 +10518,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>159</v>
@@ -10449,7 +10532,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>159</v>
@@ -10463,7 +10546,7 @@
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>59</v>
@@ -10472,12 +10555,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>164</v>
@@ -10491,7 +10574,7 @@
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>59</v>
@@ -10500,12 +10583,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>164</v>
@@ -10519,7 +10602,7 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>164</v>
@@ -10533,7 +10616,7 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>164</v>
@@ -10547,10 +10630,10 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>64</v>
@@ -10561,7 +10644,7 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>59</v>
@@ -10570,26 +10653,26 @@
         <v>96</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>59</v>
@@ -10598,110 +10681,110 @@
         <v>96</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
@@ -10710,15 +10793,15 @@
         <v>15</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -10729,10 +10812,10 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>64</v>
@@ -10743,7 +10826,7 @@
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>5</v>
@@ -10752,15 +10835,15 @@
         <v>27</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="64" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C46" s="64" t="s">
         <v>64</v>
@@ -10798,35 +10881,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -10835,35 +10918,35 @@
         <v>15</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -10895,7 +10978,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -10904,12 +10987,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -10918,12 +11001,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -10932,12 +11015,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -10946,35 +11029,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -11006,7 +11089,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -11015,12 +11098,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -11029,91 +11112,91 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>
@@ -11145,7 +11228,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>159</v>
@@ -11159,7 +11242,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>164</v>
@@ -11173,16 +11256,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -11214,7 +11297,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11223,12 +11306,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>123</v>
@@ -11237,12 +11320,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>164</v>
@@ -11283,7 +11366,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11292,12 +11375,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11306,12 +11389,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11320,12 +11403,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>133</v>
@@ -11339,21 +11422,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11362,12 +11445,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11376,12 +11459,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>133</v>
@@ -11395,21 +11478,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>159</v>
@@ -11423,7 +11506,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
@@ -11432,12 +11515,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11446,26 +11529,26 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>159</v>
@@ -11479,7 +11562,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>164</v>
@@ -11493,35 +11576,35 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
@@ -11530,12 +11613,12 @@
         <v>15</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>63</v>
@@ -11549,16 +11632,16 @@
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -11590,7 +11673,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11599,12 +11682,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11613,12 +11696,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11627,12 +11710,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>133</v>
@@ -11646,21 +11729,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11669,12 +11752,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11683,12 +11766,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>133</v>
@@ -11702,21 +11785,21 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>159</v>
@@ -11730,7 +11813,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>164</v>
@@ -11744,63 +11827,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>5</v>
@@ -11809,12 +11892,12 @@
         <v>64</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>164</v>
@@ -11828,77 +11911,77 @@
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="78" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B24" s="78" t="s">
         <v>5</v>
@@ -11907,7 +11990,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -11939,7 +12022,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -11948,12 +12031,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -11962,12 +12045,12 @@
         <v>186</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -11976,40 +12059,40 @@
         <v>186</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -12018,12 +12101,12 @@
         <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -12032,40 +12115,40 @@
         <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -12074,21 +12157,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -12120,7 +12203,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>159</v>
@@ -12134,7 +12217,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -12143,26 +12226,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12171,54 +12254,54 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12227,26 +12310,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12255,12 +12338,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
@@ -12269,12 +12352,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -12283,12 +12366,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -12297,12 +12380,12 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>133</v>
@@ -12316,21 +12399,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -12339,12 +12422,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -12353,12 +12436,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -12367,12 +12450,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>133</v>
@@ -12386,35 +12469,35 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>159</v>
@@ -12455,7 +12538,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12464,12 +12547,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>133</v>
@@ -12483,7 +12566,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>133</v>
@@ -12497,7 +12580,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12506,35 +12589,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -12566,7 +12649,7 @@
     </row>
     <row r="2">
       <c r="A2" s="84" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B2" s="84" t="s">
         <v>164</v>
@@ -12580,16 +12663,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
@@ -12635,21 +12718,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12658,7 +12741,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -12679,7 +12762,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12704,16 +12787,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="4">
@@ -12724,10 +12807,180 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="90" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="90" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="90" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="90" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="90" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="90" t="s">
         <v>1078</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>1079</v>
+      <c r="D7" s="90" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="90" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="90" t="s">
+        <v>616</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="90" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="90" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -12748,7 +13001,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>164</v>
@@ -12762,10 +13015,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -12790,72 +13043,72 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -12897,15 +13150,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -12914,35 +13167,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -12963,7 +13216,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12988,35 +13241,35 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -13025,26 +13278,26 @@
         <v>64</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -13053,26 +13306,26 @@
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -13081,12 +13334,12 @@
         <v>99</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -13095,26 +13348,26 @@
         <v>64</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
@@ -13123,12 +13376,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -13137,12 +13390,12 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>198</v>
@@ -13156,7 +13409,7 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>198</v>
@@ -13170,7 +13423,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -13179,7 +13432,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -13203,7 +13456,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -13228,21 +13481,21 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
@@ -13251,26 +13504,26 @@
         <v>15</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
@@ -13279,21 +13532,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -13328,119 +13581,119 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>5</v>
@@ -13449,7 +13702,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="1113">
   <si>
     <t>Campo</t>
   </si>
@@ -2525,6 +2525,12 @@
     <t>Se il matrimonio ha un provvedimento di rigetto dell'oppozione</t>
   </si>
   <si>
+    <t>delegaConsolato</t>
+  </si>
+  <si>
+    <t>Se il matrimonio è avvenuto su delega del consolato</t>
+  </si>
+  <si>
     <t>provvedimentoRigettoOpposizione</t>
   </si>
   <si>
@@ -3099,6 +3105,24 @@
   </si>
   <si>
     <t>Officiante che ha effettuato il matrimonio</t>
+  </si>
+  <si>
+    <t>assegnoMantenimento</t>
+  </si>
+  <si>
+    <t>I coniugi concordano l'assegno di mantenimento o divorzile</t>
+  </si>
+  <si>
+    <t>datiAssegnoMantenimento</t>
+  </si>
+  <si>
+    <t>Nel caso esista l'assegno di mantenimento o divorzile</t>
+  </si>
+  <si>
+    <t>tipoSeparazioneDivorzio</t>
+  </si>
+  <si>
+    <t>Discriminante tra separazione o divorzio (decodifica ANSC_106)</t>
   </si>
   <si>
     <t>Tipo di accordi di separazione in negaziazione assistita (decodifica ANSC_53)</t>
@@ -3306,7 +3330,7 @@
     <t>La composizione completa nuova nuova lingua</t>
   </si>
   <si>
-    <t>Model annotazione prefettizio rettifica per figlio a seguito cambio generalita genitori</t>
+    <t>Model annotazione modificativa rettifica per figlio a seguito cambio generalita genitori</t>
   </si>
   <si>
     <t>attoIntestatario</t>
@@ -3321,7 +3345,7 @@
     <t>number</t>
   </si>
   <si>
-    <t>Descrive la modifica anagrafica oggetto del decreto prefettizio (ANSC_39 interno 65)</t>
+    <t>Descrive la modifica anagrafica (ANSC_39 interno 65)</t>
   </si>
   <si>
     <t>genitore</t>
@@ -3355,6 +3379,24 @@
   </si>
   <si>
     <t>Nuovo cognome Intestatario - se valorizzato cambia l'anagrafe del intestatario</t>
+  </si>
+  <si>
+    <t>nuovoNomeIntestatario</t>
+  </si>
+  <si>
+    <t>Nuovo nome  Intestatario - se valorizzato cambia l'anagrafe del intestatario</t>
+  </si>
+  <si>
+    <t>vecchioNomeIntestatario</t>
+  </si>
+  <si>
+    <t>vechio  nome  Intestatario - se valorizzato cambia l'anagrafe del intestatario</t>
+  </si>
+  <si>
+    <t>vecchioCognomeIntestatario</t>
+  </si>
+  <si>
+    <t>vechio  cognome  Intestatario - se valorizzato cambia l'anagrafe del intestatario</t>
   </si>
 </sst>
 </file>
@@ -9209,7 +9251,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9598,27 +9640,27 @@
         <v>822</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>64</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>824</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -9626,27 +9668,27 @@
         <v>825</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>64</v>
+        <v>826</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>827</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -9657,7 +9699,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>829</v>
@@ -9668,10 +9710,10 @@
         <v>830</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>831</v>
@@ -9682,18 +9724,18 @@
         <v>832</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>64</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>164</v>
@@ -9707,7 +9749,7 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>164</v>
@@ -9721,10 +9763,10 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>836</v>
+        <v>164</v>
       </c>
       <c r="C37" s="62" t="s">
         <v>64</v>
@@ -9738,7 +9780,7 @@
         <v>837</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>159</v>
+        <v>838</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>64</v>
@@ -9749,7 +9791,7 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>159</v>
@@ -9763,16 +9805,16 @@
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>840</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -9780,24 +9822,24 @@
         <v>841</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C41" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="62" t="s">
         <v>842</v>
-      </c>
-      <c r="D41" s="62" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
+        <v>843</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="62" t="s">
         <v>844</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>96</v>
       </c>
       <c r="D42" s="62" t="s">
         <v>845</v>
@@ -9808,10 +9850,10 @@
         <v>846</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>842</v>
+        <v>96</v>
       </c>
       <c r="D43" s="62" t="s">
         <v>847</v>
@@ -9825,49 +9867,49 @@
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
+        <v>844</v>
+      </c>
+      <c r="D44" s="62" t="s">
         <v>849</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
+        <v>850</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="62" t="s">
         <v>851</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>266</v>
-      </c>
       <c r="D45" s="62" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
+        <v>853</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="62" t="s">
         <v>852</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>853</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
+        <v>854</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="62" t="s">
         <v>855</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>271</v>
       </c>
       <c r="D47" s="62" t="s">
         <v>856</v>
@@ -9881,35 +9923,35 @@
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="62" t="s">
         <v>858</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
+        <v>859</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="62" t="s">
         <v>860</v>
       </c>
-      <c r="B49" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="62" t="s">
+      <c r="D49" s="62" t="s">
         <v>861</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
+        <v>862</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="62" t="s">
         <v>863</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>64</v>
       </c>
       <c r="D50" s="62" t="s">
         <v>864</v>
@@ -9920,10 +9962,10 @@
         <v>865</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D51" s="62" t="s">
         <v>866</v>
@@ -9934,10 +9976,10 @@
         <v>867</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D52" s="62" t="s">
         <v>868</v>
@@ -9948,10 +9990,10 @@
         <v>869</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D53" s="62" t="s">
         <v>870</v>
@@ -9962,52 +10004,52 @@
         <v>871</v>
       </c>
       <c r="B54" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="62" t="s">
         <v>872</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="62" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
+        <v>873</v>
+      </c>
+      <c r="B55" s="62" t="s">
         <v>874</v>
       </c>
-      <c r="B55" s="62" t="s">
-        <v>161</v>
-      </c>
       <c r="C55" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>64</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>876</v>
+        <v>64</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>877</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
+        <v>877</v>
+      </c>
+      <c r="B57" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="62" t="s">
         <v>878</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>60</v>
       </c>
       <c r="D57" s="62" t="s">
         <v>879</v>
@@ -10018,10 +10060,10 @@
         <v>880</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C58" s="62" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D58" s="62" t="s">
         <v>881</v>
@@ -10032,13 +10074,13 @@
         <v>882</v>
       </c>
       <c r="B59" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="62" t="s">
         <v>883</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -10046,7 +10088,7 @@
         <v>884</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C60" s="62" t="s">
         <v>64</v>
@@ -10057,16 +10099,16 @@
     </row>
     <row r="61">
       <c r="A61" s="62" t="s">
+        <v>886</v>
+      </c>
+      <c r="B61" s="62" t="s">
         <v>885</v>
       </c>
-      <c r="B61" s="62" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" s="62" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>886</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62">
@@ -10080,26 +10122,26 @@
         <v>27</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="62" t="s">
+        <v>889</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="62" t="s">
         <v>888</v>
-      </c>
-      <c r="B63" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="62" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>133</v>
@@ -10113,7 +10155,7 @@
     </row>
     <row r="65">
       <c r="A65" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>133</v>
@@ -10127,7 +10169,7 @@
     </row>
     <row r="66">
       <c r="A66" s="62" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>133</v>
@@ -10141,7 +10183,7 @@
     </row>
     <row r="67">
       <c r="A67" s="62" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>133</v>
@@ -10155,7 +10197,7 @@
     </row>
     <row r="68">
       <c r="A68" s="62" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>133</v>
@@ -10169,10 +10211,10 @@
     </row>
     <row r="69">
       <c r="A69" s="62" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C69" s="62" t="s">
         <v>64</v>
@@ -10183,7 +10225,7 @@
     </row>
     <row r="70">
       <c r="A70" s="62" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>164</v>
@@ -10192,6 +10234,20 @@
         <v>64</v>
       </c>
       <c r="D70" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="62" t="s">
+        <v>897</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10247,7 +10303,7 @@
         <v>650</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4">
@@ -10336,10 +10392,10 @@
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -10350,10 +10406,10 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>64</v>
@@ -10364,7 +10420,7 @@
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
@@ -10373,12 +10429,12 @@
         <v>27</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
@@ -10387,12 +10443,12 @@
         <v>794</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
@@ -10401,12 +10457,12 @@
         <v>27</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
@@ -10415,7 +10471,7 @@
         <v>794</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="16">
@@ -10518,7 +10574,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>159</v>
@@ -10532,7 +10588,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>159</v>
@@ -10555,12 +10611,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>164</v>
@@ -10574,7 +10630,7 @@
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>59</v>
@@ -10583,12 +10639,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>164</v>
@@ -10602,7 +10658,7 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>164</v>
@@ -10616,7 +10672,7 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>164</v>
@@ -10630,10 +10686,10 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>64</v>
@@ -10644,7 +10700,7 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>59</v>
@@ -10653,26 +10709,26 @@
         <v>96</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>59</v>
@@ -10681,110 +10737,110 @@
         <v>96</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
@@ -10793,15 +10849,15 @@
         <v>15</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -10812,10 +10868,10 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>64</v>
@@ -10826,7 +10882,7 @@
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>5</v>
@@ -10835,15 +10891,15 @@
         <v>27</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="64" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C46" s="64" t="s">
         <v>64</v>
@@ -10881,35 +10937,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -10918,35 +10974,35 @@
         <v>15</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -10987,12 +11043,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -11001,7 +11057,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4">
@@ -11015,12 +11071,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -11029,35 +11085,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -11089,7 +11145,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -11098,12 +11154,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -11112,12 +11168,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
@@ -11126,12 +11182,12 @@
         <v>621</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
@@ -11140,12 +11196,12 @@
         <v>509</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
@@ -11154,49 +11210,49 @@
         <v>266</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -11242,7 +11298,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>164</v>
@@ -11256,16 +11312,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -11297,7 +11353,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11306,12 +11362,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>123</v>
@@ -11320,12 +11376,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>164</v>
@@ -11344,7 +11400,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11366,7 +11422,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11375,12 +11431,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11389,12 +11445,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11403,12 +11459,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>133</v>
@@ -11422,21 +11478,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11445,12 +11501,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11459,12 +11515,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>133</v>
@@ -11478,16 +11534,16 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11">
@@ -11506,7 +11562,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
@@ -11515,12 +11571,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11529,26 +11585,26 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>159</v>
@@ -11562,7 +11618,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>164</v>
@@ -11576,35 +11632,35 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
@@ -11613,12 +11669,12 @@
         <v>15</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>63</v>
@@ -11632,16 +11688,58 @@
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>1013</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="76" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="76" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="76" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -11673,7 +11771,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11682,12 +11780,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11696,12 +11794,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11710,12 +11808,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>133</v>
@@ -11729,21 +11827,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11752,12 +11850,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11766,12 +11864,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>133</v>
@@ -11785,16 +11883,16 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11">
@@ -11813,7 +11911,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>164</v>
@@ -11827,63 +11925,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>5</v>
@@ -11892,12 +11990,12 @@
         <v>64</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>164</v>
@@ -11911,63 +12009,63 @@
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
@@ -11976,12 +12074,12 @@
         <v>586</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="78" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="B24" s="78" t="s">
         <v>5</v>
@@ -11990,7 +12088,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -12181,7 +12279,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12203,7 +12301,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>159</v>
@@ -12217,7 +12315,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -12226,12 +12324,12 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
@@ -12240,12 +12338,12 @@
         <v>794</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12254,12 +12352,12 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
@@ -12268,7 +12366,7 @@
         <v>794</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7">
@@ -12279,29 +12377,29 @@
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12310,26 +12408,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12338,12 +12436,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
@@ -12352,12 +12450,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -12366,12 +12464,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -12380,12 +12478,12 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>133</v>
@@ -12399,21 +12497,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -12422,12 +12520,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -12436,12 +12534,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -12450,12 +12548,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>133</v>
@@ -12469,35 +12567,35 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>159</v>
@@ -12507,6 +12605,34 @@
       </c>
       <c r="D23" s="80" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="80" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="80" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -12538,7 +12664,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12547,12 +12673,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>133</v>
@@ -12566,7 +12692,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>133</v>
@@ -12580,7 +12706,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12589,35 +12715,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -12663,16 +12789,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -12718,21 +12844,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12741,7 +12867,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -12762,7 +12888,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12787,16 +12913,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="4">
@@ -12807,10 +12933,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -12823,7 +12949,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12834,7 +12960,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="90" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12859,7 +12985,7 @@
     </row>
     <row r="3">
       <c r="A3" s="90" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>159</v>
@@ -12873,7 +12999,7 @@
     </row>
     <row r="4">
       <c r="A4" s="90" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>159</v>
@@ -12887,58 +13013,58 @@
     </row>
     <row r="5">
       <c r="A5" s="90" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="90" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="90" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="B7" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>1078</v>
+        <v>509</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="90" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>1078</v>
+        <v>621</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9">
@@ -12949,38 +13075,80 @@
         <v>5</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>1078</v>
+        <v>509</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="B10" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>1078</v>
+        <v>621</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="90" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="B11" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>1078</v>
+        <v>509</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>1098</v>
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="90" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>621</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="90" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>621</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="90" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>509</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>1112</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1121">
   <si>
     <t>Campo</t>
   </si>
@@ -686,6 +686,24 @@
     <t>#/components/schemas/ModelAnnotazioneModificativa</t>
   </si>
   <si>
+    <t>operatoreFirmatario</t>
+  </si>
+  <si>
+    <t>Codice fiscale dell'operatore che ha firmato l'atto.</t>
+  </si>
+  <si>
+    <t>operatoreFirmatarioNome</t>
+  </si>
+  <si>
+    <t>Nome dell'operatore che ha firmato l'atto.</t>
+  </si>
+  <si>
+    <t>operatoreFirmatarioCognome</t>
+  </si>
+  <si>
+    <t>Cognome dell'operatore che ha firmato l'atto.</t>
+  </si>
+  <si>
     <t>Identificativo dell'atto collegato.</t>
   </si>
   <si>
@@ -1302,6 +1320,12 @@
   </si>
   <si>
     <t>Data di rilascio del dcoumento di riconoscimento.</t>
+  </si>
+  <si>
+    <t>tipoNascitaSoggetto</t>
+  </si>
+  <si>
+    <t>Identificativo del tipo di nascita del nascituro di cui si sta dichiarando la nascita (decodifica ANSC_107).</t>
   </si>
   <si>
     <t>giornoRinvenimento</t>
@@ -3959,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5223,6 +5247,48 @@
       </c>
       <c r="D90" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5254,63 +5320,63 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>5</v>
@@ -5319,12 +5385,12 @@
         <v>64</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>5</v>
@@ -5333,21 +5399,21 @@
         <v>15</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -5379,21 +5445,21 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>5</v>
@@ -5402,12 +5468,12 @@
         <v>66</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
@@ -5416,12 +5482,12 @@
         <v>69</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
@@ -5430,12 +5496,12 @@
         <v>72</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -5444,152 +5510,152 @@
         <v>72</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>5</v>
@@ -5598,40 +5664,40 @@
         <v>35</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>5</v>
@@ -5640,21 +5706,21 @@
         <v>45</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5686,49 +5752,49 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>5</v>
@@ -5737,7 +5803,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5769,7 +5835,7 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>5</v>
@@ -5778,12 +5844,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -5792,7 +5858,7 @@
         <v>132</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -5833,21 +5899,21 @@
         <v>15</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4">
@@ -5866,7 +5932,7 @@
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>159</v>
@@ -5880,7 +5946,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>164</v>
@@ -5894,7 +5960,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>164</v>
@@ -5949,7 +6015,7 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>5</v>
@@ -5958,12 +6024,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>5</v>
@@ -5972,40 +6038,40 @@
         <v>15</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>159</v>
@@ -6019,21 +6085,21 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>5</v>
@@ -6042,12 +6108,12 @@
         <v>78</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>59</v>
@@ -6056,12 +6122,12 @@
         <v>96</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>59</v>
@@ -6070,12 +6136,12 @@
         <v>96</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>59</v>
@@ -6084,12 +6150,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>59</v>
@@ -6098,12 +6164,12 @@
         <v>96</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>59</v>
@@ -6112,26 +6178,26 @@
         <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>123</v>
@@ -6145,7 +6211,7 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>159</v>
@@ -6186,30 +6252,30 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -6241,7 +6307,7 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>59</v>
@@ -6250,12 +6316,12 @@
         <v>96</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>164</v>
@@ -6269,10 +6335,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>64</v>
@@ -6283,7 +6349,7 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>159</v>
@@ -6313,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6338,30 +6404,30 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -6385,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6410,21 +6476,21 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>5</v>
@@ -6433,7 +6499,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5">
@@ -6505,7 +6571,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
@@ -6519,7 +6585,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5">
@@ -6533,7 +6599,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6">
@@ -6547,7 +6613,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
@@ -6558,15 +6624,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -6575,7 +6641,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -6589,7 +6655,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
@@ -6631,7 +6697,7 @@
         <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13">
@@ -6642,10 +6708,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
@@ -6659,7 +6725,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
@@ -6692,7 +6758,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -6706,7 +6772,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -6720,21 +6786,21 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -6743,49 +6809,49 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
@@ -6827,7 +6893,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6848,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -6873,7 +6939,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>5</v>
@@ -6882,40 +6948,40 @@
         <v>15</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>164</v>
@@ -6929,10 +6995,10 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>64</v>
@@ -6943,10 +7009,10 @@
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>64</v>
@@ -6987,7 +7053,7 @@
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>129</v>
@@ -7014,10 +7080,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7028,10 +7094,10 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -7056,7 +7122,7 @@
     </row>
     <row r="4">
       <c r="A4" s="44" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>5</v>
@@ -7065,12 +7131,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>5</v>
@@ -7079,26 +7145,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="44" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>5</v>
@@ -7107,12 +7173,12 @@
         <v>134</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>5</v>
@@ -7121,12 +7187,12 @@
         <v>64</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>59</v>
@@ -7135,26 +7201,26 @@
         <v>96</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="44" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>5</v>
@@ -7163,12 +7229,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>164</v>
@@ -7182,21 +7248,21 @@
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="44" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>5</v>
@@ -7205,26 +7271,26 @@
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="44" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>5</v>
@@ -7233,82 +7299,82 @@
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="44" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="44" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="44" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>164</v>
@@ -7322,7 +7388,7 @@
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>159</v>
@@ -7336,7 +7402,7 @@
     </row>
     <row r="24">
       <c r="A24" s="44" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>59</v>
@@ -7345,7 +7411,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -7370,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7381,7 +7447,7 @@
     </row>
     <row r="2">
       <c r="A2" s="45" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>133</v>
@@ -7395,10 +7461,10 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -7423,7 +7489,7 @@
     </row>
     <row r="5">
       <c r="A5" s="46" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -7432,21 +7498,21 @@
         <v>15</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="46" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -7483,7 +7549,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>59</v>
@@ -7492,15 +7558,15 @@
         <v>60</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>64</v>
@@ -7511,77 +7577,77 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>59</v>
@@ -7590,12 +7656,12 @@
         <v>60</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>5</v>
@@ -7604,26 +7670,26 @@
         <v>15</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>5</v>
@@ -7632,26 +7698,26 @@
         <v>15</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>5</v>
@@ -7660,12 +7726,12 @@
         <v>15</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>5</v>
@@ -7674,12 +7740,12 @@
         <v>15</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>5</v>
@@ -7688,12 +7754,12 @@
         <v>72</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>5</v>
@@ -7702,54 +7768,54 @@
         <v>75</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>5</v>
@@ -7758,7 +7824,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22">
@@ -7777,21 +7843,21 @@
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -7800,12 +7866,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>133</v>
@@ -7819,105 +7885,105 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>59</v>
@@ -7926,26 +7992,26 @@
         <v>60</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -7954,7 +8020,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -7972,10 +8038,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -7986,10 +8052,10 @@
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8014,35 +8080,35 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -8051,26 +8117,26 @@
         <v>64</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -8079,82 +8145,82 @@
         <v>78</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>164</v>
@@ -8168,7 +8234,7 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>5</v>
@@ -8177,7 +8243,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -8199,10 +8265,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="51" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8213,10 +8279,10 @@
     </row>
     <row r="2">
       <c r="A2" s="51" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8241,21 +8307,21 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8264,12 +8330,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>63</v>
@@ -8283,7 +8349,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>159</v>
@@ -8314,10 +8380,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="53" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8328,10 +8394,10 @@
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8356,21 +8422,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>133</v>
@@ -8401,10 +8467,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="55" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8415,10 +8481,10 @@
     </row>
     <row r="2">
       <c r="A2" s="55" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8443,7 +8509,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>59</v>
@@ -8452,12 +8518,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>159</v>
@@ -8471,7 +8537,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>164</v>
@@ -8485,7 +8551,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8494,7 +8560,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -8516,10 +8582,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="57" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -8530,10 +8596,10 @@
     </row>
     <row r="2">
       <c r="A2" s="57" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -8558,7 +8624,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8567,26 +8633,26 @@
         <v>64</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>133</v>
@@ -8637,141 +8703,141 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
@@ -8780,82 +8846,82 @@
         <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>5</v>
@@ -8864,68 +8930,68 @@
         <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -8934,26 +9000,26 @@
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -8962,12 +9028,12 @@
         <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
@@ -8976,26 +9042,26 @@
         <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -9004,12 +9070,12 @@
         <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>59</v>
@@ -9018,12 +9084,12 @@
         <v>96</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -9032,12 +9098,12 @@
         <v>96</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>59</v>
@@ -9046,15 +9112,15 @@
         <v>96</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>64</v>
@@ -9065,10 +9131,10 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>64</v>
@@ -9106,7 +9172,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -9115,12 +9181,12 @@
         <v>66</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -9129,12 +9195,12 @@
         <v>69</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -9143,12 +9209,12 @@
         <v>72</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -9157,91 +9223,91 @@
         <v>72</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="60" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B11" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -9273,7 +9339,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>63</v>
@@ -9287,35 +9353,35 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9324,12 +9390,12 @@
         <v>40</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
@@ -9338,40 +9404,40 @@
         <v>15</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>133</v>
@@ -9385,7 +9451,7 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
@@ -9394,26 +9460,26 @@
         <v>27</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
@@ -9422,40 +9488,40 @@
         <v>27</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>133</v>
@@ -9469,7 +9535,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>133</v>
@@ -9483,7 +9549,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>133</v>
@@ -9497,7 +9563,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>133</v>
@@ -9511,7 +9577,7 @@
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>5</v>
@@ -9520,12 +9586,12 @@
         <v>15</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>133</v>
@@ -9539,7 +9605,7 @@
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>59</v>
@@ -9548,15 +9614,15 @@
         <v>60</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>64</v>
@@ -9567,10 +9633,10 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>64</v>
@@ -9581,7 +9647,7 @@
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>59</v>
@@ -9590,12 +9656,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>59</v>
@@ -9604,12 +9670,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>164</v>
@@ -9623,7 +9689,7 @@
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>59</v>
@@ -9632,12 +9698,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>59</v>
@@ -9646,12 +9712,12 @@
         <v>60</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>164</v>
@@ -9665,7 +9731,7 @@
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>59</v>
@@ -9674,12 +9740,12 @@
         <v>60</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>164</v>
@@ -9693,7 +9759,7 @@
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>5</v>
@@ -9702,12 +9768,12 @@
         <v>15</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>5</v>
@@ -9716,12 +9782,12 @@
         <v>27</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>59</v>
@@ -9730,12 +9796,12 @@
         <v>96</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>164</v>
@@ -9749,7 +9815,7 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>164</v>
@@ -9763,7 +9829,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>164</v>
@@ -9777,10 +9843,10 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>64</v>
@@ -9791,7 +9857,7 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>159</v>
@@ -9805,7 +9871,7 @@
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>159</v>
@@ -9819,7 +9885,7 @@
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>59</v>
@@ -9828,26 +9894,26 @@
         <v>96</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>59</v>
@@ -9856,110 +9922,110 @@
         <v>96</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>5</v>
@@ -9968,12 +10034,12 @@
         <v>64</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>59</v>
@@ -9982,12 +10048,12 @@
         <v>96</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>5</v>
@@ -9996,12 +10062,12 @@
         <v>15</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>123</v>
@@ -10010,26 +10076,26 @@
         <v>64</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="C55" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>161</v>
@@ -10043,21 +10109,21 @@
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>59</v>
@@ -10066,12 +10132,12 @@
         <v>60</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="B59" s="62" t="s">
         <v>5</v>
@@ -10080,15 +10146,15 @@
         <v>15</v>
       </c>
       <c r="D59" s="62" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="62" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C60" s="62" t="s">
         <v>64</v>
@@ -10099,10 +10165,10 @@
     </row>
     <row r="61">
       <c r="A61" s="62" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C61" s="62" t="s">
         <v>64</v>
@@ -10113,7 +10179,7 @@
     </row>
     <row r="62">
       <c r="A62" s="62" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>5</v>
@@ -10122,12 +10188,12 @@
         <v>27</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="62" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>5</v>
@@ -10136,12 +10202,12 @@
         <v>27</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="62" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>133</v>
@@ -10155,7 +10221,7 @@
     </row>
     <row r="65">
       <c r="A65" s="62" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>133</v>
@@ -10169,7 +10235,7 @@
     </row>
     <row r="66">
       <c r="A66" s="62" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>133</v>
@@ -10183,7 +10249,7 @@
     </row>
     <row r="67">
       <c r="A67" s="62" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>133</v>
@@ -10197,7 +10263,7 @@
     </row>
     <row r="68">
       <c r="A68" s="62" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>133</v>
@@ -10211,7 +10277,7 @@
     </row>
     <row r="69">
       <c r="A69" s="62" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>133</v>
@@ -10225,7 +10291,7 @@
     </row>
     <row r="70">
       <c r="A70" s="62" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>164</v>
@@ -10239,7 +10305,7 @@
     </row>
     <row r="71">
       <c r="A71" s="62" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>164</v>
@@ -10280,7 +10346,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>63</v>
@@ -10294,35 +10360,35 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10331,26 +10397,26 @@
         <v>40</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>133</v>
@@ -10364,38 +10430,38 @@
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -10406,10 +10472,10 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>64</v>
@@ -10420,7 +10486,7 @@
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
@@ -10429,26 +10495,26 @@
         <v>27</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
@@ -10457,40 +10523,40 @@
         <v>27</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>133</v>
@@ -10504,7 +10570,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>133</v>
@@ -10518,7 +10584,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>133</v>
@@ -10532,7 +10598,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>133</v>
@@ -10546,7 +10612,7 @@
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>5</v>
@@ -10555,12 +10621,12 @@
         <v>15</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>133</v>
@@ -10574,7 +10640,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>159</v>
@@ -10588,7 +10654,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>159</v>
@@ -10602,7 +10668,7 @@
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>59</v>
@@ -10611,12 +10677,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>164</v>
@@ -10630,7 +10696,7 @@
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>59</v>
@@ -10639,12 +10705,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>164</v>
@@ -10658,7 +10724,7 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>164</v>
@@ -10672,7 +10738,7 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>164</v>
@@ -10686,10 +10752,10 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>64</v>
@@ -10700,7 +10766,7 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>59</v>
@@ -10709,26 +10775,26 @@
         <v>96</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>59</v>
@@ -10737,110 +10803,110 @@
         <v>96</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="B37" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
@@ -10849,15 +10915,15 @@
         <v>15</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -10868,10 +10934,10 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>64</v>
@@ -10882,7 +10948,7 @@
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>5</v>
@@ -10891,15 +10957,15 @@
         <v>27</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="64" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C46" s="64" t="s">
         <v>64</v>
@@ -10937,35 +11003,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
+        <v>939</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="66" t="s">
         <v>931</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>923</v>
-      </c>
       <c r="D2" s="66" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -10974,35 +11040,35 @@
         <v>15</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -11034,7 +11100,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -11043,12 +11109,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -11057,12 +11123,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -11071,12 +11137,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -11085,35 +11151,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -11145,7 +11211,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -11154,12 +11220,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -11168,91 +11234,91 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -11284,7 +11350,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>159</v>
@@ -11298,7 +11364,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>164</v>
@@ -11312,16 +11378,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -11353,7 +11419,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11362,12 +11428,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>123</v>
@@ -11376,12 +11442,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>164</v>
@@ -11422,7 +11488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11431,12 +11497,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11445,12 +11511,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11459,12 +11525,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>133</v>
@@ -11478,21 +11544,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11501,12 +11567,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11515,12 +11581,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>133</v>
@@ -11534,21 +11600,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>159</v>
@@ -11562,7 +11628,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
@@ -11571,12 +11637,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11585,26 +11651,26 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>159</v>
@@ -11618,7 +11684,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>164</v>
@@ -11632,35 +11698,35 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
@@ -11669,12 +11735,12 @@
         <v>15</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>63</v>
@@ -11688,21 +11754,21 @@
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="76" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>59</v>
@@ -11711,12 +11777,12 @@
         <v>96</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="76" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>5</v>
@@ -11725,12 +11791,12 @@
         <v>64</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="76" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="B24" s="76" t="s">
         <v>5</v>
@@ -11739,7 +11805,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -11771,7 +11837,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11780,12 +11846,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11794,12 +11860,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11808,12 +11874,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>133</v>
@@ -11827,21 +11893,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11850,12 +11916,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11864,12 +11930,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>133</v>
@@ -11883,21 +11949,21 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>159</v>
@@ -11911,7 +11977,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>164</v>
@@ -11925,63 +11991,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>5</v>
@@ -11990,12 +12056,12 @@
         <v>64</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>164</v>
@@ -12009,77 +12075,77 @@
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="78" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="B24" s="78" t="s">
         <v>5</v>
@@ -12088,7 +12154,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -12120,7 +12186,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -12129,12 +12195,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -12143,12 +12209,12 @@
         <v>186</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -12157,40 +12223,40 @@
         <v>186</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -12199,12 +12265,12 @@
         <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -12213,40 +12279,40 @@
         <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -12255,21 +12321,21 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -12301,7 +12367,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>159</v>
@@ -12315,7 +12381,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -12324,26 +12390,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12352,54 +12418,54 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="80" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="80" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="80" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>59</v>
@@ -12408,26 +12474,26 @@
         <v>60</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="80" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="80" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>5</v>
@@ -12436,12 +12502,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="80" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>59</v>
@@ -12450,12 +12516,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="80" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>5</v>
@@ -12464,12 +12530,12 @@
         <v>64</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="80" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>59</v>
@@ -12478,12 +12544,12 @@
         <v>60</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="80" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>133</v>
@@ -12497,21 +12563,21 @@
     </row>
     <row r="16">
       <c r="A16" s="80" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="80" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>59</v>
@@ -12520,12 +12586,12 @@
         <v>60</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="80" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -12534,12 +12600,12 @@
         <v>60</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="80" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>59</v>
@@ -12548,12 +12614,12 @@
         <v>60</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="80" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>133</v>
@@ -12567,35 +12633,35 @@
     </row>
     <row r="21">
       <c r="A21" s="80" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="80" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="80" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>159</v>
@@ -12609,7 +12675,7 @@
     </row>
     <row r="24">
       <c r="A24" s="80" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="B24" s="80" t="s">
         <v>59</v>
@@ -12618,12 +12684,12 @@
         <v>96</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="80" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="B25" s="80" t="s">
         <v>5</v>
@@ -12632,7 +12698,7 @@
         <v>64</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -12664,7 +12730,7 @@
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="B2" s="82" t="s">
         <v>5</v>
@@ -12673,12 +12739,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="B3" s="82" t="s">
         <v>133</v>
@@ -12692,7 +12758,7 @@
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>133</v>
@@ -12706,7 +12772,7 @@
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>5</v>
@@ -12715,35 +12781,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -12775,7 +12841,7 @@
     </row>
     <row r="2">
       <c r="A2" s="84" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B2" s="84" t="s">
         <v>164</v>
@@ -12789,16 +12855,16 @@
     </row>
     <row r="3">
       <c r="A3" s="84" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -12844,21 +12910,21 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="86" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
@@ -12867,7 +12933,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -12888,7 +12954,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12913,16 +12979,16 @@
     </row>
     <row r="3">
       <c r="A3" s="88" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4">
@@ -12933,10 +12999,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -12960,7 +13026,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="90" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -12985,7 +13051,7 @@
     </row>
     <row r="3">
       <c r="A3" s="90" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>159</v>
@@ -12999,7 +13065,7 @@
     </row>
     <row r="4">
       <c r="A4" s="90" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>159</v>
@@ -13013,142 +13079,142 @@
     </row>
     <row r="5">
       <c r="A5" s="90" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="90" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="90" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="B7" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="90" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="90" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B9" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="90" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="B10" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="90" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="B11" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="90" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="B12" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="90" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="B13" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="90" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="B14" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
@@ -13169,7 +13235,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>164</v>
@@ -13183,10 +13249,10 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -13211,72 +13277,72 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -13318,15 +13384,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
@@ -13335,35 +13401,35 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -13384,7 +13450,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -13409,35 +13475,35 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>5</v>
@@ -13446,26 +13512,26 @@
         <v>64</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -13474,26 +13540,26 @@
         <v>40</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -13502,12 +13568,12 @@
         <v>99</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -13516,26 +13582,26 @@
         <v>64</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
@@ -13544,12 +13610,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
@@ -13558,12 +13624,12 @@
         <v>15</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>198</v>
@@ -13577,7 +13643,7 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>198</v>
@@ -13591,7 +13657,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>5</v>
@@ -13600,7 +13666,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -13613,7 +13679,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13624,7 +13690,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -13649,21 +13715,21 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
@@ -13672,26 +13738,26 @@
         <v>15</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
@@ -13700,21 +13766,35 @@
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -13749,119 +13829,119 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>5</v>
@@ -13870,7 +13950,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -1283,6 +1283,12 @@
     <t>tipo accertamento nascita (decodifica ANSC_78)</t>
   </si>
   <si>
+    <t>tipoNascitaSoggetto</t>
+  </si>
+  <si>
+    <t>Identificativo del tipo di nascita del nascituro di cui si sta dichiarando la nascita (decodifica ANSC_107).</t>
+  </si>
+  <si>
     <t>Descrizione del documento di Riconoscimento</t>
   </si>
   <si>
@@ -1320,12 +1326,6 @@
   </si>
   <si>
     <t>Data di rilascio del dcoumento di riconoscimento.</t>
-  </si>
-  <si>
-    <t>tipoNascitaSoggetto</t>
-  </si>
-  <si>
-    <t>Identificativo del tipo di nascita del nascituro di cui si sta dichiarando la nascita (decodifica ANSC_107).</t>
   </si>
   <si>
     <t>giornoRinvenimento</t>
@@ -13439,7 +13439,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13667,6 +13667,20 @@
       </c>
       <c r="D16" s="14" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -13679,7 +13693,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13690,7 +13704,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
@@ -13715,21 +13729,21 @@
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>5</v>
@@ -13738,12 +13752,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>5</v>
@@ -13752,12 +13766,12 @@
         <v>343</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>5</v>
@@ -13766,34 +13780,20 @@
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16" t="s">
         <v>422</v>
       </c>
     </row>

--- a/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
+++ b/docs/Caratteristiche_servizi/Tracciato-Evento.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1122">
   <si>
     <t>Campo</t>
   </si>
@@ -2138,7 +2138,10 @@
     <t>riassuntoDichiarazione</t>
   </si>
   <si>
-    <t>Testo libero per annotazione 140-bis</t>
+    <t>di essere attualmente di cittadinanza .. nato in .. nel comune di.. in data.. di aver risieduto in ...</t>
+  </si>
+  <si>
+    <t>riassumere brevemente il contenuto della dichiarazione per integrazione con l'annotazione di formula 140-bis.</t>
   </si>
   <si>
     <t>presenzaInteressato</t>
@@ -7849,15 +7852,15 @@
         <v>5</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>59</v>
@@ -7866,12 +7869,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>133</v>
@@ -7885,21 +7888,21 @@
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>5</v>
@@ -7908,12 +7911,12 @@
         <v>688</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>5</v>
@@ -7922,12 +7925,12 @@
         <v>688</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>5</v>
@@ -7936,12 +7939,12 @@
         <v>688</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>5</v>
@@ -7950,26 +7953,26 @@
         <v>688</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>5</v>
@@ -7978,12 +7981,12 @@
         <v>658</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>59</v>
@@ -7992,26 +7995,26 @@
         <v>60</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>5</v>
@@ -8020,7 +8023,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -8080,35 +8083,35 @@
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -8117,12 +8120,12 @@
         <v>64</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>5</v>
@@ -8131,12 +8134,12 @@
         <v>568</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>5</v>
@@ -8145,26 +8148,26 @@
         <v>78</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>5</v>
@@ -8173,21 +8176,21 @@
         <v>568</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12">
@@ -8201,26 +8204,26 @@
         <v>354</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>164</v>
@@ -8234,7 +8237,7 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B15" s="50" t="s">
         <v>5</v>
@@ -8243,7 +8246,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -8307,7 +8310,7 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>5</v>
@@ -8316,12 +8319,12 @@
         <v>658</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>5</v>
@@ -8330,12 +8333,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>63</v>
@@ -8349,7 +8352,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>159</v>
@@ -8422,21 +8425,21 @@
     </row>
     <row r="4">
       <c r="A4" s="54" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="54" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>133</v>
@@ -8509,7 +8512,7 @@
     </row>
     <row r="4">
       <c r="A4" s="56" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>59</v>
@@ -8518,12 +8521,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="56" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>159</v>
@@ -8537,7 +8540,7 @@
     </row>
     <row r="6">
       <c r="A6" s="56" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>164</v>
@@ -8551,7 +8554,7 @@
     </row>
     <row r="7">
       <c r="A7" s="56" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
@@ -8560,7 +8563,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -8624,7 +8627,7 @@
     </row>
     <row r="4">
       <c r="A4" s="58" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>5</v>
@@ -8633,26 +8636,26 @@
         <v>64</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>133</v>
@@ -9172,7 +9175,7 @@
     </row>
     <row r="2">
       <c r="A2" s="60" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>5</v>
@@ -9181,12 +9184,12 @@
         <v>66</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>5</v>
@@ -9195,12 +9198,12 @@
         <v>69</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>5</v>
@@ -9209,12 +9212,12 @@
         <v>72</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>5</v>
@@ -9223,12 +9226,12 @@
         <v>72</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>5</v>
@@ -9237,12 +9240,12 @@
         <v>280</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>5</v>
@@ -9251,12 +9254,12 @@
         <v>283</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>5</v>
@@ -9265,12 +9268,12 @@
         <v>436</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>5</v>
@@ -9279,21 +9282,21 @@
         <v>482</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="60" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11">
@@ -9304,10 +9307,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="2">
       <c r="A2" s="62" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>63</v>
@@ -9353,7 +9356,7 @@
     </row>
     <row r="3">
       <c r="A3" s="62" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>5</v>
@@ -9362,12 +9365,12 @@
         <v>658</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>5</v>
@@ -9376,12 +9379,12 @@
         <v>386</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>5</v>
@@ -9390,12 +9393,12 @@
         <v>40</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>5</v>
@@ -9404,12 +9407,12 @@
         <v>15</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>5</v>
@@ -9418,12 +9421,12 @@
         <v>517</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>5</v>
@@ -9432,12 +9435,12 @@
         <v>629</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>133</v>
@@ -9451,7 +9454,7 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>5</v>
@@ -9460,26 +9463,26 @@
         <v>27</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>5</v>
@@ -9488,40 +9491,40 @@
         <v>27</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="62" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>133</v>
@@ -9535,7 +9538,7 @@
     </row>
     <row r="16">
       <c r="A16" s="62" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>133</v>
@@ -9549,7 +9552,7 @@
     </row>
     <row r="17">
       <c r="A17" s="62" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>133</v>
@@ -9563,7 +9566,7 @@
     </row>
     <row r="18">
       <c r="A18" s="62" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>133</v>
@@ -9577,7 +9580,7 @@
     </row>
     <row r="19">
       <c r="A19" s="62" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>5</v>
@@ -9586,12 +9589,12 @@
         <v>15</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="62" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>133</v>
@@ -9605,7 +9608,7 @@
     </row>
     <row r="21">
       <c r="A21" s="62" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>59</v>
@@ -9614,15 +9617,15 @@
         <v>60</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="62" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>64</v>
@@ -9633,10 +9636,10 @@
     </row>
     <row r="23">
       <c r="A23" s="62" t="s">
+        <v>823</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>822</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>821</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>64</v>
@@ -9647,7 +9650,7 @@
     </row>
     <row r="24">
       <c r="A24" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>59</v>
@@ -9656,12 +9659,12 @@
         <v>60</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="62" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>59</v>
@@ -9670,12 +9673,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>164</v>
@@ -9689,7 +9692,7 @@
     </row>
     <row r="27">
       <c r="A27" s="62" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>59</v>
@@ -9698,12 +9701,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="62" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>59</v>
@@ -9712,12 +9715,12 @@
         <v>60</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="62" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>164</v>
@@ -9731,7 +9734,7 @@
     </row>
     <row r="30">
       <c r="A30" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>59</v>
@@ -9740,12 +9743,12 @@
         <v>60</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="62" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>164</v>
@@ -9759,7 +9762,7 @@
     </row>
     <row r="32">
       <c r="A32" s="62" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>5</v>
@@ -9768,12 +9771,12 @@
         <v>15</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="62" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>5</v>
@@ -9782,12 +9785,12 @@
         <v>27</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="62" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>59</v>
@@ -9796,12 +9799,12 @@
         <v>96</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>164</v>
@@ -9815,7 +9818,7 @@
     </row>
     <row r="36">
       <c r="A36" s="62" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>164</v>
@@ -9829,7 +9832,7 @@
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>164</v>
@@ -9843,10 +9846,10 @@
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>64</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>159</v>
@@ -9871,7 +9874,7 @@
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>159</v>
@@ -9885,7 +9888,7 @@
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B41" s="62" t="s">
         <v>59</v>
@@ -9894,26 +9897,26 @@
         <v>96</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>59</v>
@@ -9922,40 +9925,40 @@
         <v>96</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="62" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>5</v>
@@ -9964,26 +9967,26 @@
         <v>272</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>5</v>
@@ -9992,40 +9995,40 @@
         <v>277</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="62" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>5</v>
@@ -10034,12 +10037,12 @@
         <v>64</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="62" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>59</v>
@@ -10048,12 +10051,12 @@
         <v>96</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>5</v>
@@ -10062,12 +10065,12 @@
         <v>15</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>123</v>
@@ -10076,26 +10079,26 @@
         <v>64</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C55" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>161</v>
@@ -10109,21 +10112,21 @@
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>59</v>
@@ -10132,12 +10135,12 @@
         <v>60</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B59" s="62" t="s">
         <v>5</v>
@@ -10146,15 +10149,15 @@
         <v>15</v>
       </c>
       <c r="D59" s="62" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="62" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C60" s="62" t="s">
         <v>64</v>
@@ -10165,10 +10168,10 @@
     </row>
     <row r="61">
       <c r="A61" s="62" t="s">
+        <v>895</v>
+      </c>
+      <c r="B61" s="62" t="s">
         <v>894</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>893</v>
       </c>
       <c r="C61" s="62" t="s">
         <v>64</v>
@@ -10179,7 +10182,7 @@
     </row>
     <row r="62">
       <c r="A62" s="62" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>5</v>
@@ -10188,12 +10191,12 @@
         <v>27</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="62" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>5</v>
@@ -10202,12 +10205,12 @@
         <v>27</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="62" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>133</v>
@@ -10221,7 +10224,7 @@
     </row>
     <row r="65">
       <c r="A65" s="62" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>133</v>
@@ -10235,7 +10238,7 @@
     </row>
     <row r="66">
       <c r="A66" s="62" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>133</v>
@@ -10249,7 +10252,7 @@
     </row>
     <row r="67">
       <c r="A67" s="62" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>133</v>
@@ -10263,7 +10266,7 @@
     </row>
     <row r="68">
       <c r="A68" s="62" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>133</v>
@@ -10277,7 +10280,7 @@
     </row>
     <row r="69">
       <c r="A69" s="62" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>133</v>
@@ -10291,7 +10294,7 @@
     </row>
     <row r="70">
       <c r="A70" s="62" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>164</v>
@@ -10305,7 +10308,7 @@
     </row>
     <row r="71">
       <c r="A71" s="62" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>164</v>
@@ -10346,7 +10349,7 @@
     </row>
     <row r="2">
       <c r="A2" s="64" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>63</v>
@@ -10360,7 +10363,7 @@
     </row>
     <row r="3">
       <c r="A3" s="64" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>5</v>
@@ -10369,12 +10372,12 @@
         <v>658</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="64" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>5</v>
@@ -10383,12 +10386,12 @@
         <v>386</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>5</v>
@@ -10397,12 +10400,12 @@
         <v>40</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>5</v>
@@ -10411,12 +10414,12 @@
         <v>504</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>133</v>
@@ -10430,7 +10433,7 @@
     </row>
     <row r="8">
       <c r="A8" s="64" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>5</v>
@@ -10439,12 +10442,12 @@
         <v>517</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="64" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>5</v>
@@ -10453,15 +10456,15 @@
         <v>629</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="64" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>64</v>
@@ -10472,10 +10475,10 @@
     </row>
     <row r="11">
       <c r="A11" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>909</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>908</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>64</v>
@@ -10486,7 +10489,7 @@
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>5</v>
@@ -10495,26 +10498,26 @@
         <v>27</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="64" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="64" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>5</v>
@@ -10523,40 +10526,40 @@
         <v>27</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="64" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="64" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="64" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>133</v>
@@ -10570,7 +10573,7 @@
     </row>
     <row r="18">
       <c r="A18" s="64" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>133</v>
@@ -10584,7 +10587,7 @@
     </row>
     <row r="19">
       <c r="A19" s="64" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>133</v>
@@ -10598,7 +10601,7 @@
     </row>
     <row r="20">
       <c r="A20" s="64" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>133</v>
@@ -10612,7 +10615,7 @@
     </row>
     <row r="21">
       <c r="A21" s="64" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>5</v>
@@ -10621,12 +10624,12 @@
         <v>15</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="64" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>133</v>
@@ -10640,7 +10643,7 @@
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>159</v>
@@ -10654,7 +10657,7 @@
     </row>
     <row r="24">
       <c r="A24" s="64" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>159</v>
@@ -10668,7 +10671,7 @@
     </row>
     <row r="25">
       <c r="A25" s="64" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>59</v>
@@ -10677,12 +10680,12 @@
         <v>60</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="64" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>164</v>
@@ -10696,7 +10699,7 @@
     </row>
     <row r="27">
       <c r="A27" s="64" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>59</v>
@@ -10705,12 +10708,12 @@
         <v>60</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="64" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B28" s="64" t="s">
         <v>164</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="29">
       <c r="A29" s="64" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>164</v>
@@ -10738,7 +10741,7 @@
     </row>
     <row r="30">
       <c r="A30" s="64" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B30" s="64" t="s">
         <v>164</v>
@@ -10752,10 +10755,10 @@
     </row>
     <row r="31">
       <c r="A31" s="64" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>64</v>
@@ -10766,7 +10769,7 @@
     </row>
     <row r="32">
       <c r="A32" s="64" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B32" s="64" t="s">
         <v>59</v>
@@ -10775,26 +10778,26 @@
         <v>96</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="64" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>59</v>
@@ -10803,110 +10806,110 @@
         <v>96</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="64" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B35" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="64" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B36" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="64" t="s">
+        <v>862</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>931</v>
+      </c>
+      <c r="D37" s="64" t="s">
         <v>861</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>930</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="64" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="64" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B39" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="64" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="64" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>5</v>
@@ -10915,15 +10918,15 @@
         <v>15</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>64</v>
@@ -10934,10 +10937,10 @@
     </row>
     <row r="44">
       <c r="A44" s="64" t="s">
+        <v>895</v>
+      </c>
+      <c r="B44" s="64" t="s">
         <v>894</v>
-      </c>
-      <c r="B44" s="64" t="s">
-        <v>893</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>64</v>
@@ -10948,7 +10951,7 @@
     </row>
     <row r="45">
       <c r="A45" s="64" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>5</v>
@@ -10957,15 +10960,15 @@
         <v>27</v>
       </c>
       <c r="D45" s="64" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="64" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C46" s="64" t="s">
         <v>64</v>
@@ -11003,35 +11006,35 @@
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>5</v>
@@ -11040,35 +11043,35 @@
         <v>15</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="66" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -11100,7 +11103,7 @@
     </row>
     <row r="2">
       <c r="A2" s="68" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>5</v>
@@ -11109,12 +11112,12 @@
         <v>72</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>5</v>
@@ -11123,12 +11126,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="68" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>5</v>
@@ -11137,12 +11140,12 @@
         <v>66</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="68" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>5</v>
@@ -11151,35 +11154,35 @@
         <v>69</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -11211,7 +11214,7 @@
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B2" s="70" t="s">
         <v>5</v>
@@ -11220,12 +11223,12 @@
         <v>15</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="70" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>59</v>
@@ -11234,12 +11237,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="70" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>5</v>
@@ -11248,12 +11251,12 @@
         <v>629</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="70" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>5</v>
@@ -11262,12 +11265,12 @@
         <v>517</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="70" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>5</v>
@@ -11276,49 +11279,49 @@
         <v>272</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="70" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="70" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>
@@ -11350,7 +11353,7 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>159</v>
@@ -11364,7 +11367,7 @@
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>164</v>
@@ -11378,16 +11381,16 @@
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -11419,7 +11422,7 @@
     </row>
     <row r="2">
       <c r="A2" s="74" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>5</v>
@@ -11428,12 +11431,12 @@
         <v>27</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="74" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>123</v>
@@ -11442,12 +11445,12 @@
         <v>64</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="74" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>164</v>
@@ -11488,7 +11491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="76" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>5</v>
@@ -11497,12 +11500,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="76" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>59</v>
@@ -11511,12 +11514,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>59</v>
@@ -11525,12 +11528,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="76" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>133</v>
@@ -11544,21 +11547,21 @@
     </row>
     <row r="6">
       <c r="A6" s="76" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="76" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>59</v>
@@ -11567,12 +11570,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="76" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>59</v>
@@ -11581,12 +11584,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B9" s="76" t="s">
         <v>133</v>
@@ -11600,21 +11603,21 @@
     </row>
     <row r="10">
       <c r="A10" s="76" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="76" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>159</v>
@@ -11628,7 +11631,7 @@
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>59</v>
@@ -11637,12 +11640,12 @@
         <v>96</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="76" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>5</v>
@@ -11651,26 +11654,26 @@
         <v>64</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="76" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B15" s="76" t="s">
         <v>159</v>
@@ -11684,7 +11687,7 @@
     </row>
     <row r="16">
       <c r="A16" s="76" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>164</v>
@@ -11698,35 +11701,35 @@
     </row>
     <row r="17">
       <c r="A17" s="76" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="76" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="76" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B19" s="76" t="s">
         <v>5</v>
@@ -11735,12 +11738,12 @@
         <v>15</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="76" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B20" s="76" t="s">
         <v>63</v>
@@ -11754,21 +11757,21 @@
     </row>
     <row r="21">
       <c r="A21" s="76" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B21" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="76" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>59</v>
@@ -11777,12 +11780,12 @@
         <v>96</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="76" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>5</v>
@@ -11791,12 +11794,12 @@
         <v>64</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="76" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B24" s="76" t="s">
         <v>5</v>
@@ -11805,7 +11808,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -11837,7 +11840,7 @@
     </row>
     <row r="2">
       <c r="A2" s="78" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>5</v>
@@ -11846,12 +11849,12 @@
         <v>64</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>59</v>
@@ -11860,12 +11863,12 @@
         <v>60</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="78" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>59</v>
@@ -11874,12 +11877,12 @@
         <v>60</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>133</v>
@@ -11893,21 +11896,21 @@
     </row>
     <row r="6">
       <c r="A6" s="78" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>59</v>
@@ -11916,12 +11919,12 @@
         <v>60</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="78" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>59</v>
@@ -11930,12 +11933,12 @@
         <v>60</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>133</v>
@@ -11949,21 +11952,21 @@
     </row>
     <row r="10">
       <c r="A10" s="78" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>159</v>
@@ -11977,7 +11980,7 @@
     </row>
     <row r="12">
       <c r="A12" s="78" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>164</v>
@@ -11991,63 +11994,63 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="78" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>5</v>
@@ -12056,12 +12059,12 @@
         <v>64</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="78" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>164</v>
@@ -12075,63 +12078,63 @@
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B19" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="78" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B20" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="78" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="78" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B22" s="78" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="78" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>5</v>
@@ -12140,12 +12143,12 @@
         <v>594</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="78" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B24" s="78" t="s">
         <v>5</v>
@@ -12154,7 +12157,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -12367,7 +12370,7 @@
     </row>
     <row r="2">
       <c r="A2" s="80" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>159</v>
@@ -12381,7 +12384,7 @@
     </row>
     <row r="3">
       <c r="A3" s="80" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>5</v>
@@ -12390,26 +12393,26 @@
         <v>27</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="80" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="80" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>5</v>
@@ -12418,21 +12421,21 @@
         <v>27</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="80" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>802</v>
+        <